--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF329C-EDF4-4094-B4E4-7E66289B0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="摘要" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -885,14 +884,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>扣除短收本金、含收回欠繳本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除減免、扣除短收利息、含收回欠繳利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>custNoTxtNoEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1308,12 +1299,21 @@
 09:其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>扣除減免、扣除短收利息、含收回欠繳利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除短收本金、含收回欠繳本金
+催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1766,23 +1766,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1818,23 +1801,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2010,14 +1976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2025,12 +1991,12 @@
     <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.77734375" style="4" customWidth="1"/>
     <col min="8" max="8" width="41" style="10" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="42" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2013,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="11" t="s">
@@ -2062,7 +2028,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="32.4">
       <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
@@ -2079,7 +2045,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="44" t="s">
         <v>48</v>
       </c>
@@ -2092,7 +2058,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="47" t="s">
         <v>49</v>
       </c>
@@ -2105,7 +2071,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="44" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +2084,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="44" t="s">
         <v>51</v>
       </c>
@@ -2131,7 +2097,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2155,7 +2121,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2175,7 +2141,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2198,7 +2164,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2219,7 +2185,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2240,7 +2206,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2261,7 +2227,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2282,7 +2248,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2303,7 +2269,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2324,7 +2290,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2345,7 +2311,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2366,7 +2332,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2385,17 +2351,17 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2408,11 +2374,11 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2433,7 +2399,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2454,16 +2420,16 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="162">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>97</v>
@@ -2473,11 +2439,11 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2498,16 +2464,16 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>122</v>
@@ -2519,13 +2485,13 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
@@ -2538,11 +2504,11 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2565,7 +2531,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2586,7 +2552,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2607,7 +2573,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2632,7 +2598,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2655,7 +2621,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2676,7 +2642,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2697,7 +2663,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2706,7 +2672,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>97</v>
@@ -2718,7 +2684,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2741,7 +2707,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2750,7 +2716,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>97</v>
@@ -2762,11 +2728,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2786,12 +2752,12 @@
       <c r="F37" s="14">
         <v>2</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>221</v>
+      <c r="G37" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2816,7 +2782,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2825,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>97</v>
@@ -2841,7 +2807,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2850,7 +2816,7 @@
         <v>141</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>97</v>
@@ -2866,7 +2832,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2875,7 +2841,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>97</v>
@@ -2887,17 +2853,17 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>188</v>
@@ -2912,11 +2878,11 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2925,7 +2891,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>97</v>
@@ -2939,7 +2905,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2948,7 +2914,7 @@
         <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>97</v>
@@ -2962,7 +2928,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="18" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2971,7 +2937,7 @@
         <v>171</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>97</v>
@@ -2983,11 +2949,11 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3012,7 +2978,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3037,7 +3003,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="123" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3056,11 +3022,11 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3079,7 +3045,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3100,7 +3066,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3119,7 +3085,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3157,7 +3123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3165,7 +3131,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3173,7 +3139,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -3184,18 +3150,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
@@ -3206,7 +3172,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>111</v>
       </c>
@@ -3214,10 +3180,10 @@
         <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>161</v>
       </c>
@@ -3225,7 +3191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>144</v>
       </c>
@@ -3233,10 +3199,10 @@
         <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>162</v>
       </c>
@@ -3244,18 +3210,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="37" t="s">
         <v>191</v>
       </c>
@@ -3266,59 +3232,59 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3329,14 +3295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3349,15 +3315,15 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3378,7 +3344,7 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -3400,7 +3366,7 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>3</v>
@@ -3422,7 +3388,7 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3444,7 +3410,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3466,13 +3432,13 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>97</v>
@@ -3484,10 +3450,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A8" s="34">
         <f>A6+1</f>
         <v>6</v>
@@ -3509,7 +3475,7 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3531,7 +3497,7 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3553,7 +3519,7 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3575,7 +3541,7 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3597,7 +3563,7 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3619,7 +3585,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3641,13 +3607,13 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>29</v>
@@ -3663,7 +3629,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3683,7 +3649,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3705,7 +3671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3727,7 +3693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3749,7 +3715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3768,10 +3734,10 @@
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3793,7 +3759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3805,7 +3771,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="34">
         <v>7</v>
@@ -3813,7 +3779,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3833,7 +3799,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3853,7 +3819,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3873,7 +3839,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3893,7 +3859,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3913,7 +3879,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3933,7 +3899,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3953,7 +3919,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="96" customHeight="1">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3975,32 +3941,32 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="32.4">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>278</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>280</v>
       </c>
       <c r="E31" s="32">
         <v>4</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4009,10 +3975,10 @@
         <v>86</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E32" s="34">
         <v>6</v>
@@ -4020,19 +3986,19 @@
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>274</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>276</v>
       </c>
       <c r="E33" s="34">
         <v>6</v>
@@ -4040,35 +4006,35 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E34" s="34">
         <v>1</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="31.2" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
@@ -4076,16 +4042,16 @@
       <c r="F35" s="31"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>151</v>
@@ -4098,16 +4064,16 @@
       </c>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>151</v>
@@ -4120,16 +4086,16 @@
       </c>
       <c r="G37" s="38"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>151</v>
@@ -4142,16 +4108,16 @@
       </c>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>151</v>
@@ -4162,16 +4128,16 @@
       <c r="F39" s="31"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>151</v>
@@ -4182,19 +4148,19 @@
       <c r="F40" s="31"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="E41" s="32">
         <v>8</v>
@@ -4202,19 +4168,19 @@
       <c r="F41" s="31"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E42" s="32">
         <v>8</v>
@@ -4222,19 +4188,19 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E43" s="32">
         <v>8</v>
@@ -4242,19 +4208,19 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4262,16 +4228,16 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>151</v>
@@ -4282,89 +4248,89 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" s="32">
         <v>8</v>
       </c>
       <c r="F46" s="31"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B47" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>248</v>
       </c>
       <c r="E47" s="32">
         <v>4</v>
       </c>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E48" s="32">
         <v>6</v>
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E49" s="32">
         <v>8</v>
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="31.2" customHeight="1">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -4372,16 +4338,16 @@
       <c r="F50" s="31"/>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>151</v>
@@ -4399,20 +4365,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -4420,7 +4386,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -4428,17 +4394,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -4446,7 +4412,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -4454,7 +4420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>213</v>
       </c>
@@ -4462,12 +4428,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>200</v>
       </c>
@@ -4475,52 +4441,52 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>216</v>
       </c>
@@ -4528,7 +4494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>217</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1165C-F713-4F37-90A4-E9C4C256B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,14 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="摘要" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -306,10 +308,6 @@
   </si>
   <si>
     <t>AcctDivisionCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepaidPeriod</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1308,11 +1306,15 @@
 催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>PaidTerms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1422,7 +1424,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,12 +1434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,9 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1766,6 +1759,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1801,6 +1811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1976,11 +2003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1997,15 +2024,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2014,8 +2041,8 @@
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -2029,12 +2056,12 @@
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="32.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>52</v>
@@ -2046,10 +2073,10 @@
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
@@ -2059,10 +2086,10 @@
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="7"/>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
@@ -2072,10 +2099,10 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="7"/>
       <c r="D6" s="24"/>
       <c r="E6" s="22"/>
@@ -2085,10 +2112,10 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -2132,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="14">
         <v>7</v>
@@ -2153,14 +2180,14 @@
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -2176,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -2194,10 +2221,10 @@
         <v>61</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2212,13 +2239,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2233,13 +2260,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="14">
         <v>8</v>
@@ -2254,13 +2281,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>170</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="14">
         <v>4</v>
@@ -2275,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="14">
         <v>6</v>
@@ -2296,13 +2323,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="14">
         <v>8</v>
@@ -2317,13 +2344,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="14">
         <v>5</v>
@@ -2338,20 +2365,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -2361,20 +2388,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -2384,13 +2411,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -2405,13 +2432,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="14">
         <v>6</v>
@@ -2426,20 +2453,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2449,13 +2476,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="14">
         <v>15</v>
@@ -2470,13 +2497,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="14">
         <v>8</v>
@@ -2491,20 +2518,20 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="14">
         <v>26</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2514,20 +2541,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -2543,7 +2570,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="14">
         <v>8</v>
@@ -2558,13 +2585,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -2579,13 +2606,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>124</v>
-      </c>
       <c r="D30" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="14">
         <v>16</v>
@@ -2594,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30" s="5"/>
     </row>
@@ -2604,13 +2631,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="14">
         <v>16</v>
@@ -2627,13 +2654,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2648,13 +2675,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="14">
         <v>8</v>
@@ -2669,15 +2696,15 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>295</v>
+        <v>318</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="36">
+        <v>96</v>
+      </c>
+      <c r="E34" s="14">
         <v>3</v>
       </c>
       <c r="F34" s="14"/>
@@ -2690,13 +2717,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>133</v>
-      </c>
       <c r="D35" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="14">
         <v>6</v>
@@ -2716,10 +2743,10 @@
         <v>67</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="14">
         <v>16</v>
@@ -2728,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2741,10 +2768,10 @@
         <v>68</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="14">
         <v>16</v>
@@ -2753,7 +2780,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2763,13 +2790,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="14">
         <v>16</v>
@@ -2778,7 +2805,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -2791,10 +2818,10 @@
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="14">
         <v>16</v>
@@ -2803,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2813,13 +2840,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" s="14">
         <v>16</v>
@@ -2828,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2841,10 +2868,10 @@
         <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="14">
         <v>16</v>
@@ -2853,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2863,13 +2890,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="14">
         <v>16</v>
@@ -2878,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2891,10 +2918,10 @@
         <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="14">
         <v>16</v>
@@ -2914,10 +2941,10 @@
         <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="14">
         <v>16</v>
@@ -2934,13 +2961,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="14">
         <v>16</v>
@@ -2949,7 +2976,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2959,13 +2986,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="14">
         <v>16</v>
@@ -2973,8 +3000,8 @@
       <c r="F46" s="14">
         <v>2</v>
       </c>
-      <c r="G46" s="39" t="s">
-        <v>163</v>
+      <c r="G46" s="38" t="s">
+        <v>162</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -2984,13 +3011,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="14">
         <v>16</v>
@@ -2999,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3009,20 +3036,20 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="14">
         <v>2000</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3038,7 +3065,7 @@
         <v>53</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
@@ -3051,13 +3078,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" s="14">
         <v>6</v>
@@ -3078,7 +3105,7 @@
         <v>54</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
@@ -3091,13 +3118,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="14">
         <v>6</v>
@@ -3123,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3152,139 +3179,139 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>221</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="C13" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>308</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3308,7 +3335,7 @@
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
     <col min="3" max="3" width="20" style="30" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9" style="40"/>
+    <col min="5" max="5" width="9" style="39"/>
     <col min="6" max="6" width="9" style="30"/>
     <col min="7" max="7" width="45.33203125" style="30" customWidth="1"/>
     <col min="8" max="8" width="23.21875" style="30" customWidth="1"/>
@@ -3317,10 +3344,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>280</v>
+        <v>262</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3334,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="34">
         <v>16</v>
@@ -3356,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="34">
         <v>16</v>
@@ -3378,7 +3405,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="34">
         <v>16</v>
@@ -3400,7 +3427,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="34">
         <v>16</v>
@@ -3422,7 +3449,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="34">
         <v>16</v>
@@ -3435,13 +3462,13 @@
     <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="34">
         <v>16</v>
@@ -3450,7 +3477,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3465,7 +3492,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="34">
         <v>16</v>
@@ -3481,13 +3508,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="34">
         <v>16</v>
@@ -3503,13 +3530,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="34">
         <v>16</v>
@@ -3525,13 +3552,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="34">
         <v>16</v>
@@ -3550,10 +3577,10 @@
         <v>75</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="34">
         <v>16</v>
@@ -3569,13 +3596,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="34">
         <v>16</v>
@@ -3591,13 +3618,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="34">
         <v>16</v>
@@ -3613,13 +3640,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="34">
         <v>16</v>
@@ -3641,7 +3668,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="34">
         <v>3</v>
@@ -3661,14 +3688,14 @@
         <v>31</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="34">
         <v>2</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
@@ -3683,14 +3710,14 @@
         <v>78</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="34">
         <v>1</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
@@ -3699,20 +3726,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>118</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
@@ -3721,20 +3748,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
@@ -3743,20 +3770,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="34">
         <v>2</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3765,13 +3792,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="34">
         <v>7</v>
@@ -3785,13 +3812,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="34">
         <v>14</v>
@@ -3805,13 +3832,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="34">
         <v>7</v>
@@ -3825,13 +3852,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="34">
         <v>3</v>
@@ -3845,13 +3872,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="34">
         <v>9</v>
@@ -3865,13 +3892,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="34">
         <v>7</v>
@@ -3885,13 +3912,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="34">
         <v>2</v>
@@ -3905,13 +3932,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="34">
         <v>2</v>
@@ -3925,20 +3952,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32.4">
@@ -3947,23 +3974,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="32">
         <v>4</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
@@ -3972,13 +3999,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="34">
         <v>6</v>
@@ -3992,13 +4019,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>273</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>274</v>
       </c>
       <c r="E33" s="34">
         <v>6</v>
@@ -4012,29 +4039,29 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="D34" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E34" s="34">
         <v>1</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="31.2" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
@@ -4048,13 +4075,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>224</v>
-      </c>
       <c r="D36" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" s="32">
         <v>16</v>
@@ -4070,13 +4097,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>241</v>
-      </c>
       <c r="D37" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="32">
         <v>6</v>
@@ -4084,7 +4111,7 @@
       <c r="F37" s="31">
         <v>4</v>
       </c>
-      <c r="G37" s="38"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="34">
@@ -4092,13 +4119,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>224</v>
-      </c>
       <c r="D38" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E38" s="32">
         <v>16</v>
@@ -4114,13 +4141,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>226</v>
-      </c>
       <c r="D39" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="32">
         <v>3</v>
@@ -4134,13 +4161,13 @@
         <v>5</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="31" t="s">
-        <v>228</v>
-      </c>
       <c r="D40" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="32">
         <v>3</v>
@@ -4154,13 +4181,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="D41" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="E41" s="32">
         <v>8</v>
@@ -4174,13 +4201,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>233</v>
-      </c>
       <c r="D42" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E42" s="32">
         <v>8</v>
@@ -4194,13 +4221,13 @@
         <v>8</v>
       </c>
       <c r="B43" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>235</v>
-      </c>
       <c r="D43" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E43" s="32">
         <v>8</v>
@@ -4214,13 +4241,13 @@
         <v>9</v>
       </c>
       <c r="B44" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>237</v>
-      </c>
       <c r="D44" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4234,13 +4261,13 @@
         <v>10</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>239</v>
-      </c>
       <c r="D45" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E45" s="32">
         <v>16</v>
@@ -4254,13 +4281,13 @@
         <v>11</v>
       </c>
       <c r="B46" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>243</v>
-      </c>
       <c r="D46" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E46" s="32">
         <v>8</v>
@@ -4273,13 +4300,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="D47" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>246</v>
       </c>
       <c r="E47" s="32">
         <v>4</v>
@@ -4292,13 +4319,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="D48" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E48" s="32">
         <v>6</v>
@@ -4311,13 +4338,13 @@
         <v>14</v>
       </c>
       <c r="B49" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="D49" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E49" s="32">
         <v>8</v>
@@ -4330,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
@@ -4344,13 +4371,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="31" t="s">
-        <v>253</v>
-      </c>
       <c r="D51" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E51" s="32">
         <v>3</v>
@@ -4365,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4380,126 +4407,126 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
         <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
         <v>207</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C1165C-F713-4F37-90A4-E9C4C256B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
-    <sheet name="摘要" sheetId="4" r:id="rId4"/>
+    <sheet name="交易別" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="322">
   <si>
     <t>備註說明</t>
   </si>
@@ -1310,12 +1309,24 @@
     <t>PaidTerms</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1759,23 +1770,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1811,23 +1805,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2003,14 +1980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2023,7 +2000,7 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2017,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="11" t="s">
@@ -2055,7 +2032,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>47</v>
       </c>
@@ -2072,7 +2049,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>48</v>
       </c>
@@ -2085,7 +2062,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2075,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>50</v>
       </c>
@@ -2111,7 +2088,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>51</v>
       </c>
@@ -2124,7 +2101,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2125,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2168,7 +2145,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2191,7 +2168,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2212,7 +2189,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2233,7 +2210,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2254,7 +2231,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2275,7 +2252,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2296,7 +2273,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2317,7 +2294,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2338,7 +2315,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2359,7 +2336,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2382,7 +2359,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2405,7 +2382,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2426,7 +2403,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2447,7 +2424,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162">
+    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2470,7 +2447,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2491,7 +2468,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2512,7 +2489,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2535,7 +2512,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2558,7 +2535,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2579,7 +2556,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2600,7 +2577,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2625,7 +2602,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2648,7 +2625,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2669,7 +2646,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2690,7 +2667,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2711,7 +2688,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2734,7 +2711,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2759,7 +2736,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2784,7 +2761,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2809,7 +2786,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2834,7 +2811,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2859,7 +2836,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2884,7 +2861,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2909,7 +2886,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2932,7 +2909,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2955,7 +2932,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2980,7 +2957,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3005,7 +2982,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3030,7 +3007,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1">
+    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3053,7 +3030,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3072,7 +3049,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3093,7 +3070,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3112,7 +3089,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3150,7 +3127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3158,7 +3135,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3166,7 +3143,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -3177,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>266</v>
       </c>
@@ -3188,7 +3165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -3199,7 +3176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
@@ -3210,7 +3187,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
@@ -3218,7 +3195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -3229,7 +3206,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>161</v>
       </c>
@@ -3237,7 +3214,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>184</v>
       </c>
@@ -3248,7 +3225,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
@@ -3259,7 +3236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>219</v>
       </c>
@@ -3270,7 +3247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>267</v>
       </c>
@@ -3281,7 +3258,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>295</v>
       </c>
@@ -3292,7 +3269,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>306</v>
       </c>
@@ -3303,7 +3280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>309</v>
       </c>
@@ -3322,14 +3299,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3342,7 +3319,7 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>262</v>
       </c>
@@ -3350,7 +3327,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3371,7 +3348,7 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -3393,9 +3370,9 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
-        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -3415,7 +3392,7 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3437,7 +3414,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3459,7 +3436,7 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
         <v>289</v>
@@ -3480,7 +3457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <f>A6+1</f>
         <v>6</v>
@@ -3502,7 +3479,7 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3524,7 +3501,7 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3546,7 +3523,7 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3568,7 +3545,7 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3590,7 +3567,7 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3612,7 +3589,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3634,7 +3611,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3656,7 +3633,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3676,7 +3653,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1">
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3698,7 +3675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3720,7 +3697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3742,7 +3719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3764,7 +3741,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3786,7 +3763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3806,7 +3783,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3826,7 +3803,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3846,7 +3823,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3866,7 +3843,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3886,7 +3863,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3906,7 +3883,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3926,7 +3903,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3946,7 +3923,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:8" ht="96" customHeight="1">
+    <row r="30" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3968,7 +3945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32.4">
+    <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3993,7 +3970,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4013,7 +3990,7 @@
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4033,7 +4010,7 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8">
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4058,113 +4035,112 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="31" t="s">
+    <row r="35" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34">
+        <v>33</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" s="34">
+        <v>60</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="34">
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B37" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C37" s="31" t="s">
         <v>223</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="32">
-        <v>16</v>
-      </c>
-      <c r="F36" s="31">
-        <v>2</v>
-      </c>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="34">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>150</v>
       </c>
       <c r="E37" s="32">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F37" s="31">
-        <v>4</v>
-      </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>150</v>
       </c>
       <c r="E38" s="32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F38" s="31">
-        <v>2</v>
-      </c>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="G38" s="37"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>150</v>
       </c>
       <c r="E39" s="32">
-        <v>3</v>
-      </c>
-      <c r="F39" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="F39" s="31">
+        <v>2</v>
+      </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>150</v>
@@ -4175,36 +4151,36 @@
       <c r="F40" s="31"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="E41" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>230</v>
@@ -4215,16 +4191,16 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>230</v>
@@ -4235,16 +4211,16 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>230</v>
@@ -4255,134 +4231,154 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="E45" s="32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="32">
+        <v>16</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B47" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C47" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D47" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E47" s="32">
         <v>8</v>
       </c>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="34">
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C48" s="31" t="s">
         <v>244</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="32">
-        <v>4</v>
-      </c>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>247</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>245</v>
       </c>
       <c r="E48" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>245</v>
       </c>
       <c r="E49" s="32">
+        <v>6</v>
+      </c>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" s="32">
         <v>8</v>
       </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A50" s="34">
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B51" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="34">
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B52" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C52" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D52" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E52" s="32">
         <v>3</v>
       </c>
-      <c r="F51" s="31"/>
+      <c r="F52" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4392,20 +4388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -4421,17 +4417,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -4439,7 +4435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -4447,7 +4443,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4455,12 +4451,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -4468,52 +4464,52 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="7104" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1310,15 +1310,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Memo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>摘要</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1987,7 +1987,7 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2000,7 +2000,7 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="41" t="s">
         <v>46</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="11" t="s">
@@ -2032,7 +2032,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="32.4">
       <c r="A3" s="46" t="s">
         <v>47</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="43" t="s">
         <v>48</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="46" t="s">
         <v>49</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="43" t="s">
         <v>50</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="43" t="s">
         <v>51</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2189,7 +2189,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2210,7 +2210,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2231,7 +2231,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2252,7 +2252,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2273,7 +2273,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2294,7 +2294,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2315,7 +2315,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2336,7 +2336,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2403,7 +2403,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2424,7 +2424,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="162">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2468,7 +2468,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2489,7 +2489,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2556,7 +2556,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2577,7 +2577,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2625,7 +2625,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2646,7 +2646,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2667,7 +2667,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2688,7 +2688,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2711,7 +2711,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2909,7 +2909,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2932,7 +2932,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="18" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="123" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3049,7 +3049,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3070,7 +3070,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3089,7 +3089,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3135,7 +3135,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3143,7 +3143,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>266</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>109</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>110</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>160</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>161</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>184</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="36" t="s">
         <v>190</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
         <v>219</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>267</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>295</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>306</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
         <v>309</v>
       </c>
@@ -3302,11 +3302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3319,7 +3319,7 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
         <v>262</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>3</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
         <v>289</v>
@@ -3457,7 +3457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A8" s="34">
         <f>A6+1</f>
         <v>6</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3653,7 +3653,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3675,7 +3675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3697,7 +3697,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3719,7 +3719,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3741,7 +3741,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3763,7 +3763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3783,7 +3783,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3803,7 +3803,7 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3823,7 +3823,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3843,7 +3843,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3863,7 +3863,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3883,7 +3883,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3903,7 +3903,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3923,7 +3923,7 @@
       <c r="F29" s="34"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="96" customHeight="1">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3945,7 +3945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="32.4">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3970,7 +3970,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3990,7 +3990,7 @@
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4010,7 +4010,7 @@
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4035,18 +4035,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="29" customFormat="1">
       <c r="A35" s="34">
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>321</v>
       </c>
       <c r="E35" s="34">
         <v>60</v>
@@ -4054,7 +4054,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="31.2" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="31" t="s">
         <v>221</v>
@@ -4065,7 +4065,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4151,7 +4151,7 @@
       <c r="F40" s="31"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4171,7 +4171,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4191,7 +4191,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4211,7 +4211,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4231,7 +4231,7 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4251,7 +4251,7 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4271,7 +4271,7 @@
       <c r="F46" s="31"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F47" s="31"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="31.2" customHeight="1">
       <c r="A51" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4361,7 +4361,7 @@
       <c r="F51" s="31"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4395,13 +4395,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>202</v>
       </c>
@@ -4417,17 +4417,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>206</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>212</v>
       </c>
@@ -4451,12 +4451,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>199</v>
       </c>
@@ -4464,52 +4464,52 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>216</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7EC28-DCFB-4097-A09C-1099785D0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18384" windowHeight="7104" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1325,7 +1326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1770,6 +1771,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1805,6 +1823,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1980,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3127,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3299,11 +3334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -4388,7 +4423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B7EC28-DCFB-4097-A09C-1099785D0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C488C19-2EF1-4326-96A1-2C13D099C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10368" yWindow="168" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -682,10 +682,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate asc,TitaTlrNo asc ,TitaTxtNo asc ,Displayflag asc ,FacmNo asc,BormNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Shortfall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1216,10 +1212,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1321,6 +1313,14 @@
   <si>
     <t>Note</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc,TitaTlrNo asc ,TitaTxtNo asc ,FacmNo asc,BormNo asc , CreateDate asc , Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, CreateDate asc , Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>169</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>101</v>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -2400,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -2465,10 +2465,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>96</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2509,10 +2509,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>121</v>
@@ -2530,7 +2530,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="5"/>
     </row>
@@ -2708,10 +2708,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>96</v>
@@ -2755,7 +2755,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>96</v>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2780,7 +2780,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>96</v>
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2805,7 +2805,7 @@
         <v>139</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>96</v>
@@ -2817,7 +2817,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -2830,7 +2830,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>96</v>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H39" s="5"/>
     </row>
@@ -2855,7 +2855,7 @@
         <v>140</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>96</v>
@@ -2867,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H40" s="5"/>
     </row>
@@ -2880,7 +2880,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>96</v>
@@ -2892,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -2902,10 +2902,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>96</v>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -2930,7 +2930,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>96</v>
@@ -2953,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>96</v>
@@ -2973,10 +2973,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>96</v>
@@ -2988,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -2998,7 +2998,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>163</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3165,9 +3165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>296</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3237,8 +3237,8 @@
       <c r="B6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>299</v>
+      <c r="C6" s="36" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3251,65 +3251,65 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>220</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>125</v>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>144</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3337,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -3356,10 +3356,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3474,10 +3474,10 @@
     <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>96</v>
@@ -3489,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3520,10 +3520,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>96</v>
@@ -3542,10 +3542,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>96</v>
@@ -3564,10 +3564,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>96</v>
@@ -3589,7 +3589,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>96</v>
@@ -3608,10 +3608,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>96</v>
@@ -3630,10 +3630,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>96</v>
@@ -3652,7 +3652,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>29</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
@@ -3810,7 +3810,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E22" s="34">
         <v>7</v>
@@ -3986,23 +3986,23 @@
         <v>29</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="32">
         <v>4</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
@@ -4014,10 +4014,10 @@
         <v>85</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E32" s="34">
         <v>6</v>
@@ -4031,13 +4031,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>272</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>273</v>
       </c>
       <c r="E33" s="34">
         <v>6</v>
@@ -4051,23 +4051,23 @@
         <v>32</v>
       </c>
       <c r="B34" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>285</v>
-      </c>
       <c r="D34" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E34" s="34">
         <v>1</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="29" customFormat="1">
@@ -4075,13 +4075,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E35" s="34">
         <v>60</v>
@@ -4092,7 +4092,7 @@
     <row r="36" spans="1:8" ht="31.2" customHeight="1">
       <c r="A36" s="34"/>
       <c r="B36" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
@@ -4106,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="D37" s="32" t="s">
         <v>150</v>
@@ -4128,10 +4128,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="D38" s="32" t="s">
         <v>150</v>
@@ -4150,10 +4150,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>150</v>
@@ -4172,10 +4172,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>225</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>150</v>
@@ -4192,10 +4192,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>227</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>150</v>
@@ -4212,13 +4212,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="D42" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="E42" s="32">
         <v>8</v>
@@ -4232,13 +4232,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>232</v>
-      </c>
       <c r="D43" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="32">
         <v>8</v>
@@ -4252,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="B44" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>234</v>
-      </c>
       <c r="D44" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4272,13 +4272,13 @@
         <v>9</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>236</v>
-      </c>
       <c r="D45" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E45" s="32">
         <v>8</v>
@@ -4292,10 +4292,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>150</v>
@@ -4312,13 +4312,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>242</v>
-      </c>
       <c r="D47" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E47" s="32">
         <v>8</v>
@@ -4331,13 +4331,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="D48" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="E48" s="32">
         <v>4</v>
@@ -4350,13 +4350,13 @@
         <v>13</v>
       </c>
       <c r="B49" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>247</v>
-      </c>
       <c r="D49" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E49" s="32">
         <v>6</v>
@@ -4369,13 +4369,13 @@
         <v>14</v>
       </c>
       <c r="B50" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="31" t="s">
-        <v>249</v>
-      </c>
       <c r="D50" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E50" s="32">
         <v>8</v>
@@ -4388,7 +4388,7 @@
         <v>15</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
@@ -4402,10 +4402,10 @@
         <v>16</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>251</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>150</v>
@@ -4438,126 +4438,126 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>202</v>
-      </c>
-      <c r="B3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
         <v>206</v>
-      </c>
-      <c r="B7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C488C19-2EF1-4326-96A1-2C13D099C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10368" yWindow="168" windowWidth="22692" windowHeight="11508" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1315,18 +1314,18 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate asc,TitaTlrNo asc ,TitaTxtNo asc ,FacmNo asc,BormNo asc , CreateDate asc , Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, CreateDate asc , Displayflag asc</t>
+    <t>AcDate asc , CreateDate asc , Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc, CreateDate asc , Displayflag asc ,FacmNo asc,BormNo asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1771,23 +1770,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1823,23 +1805,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2015,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3162,12 +3127,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3197,7 +3162,7 @@
         <v>296</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3238,7 +3203,7 @@
         <v>144</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3334,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4423,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="363">
   <si>
     <t>備註說明</t>
   </si>
@@ -108,12 +108,6 @@
     <t>電匯金額</t>
   </si>
   <si>
-    <t>支票金額</t>
-  </si>
-  <si>
-    <t>暫收抵繳</t>
-  </si>
-  <si>
     <t>暫付所得稅</t>
   </si>
   <si>
@@ -250,14 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TempRepay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempTax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Principal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -331,18 +317,6 @@
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayBank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChequeAcctNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChequeNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -436,28 +410,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-1: 溢繳
-2: 不足利息
-3: 期票
-4: 期間本金異動
-5: 積欠期款
-6: 即期票(現金)
-7: 待轉火險費
-8: 聯貸件
-9: 其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-0: 件數不受此影響
-1: 件數加一
-2: 件數減一
-3: 展期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -517,10 +470,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Overflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>摘要</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -565,15 +514,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其他欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DelayInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseBreachAmt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -617,14 +558,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1: 部分償還本金
-2: 回收期數 &gt; 0
-3: 回收期數 = 0
-4: 清償違約金
-5: 催收款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>應繳日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -665,23 +598,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首筆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>溢收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Displayflag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortfall</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1012,12 +929,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     1.減免的金額
-     2.收取的短繳本金、利息     
-     3.收取的各項費用(首筆)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實收違約金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1109,11 +1020,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼檔: 04-批次作業
-  BankRmftCode 匯款摘要代碼</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1314,11 +1220,258 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate asc , CreateDate asc , Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate asc, CreateDate asc , Displayflag asc ,FacmNo asc,BormNo asc</t>
+    <t>共用代碼檔
+00:債協暫收款
+01:溢繳
+02:不足利息
+03:期票
+04:本金異動
+05:積欠期款
+06:即期票現金
+07:火險、帳管
+08:兌現票入帳
+09:其他
+10:AML凍結／未確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseBreachAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>聯貸管理費</t>
+  </si>
+  <si>
+    <t>TMI</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>呆帳戶法務費墊付</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>催收款項－法務費用</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>聯貸件</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>催收款項－火險費用</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>暫付火險保費</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>契變手續費</t>
+  </si>
+  <si>
+    <t>費用轉換</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>契變手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫付法務費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別(CdCode:AcctCode)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款、暫收款退還</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.減免的金額
+     2.收取的短繳本金、利息     
+     3.收取的各項費用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票繳款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務科目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayBank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChequeAcctNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChequeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 部分償還本金
+2: 回收期數 &gt; 0
+3: 回收期數 = 0
+4: 清償違約金
+5: 催收款
+(首筆)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼檔: 04-批次作業
+  BankRmftCode 匯款摘要代碼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempTax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+0: 件數不受此影響
+1: 件數加一
+2: 件數減一
+3: 展期
+(保留)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(保留)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易總金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc,  Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc , Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortfall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累溢收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累短收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首筆，全戶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首筆，全戶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1435,7 +1588,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,6 +1598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,6 +1817,33 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1983,11 +2169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2000,16 +2186,16 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="42"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="51"/>
       <c r="C1" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2017,14 +2203,14 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
@@ -2032,16 +2218,16 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
-      <c r="A3" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
@@ -2049,11 +2235,11 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="54"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
@@ -2062,11 +2248,11 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="46"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="55"/>
       <c r="C5" s="7"/>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
@@ -2075,11 +2261,11 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="53"/>
       <c r="C6" s="7"/>
       <c r="D6" s="24"/>
       <c r="E6" s="22"/>
@@ -2088,11 +2274,11 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="54"/>
       <c r="C7" s="7"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -2101,7 +2287,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2125,18 +2311,18 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E9" s="14">
         <v>7</v>
@@ -2145,42 +2331,42 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -2189,19 +2375,19 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2210,19 +2396,19 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2231,19 +2417,19 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14" s="14">
         <v>8</v>
@@ -2252,19 +2438,19 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E15" s="14">
         <v>4</v>
@@ -2273,19 +2459,19 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E16" s="14">
         <v>6</v>
@@ -2294,19 +2480,19 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E17" s="14">
         <v>8</v>
@@ -2315,19 +2501,19 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E18" s="14">
         <v>5</v>
@@ -2336,65 +2522,65 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -2403,19 +2589,19 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E22" s="14">
         <v>6</v>
@@ -2424,42 +2610,42 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162">
+    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E24" s="14">
         <v>15</v>
@@ -2468,19 +2654,19 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E25" s="14">
         <v>8</v>
@@ -2489,65 +2675,65 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E26" s="14">
         <v>26</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E28" s="14">
         <v>8</v>
@@ -2556,19 +2742,19 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -2577,19 +2763,19 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E30" s="14">
         <v>16</v>
@@ -2597,24 +2783,22 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>162</v>
-      </c>
+      <c r="G30" s="25"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E31" s="14">
         <v>16</v>
@@ -2625,19 +2809,19 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2646,19 +2830,19 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E33" s="14">
         <v>8</v>
@@ -2667,19 +2851,19 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E34" s="14">
         <v>3</v>
@@ -2688,19 +2872,19 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E35" s="14">
         <v>6</v>
@@ -2711,19 +2895,19 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E36" s="14">
         <v>16</v>
@@ -2732,23 +2916,23 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E37" s="14">
         <v>16</v>
@@ -2757,23 +2941,23 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E38" s="14">
         <v>16</v>
@@ -2782,23 +2966,23 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E39" s="14">
         <v>16</v>
@@ -2807,23 +2991,23 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E40" s="14">
         <v>16</v>
@@ -2832,23 +3016,23 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E41" s="14">
         <v>16</v>
@@ -2857,23 +3041,23 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E42" s="14">
         <v>16</v>
@@ -2882,23 +3066,23 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E43" s="14">
         <v>16</v>
@@ -2909,19 +3093,19 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E44" s="14">
         <v>16</v>
@@ -2932,19 +3116,19 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E45" s="14">
         <v>16</v>
@@ -2953,23 +3137,23 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>163</v>
+        <v>360</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E46" s="14">
         <v>16</v>
@@ -2978,23 +3162,23 @@
         <v>2</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>162</v>
+        <v>361</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>126</v>
+        <v>358</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E47" s="14">
         <v>16</v>
@@ -3003,65 +3187,65 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1">
+    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E48" s="14">
         <v>2000</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E50" s="14">
         <v>6</v>
@@ -3070,38 +3254,38 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E52" s="14">
         <v>6</v>
@@ -3130,12 +3314,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3143,9 +3327,9 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -3154,141 +3338,141 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3300,13 +3484,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3319,48 +3503,49 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="34">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="34">
+      <c r="B2" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="41">
         <v>16</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="41">
         <v>2</v>
       </c>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="G2" s="44" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E3" s="34">
         <v>16</v>
@@ -3368,21 +3553,21 @@
       <c r="F3" s="34">
         <v>2</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
-        <f t="shared" ref="A4:A52" si="0">A3+1</f>
+        <f t="shared" ref="A4:A37" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E4" s="34">
         <v>16</v>
@@ -3390,43 +3575,44 @@
       <c r="F4" s="34">
         <v>2</v>
       </c>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G4" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="B5" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="E5" s="46">
         <v>16</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E6" s="34">
         <v>16</v>
@@ -3436,16 +3622,18 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
       <c r="B7" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>287</v>
+        <v>155</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>160</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E7" s="34">
         <v>16</v>
@@ -3453,23 +3641,21 @@
       <c r="F7" s="34">
         <v>2</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
-        <f>A6+1</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E8" s="34">
         <v>16</v>
@@ -3479,41 +3665,41 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="46">
         <v>16</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="46">
         <v>2</v>
       </c>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E10" s="34">
         <v>16</v>
@@ -3523,19 +3709,19 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" s="34">
         <v>16</v>
@@ -3543,585 +3729,596 @@
       <c r="F11" s="34">
         <v>2</v>
       </c>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E12" s="34">
+        <v>3</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="46">
+        <v>2</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="34">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="34">
+        <v>2</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F12" s="34">
+      <c r="B17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="34">
+        <v>16</v>
+      </c>
+      <c r="F17" s="34">
         <v>2</v>
       </c>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
-      <c r="A13" s="34">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="G17" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="34">
+        <v>9</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="34">
+        <v>7</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="34">
         <v>16</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F20" s="34">
         <v>2</v>
       </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
-      <c r="A14" s="34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="34">
-        <v>16</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2</v>
-      </c>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A15" s="34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="34">
-        <v>16</v>
-      </c>
-      <c r="F15" s="34">
-        <v>2</v>
-      </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A16" s="34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="34">
-        <v>3</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="72" customHeight="1">
-      <c r="A17" s="34">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="34">
-        <v>2</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33" t="s">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
-      <c r="A18" s="34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="34">
-        <v>1</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A19" s="34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
-      <c r="A20" s="34">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="34">
-        <v>1</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
-      <c r="A21" s="34">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>113</v>
       </c>
       <c r="E21" s="34">
         <v>2</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="34">
+        <v>2</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="32">
+        <v>4</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="34">
+        <v>6</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="34">
+        <v>6</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="34">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28" s="34">
+        <v>60</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="41">
+        <v>3</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" s="41">
+        <v>30</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="34">
+        <v>16</v>
+      </c>
+      <c r="F31" s="34">
+        <v>2</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="34">
+        <v>7</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="34">
+        <v>14</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E22" s="34">
+      <c r="D34" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="34">
         <v>7</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A23" s="34">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="34">
-        <v>14</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A24" s="34">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="34">
-        <v>7</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A25" s="34">
-        <f t="shared" si="0"/>
+      <c r="D35" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="34">
+        <v>3</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="34">
-        <v>3</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A26" s="34">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="34">
-        <v>9</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A27" s="34">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="34">
-        <v>7</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A28" s="34">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="E36" s="34">
+        <v>16</v>
+      </c>
+      <c r="F36" s="34">
         <v>2</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="34">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="34">
-        <v>2</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" ht="96" customHeight="1">
-      <c r="A30" s="34">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="32">
+      <c r="G36" s="35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="34">
         <v>1</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="32.4">
-      <c r="A31" s="34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="E31" s="32">
-        <v>4</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="34">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="34">
-        <v>6</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="E33" s="34">
-        <v>6</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:8" s="29" customFormat="1" ht="64.8">
-      <c r="A34" s="34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="34">
+      <c r="F37" s="34"/>
+      <c r="G37" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="34">
+        <f t="shared" ref="A39:A54" si="1">A38+1</f>
         <v>1</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="29" customFormat="1">
-      <c r="A35" s="34">
-        <v>33</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="E35" s="34">
-        <v>60</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="32">
-        <v>16</v>
-      </c>
-      <c r="F37" s="31">
-        <v>2</v>
-      </c>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="34">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="32">
-        <v>6</v>
-      </c>
-      <c r="F38" s="31">
-        <v>4</v>
-      </c>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="B39" s="31" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E39" s="32">
         <v>16</v>
@@ -4131,99 +4328,103 @@
       </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="32">
+        <v>6</v>
+      </c>
+      <c r="F40" s="31">
         <v>4</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="32">
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="B41" s="31" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E41" s="32">
+        <v>16</v>
+      </c>
+      <c r="F41" s="31">
+        <v>2</v>
+      </c>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="32">
         <v>3</v>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" s="32">
-        <v>8</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="E43" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E44" s="32">
         <v>8</v>
@@ -4231,19 +4432,19 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E45" s="32">
         <v>8</v>
@@ -4251,134 +4452,174 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="E46" s="32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="E47" s="32">
         <v>8</v>
       </c>
       <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="32">
+        <v>16</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="32">
+        <v>8</v>
+      </c>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="B50" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="32">
         <v>4</v>
       </c>
-      <c r="F48" s="31"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="34">
-        <f t="shared" si="0"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="B51" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="32">
         <v>6</v>
       </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="34">
-        <f t="shared" si="0"/>
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="B52" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="32">
         <v>8</v>
       </c>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A51" s="34">
-        <f t="shared" si="0"/>
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="33"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="34">
-        <f t="shared" si="0"/>
+      <c r="B53" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="34">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="B54" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="32">
         <v>3</v>
       </c>
-      <c r="F52" s="31"/>
+      <c r="F54" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4389,140 +4630,240 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
       <c r="B4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
       <c r="B12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>198</v>
       </c>
-      <c r="B14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+      <c r="B28" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
   <si>
     <t>備註說明</t>
   </si>
@@ -1459,19 +1459,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>短收收回金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(轉換資料無)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>累溢收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累短收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首筆，全戶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首筆，全戶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2169,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3150,7 +3146,7 @@
         <v>357</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>89</v>
@@ -3162,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -3175,7 +3171,7 @@
         <v>358</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>89</v>
@@ -3186,9 +3182,7 @@
       <c r="F47" s="14">
         <v>2</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>362</v>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -945,10 +945,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暫收款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>還款來源</t>
   </si>
   <si>
@@ -1130,10 +1126,6 @@
   </si>
   <si>
     <t>NewDueAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入暫收為正、暫收抵繳為負</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1463,11 +1455,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(轉換資料無)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累溢收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增欄位(轉換資料無)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2165,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -2612,10 +2612,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>89</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2656,10 +2656,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>112</v>
@@ -2677,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>42</v>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2853,10 +2853,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>89</v>
@@ -2900,7 +2900,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>89</v>
@@ -2912,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -2937,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -2997,7 +2997,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>236</v>
@@ -3025,7 +3025,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>89</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -3047,7 +3047,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>169</v>
@@ -3062,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -3121,7 +3121,7 @@
         <v>152</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>89</v>
@@ -3133,7 +3133,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H45" s="5"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>89</v>
@@ -3158,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -3168,10 +3168,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>361</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>89</v>
@@ -3194,7 +3194,7 @@
         <v>125</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>93</v>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3334,13 +3334,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3362,7 +3362,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3381,7 +3381,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3397,7 +3397,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>165</v>
@@ -3422,37 +3422,37 @@
         <v>202</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>249</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>116</v>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3499,10 +3499,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -3525,7 +3525,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3555,10 +3555,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>89</v>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3584,7 +3584,7 @@
         <v>158</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -3709,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>27</v>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>89</v>
@@ -3854,7 +3854,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,7 +3863,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>38</v>
@@ -3883,7 +3883,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3987,23 +3987,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24" s="32">
         <v>4</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="33" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4015,10 +4015,10 @@
         <v>81</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E25" s="34">
         <v>6</v>
@@ -4032,13 +4032,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>253</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>254</v>
       </c>
       <c r="E26" s="34">
         <v>6</v>
@@ -4052,10 +4052,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>264</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>265</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>227</v>
@@ -4065,10 +4065,10 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -4077,13 +4077,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E28" s="34">
         <v>60</v>
@@ -4097,10 +4097,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D29" s="43" t="s">
         <v>93</v>
@@ -4117,13 +4117,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C30" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>338</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>340</v>
       </c>
       <c r="E30" s="41">
         <v>30</v>
@@ -4152,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4167,14 +4167,14 @@
         <v>34</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="34">
         <v>7</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>37</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>23</v>
@@ -4264,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4641,19 +4641,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4664,24 +4664,24 @@
         <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4692,13 +4692,13 @@
         <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4720,18 +4720,18 @@
         <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4742,18 +4742,18 @@
         <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4764,18 +4764,18 @@
         <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -4801,12 +4801,12 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2169,7 +2169,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2182,7 +2182,7 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="50" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="11" t="s">
@@ -2214,7 +2214,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="32.4">
       <c r="A3" s="55" t="s">
         <v>45</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="52" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="55" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2257,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="52" t="s">
         <v>48</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="52" t="s">
         <v>49</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2371,7 +2371,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2392,7 +2392,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2413,7 +2413,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2434,7 +2434,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2455,7 +2455,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2476,7 +2476,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2497,7 +2497,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2518,7 +2518,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2585,7 +2585,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2606,7 +2606,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="162">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2650,7 +2650,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2671,7 +2671,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2738,7 +2738,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2759,7 +2759,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2782,7 +2782,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2805,7 +2805,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2826,7 +2826,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2847,7 +2847,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2868,7 +2868,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2891,7 +2891,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3089,7 +3089,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3112,7 +3112,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="18" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3185,7 +3185,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="123" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3227,7 +3227,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3248,7 +3248,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3267,7 +3267,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3313,7 +3313,7 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3321,7 +3321,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>246</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>131</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>166</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="36" t="s">
         <v>172</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
         <v>201</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>247</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>274</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>283</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
         <v>286</v>
       </c>
@@ -3484,7 +3484,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3497,7 +3497,7 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
         <v>242</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A37" si="0">A3+1</f>
         <v>3</v>
@@ -3573,7 +3573,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="G5" s="48"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3745,7 +3745,7 @@
       <c r="F12" s="34"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3767,7 +3767,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3789,7 +3789,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3811,7 +3811,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3833,7 +3833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3857,7 +3857,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3877,7 +3877,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3897,7 +3897,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3939,7 +3939,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3959,7 +3959,7 @@
       <c r="F22" s="34"/>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="96" customHeight="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3981,7 +3981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="32.4">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4006,7 +4006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4026,7 +4026,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4046,7 +4046,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="64.8">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4071,7 +4071,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="29" customFormat="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4091,7 +4091,7 @@
       <c r="F28" s="34"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="45" customFormat="1">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4111,7 +4111,7 @@
       <c r="F29" s="41"/>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="45" customFormat="1">
       <c r="A30" s="34">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4131,7 +4131,7 @@
       <c r="F30" s="41"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4155,7 +4155,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4177,7 +4177,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A33" s="34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4199,7 +4199,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4221,7 +4221,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4243,7 +4243,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4267,7 +4267,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4289,7 +4289,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="31.2" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="31" t="s">
         <v>203</v>
@@ -4300,7 +4300,7 @@
       <c r="F38" s="31"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="34">
         <f t="shared" ref="A39:A54" si="1">A38+1</f>
         <v>1</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4386,7 +4386,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -4406,7 +4406,7 @@
       <c r="F43" s="31"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4426,7 +4426,7 @@
       <c r="F44" s="31"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4446,7 +4446,7 @@
       <c r="F45" s="31"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4466,7 +4466,7 @@
       <c r="F46" s="31"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4486,7 +4486,7 @@
       <c r="F47" s="31"/>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4506,7 +4506,7 @@
       <c r="F48" s="31"/>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="34">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="F49" s="31"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="34">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="F50" s="31"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="34">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="F51" s="31"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="F52" s="31"/>
     </row>
-    <row r="53" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="31.2" customHeight="1">
       <c r="A53" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4596,7 +4596,7 @@
       <c r="F53" s="31"/>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4630,7 +4630,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
@@ -4639,7 +4639,7 @@
     <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>302</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="E3" t="s">
         <v>306</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>184</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>186</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>187</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="E7" t="s">
         <v>313</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>317</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>191</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>319</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -4786,12 +4786,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -4799,52 +4799,52 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>197</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>198</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="365">
   <si>
     <t>備註說明</t>
   </si>
@@ -610,10 +610,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UnpaidCloseBreach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctFee</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -647,14 +643,6 @@
   </si>
   <si>
     <t>實收法拍費用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">實收短繳本金 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>實收短繳利息</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -934,10 +922,6 @@
   </si>
   <si>
     <t>實收清償違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短繳利息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1184,15 +1168,6 @@
 07:定存特約
 08:劃撥存款
 09:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除減免、扣除短收利息、含收回欠繳利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除短收本金、含收回欠繳本金
-催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1447,27 +1422,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>累溢收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增欄位(轉換資料無)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短繳利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除減免、扣除短繳利息、含收回短收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除短繳本金、含收回短收本金
+催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回短收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">實收短收本金 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收短收利息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收短收清償違約金</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnpaidCloseBreach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortfallCloseBreach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Overflow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>短收收回金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累溢收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收抵繳金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增欄位(轉換資料無)</t>
+    <t>全戶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1475,7 +1487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2169,7 +2181,7 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2182,7 +2194,7 @@
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2211,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50"/>
       <c r="B2" s="51"/>
       <c r="C2" s="11" t="s">
@@ -2214,7 +2226,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4">
+    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>45</v>
       </c>
@@ -2231,7 +2243,7 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>46</v>
       </c>
@@ -2244,7 +2256,7 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>47</v>
       </c>
@@ -2257,7 +2269,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>48</v>
       </c>
@@ -2270,7 +2282,7 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
         <v>49</v>
       </c>
@@ -2283,7 +2295,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2307,7 +2319,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2327,7 +2339,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -2350,7 +2362,7 @@
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A52" si="0">A10+1</f>
         <v>3</v>
@@ -2371,7 +2383,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2392,7 +2404,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2413,7 +2425,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2434,7 +2446,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2455,7 +2467,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2476,7 +2488,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2497,7 +2509,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2518,7 +2530,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1">
+    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2537,17 +2549,17 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2560,11 +2572,11 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2585,7 +2597,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2606,16 +2618,16 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162">
+    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>89</v>
@@ -2625,11 +2637,11 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2650,16 +2662,16 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>112</v>
@@ -2671,13 +2683,13 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>42</v>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2713,11 +2725,11 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2738,7 +2750,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2759,7 +2771,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2782,7 +2794,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2805,7 +2817,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2826,7 +2838,7 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2847,16 +2859,16 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>89</v>
@@ -2868,7 +2880,7 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2891,7 +2903,7 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2900,7 +2912,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>89</v>
@@ -2912,11 +2924,11 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2925,7 +2937,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>89</v>
@@ -2937,11 +2949,11 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2950,7 +2962,7 @@
         <v>128</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>89</v>
@@ -2962,11 +2974,11 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2975,7 +2987,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>89</v>
@@ -2987,20 +2999,20 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>89</v>
@@ -3012,11 +3024,11 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3025,7 +3037,7 @@
         <v>66</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>89</v>
@@ -3037,20 +3049,20 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>89</v>
@@ -3062,11 +3074,11 @@
         <v>2</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1">
+    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3075,7 +3087,7 @@
         <v>67</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>89</v>
@@ -3089,7 +3101,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1">
+    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3098,7 +3110,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>89</v>
@@ -3112,16 +3124,16 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1">
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>89</v>
@@ -3133,17 +3145,17 @@
         <v>2</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>357</v>
@@ -3158,20 +3170,20 @@
         <v>2</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1">
+    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>89</v>
@@ -3182,10 +3194,12 @@
       <c r="F47" s="14">
         <v>2</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="25" t="s">
+        <v>364</v>
+      </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1">
+    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3194,7 +3208,7 @@
         <v>125</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>93</v>
@@ -3204,11 +3218,11 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="26" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3227,7 +3241,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3248,7 +3262,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3267,7 +3281,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3308,12 +3322,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3321,7 +3335,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
@@ -3332,18 +3346,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -3354,7 +3368,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -3362,10 +3376,10 @@
         <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>147</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>131</v>
       </c>
@@ -3381,10 +3395,10 @@
         <v>132</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
@@ -3392,81 +3406,81 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>284</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3478,13 +3492,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3497,26 +3511,26 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -3525,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3549,16 +3563,16 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
-        <f t="shared" ref="A4:A37" si="0">A3+1</f>
+        <f t="shared" ref="A4:A38" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>89</v>
@@ -3570,21 +3584,21 @@
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -3594,16 +3608,16 @@
       </c>
       <c r="G5" s="48"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>89</v>
@@ -3616,15 +3630,15 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>89</v>
@@ -3637,7 +3651,7 @@
       </c>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3646,7 +3660,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>89</v>
@@ -3659,16 +3673,16 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>162</v>
+        <v>358</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>89</v>
@@ -3681,16 +3695,16 @@
       </c>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>89</v>
@@ -3703,16 +3717,16 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>89</v>
@@ -3723,232 +3737,234 @@
       <c r="F11" s="34">
         <v>2</v>
       </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="34">
+        <v>16</v>
+      </c>
+      <c r="F12" s="34">
+        <v>2</v>
+      </c>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="34">
         <v>3</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1">
-      <c r="A13" s="34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="47" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D14" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E14" s="46">
         <v>2</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A14" s="34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
+      <c r="F14" s="46"/>
+      <c r="G14" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C15" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="34">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
-      <c r="A15" s="34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="E15" s="34">
         <v>1</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>33</v>
+        <v>135</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>105</v>
       </c>
       <c r="E16" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="s">
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="34">
-        <v>16</v>
-      </c>
-      <c r="F17" s="34">
-        <v>2</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A18" s="34">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>341</v>
-      </c>
       <c r="C18" s="33" t="s">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="34">
-        <v>9</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="34">
+        <v>2</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E19" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="34">
+        <v>7</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="34">
         <v>16</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F21" s="34">
         <v>2</v>
       </c>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A21" s="34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="34">
-        <v>2</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="34">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>112</v>
@@ -3957,88 +3973,88 @@
         <v>2</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:8" ht="96" customHeight="1">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="34">
+        <v>2</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C24" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E24" s="32">
         <v>1</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="32.4">
-      <c r="A24" s="34">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E24" s="32">
-        <v>4</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="32">
+        <v>4</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="34">
-        <v>6</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="34">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>251</v>
-      </c>
       <c r="C26" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="34" t="s">
         <v>252</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>253</v>
       </c>
       <c r="E26" s="34">
         <v>6</v>
@@ -4046,574 +4062,594 @@
       <c r="F26" s="34"/>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="64.8">
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E27" s="34">
+        <v>6</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="34">
         <v>1</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="29" customFormat="1">
-      <c r="A28" s="34">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="F28" s="34"/>
+      <c r="G28" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="34">
         <v>60</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" s="45" customFormat="1">
-      <c r="A29" s="34">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29" s="43" t="s">
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E30" s="41">
         <v>3</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" s="45" customFormat="1">
-      <c r="A30" s="34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="E30" s="41">
-        <v>30</v>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="31" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" s="41">
+        <v>30</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C32" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D32" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E32" s="34">
         <v>16</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F32" s="34">
         <v>2</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A32" s="34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="33" t="s">
+      <c r="G32" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C33" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="34">
+      <c r="D33" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="34">
         <v>7</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A33" s="34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="34">
-        <v>14</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>89</v>
       </c>
       <c r="E34" s="34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E35" s="34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="34">
+        <v>3</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D37" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E37" s="34">
         <v>16</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F37" s="34">
         <v>2</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1">
-      <c r="A37" s="34">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="G37" s="35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C38" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D38" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E38" s="34">
         <v>1</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="34">
-        <f t="shared" ref="A39:A54" si="1">A38+1</f>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="34">
+        <f t="shared" ref="A40:A55" si="1">A39+1</f>
         <v>1</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="32" t="s">
+      <c r="B40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E40" s="32">
         <v>16</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F40" s="31">
         <v>2</v>
       </c>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="34">
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" s="32" t="s">
+      <c r="B41" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E41" s="32">
         <v>6</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F41" s="31">
         <v>4</v>
       </c>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="34">
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="32" t="s">
+      <c r="B42" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E42" s="32">
         <v>16</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F42" s="31">
         <v>2</v>
       </c>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34">
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="B43" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E43" s="32">
         <v>3</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="34">
+      <c r="F43" s="31"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="32" t="s">
+      <c r="B44" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E44" s="32">
         <v>3</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="34">
+      <c r="F44" s="31"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="B45" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="32">
         <v>8</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="34">
+      <c r="F45" s="31"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="B46" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="32">
         <v>8</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="34">
+      <c r="F46" s="31"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="32">
+      <c r="C47" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="32">
         <v>8</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="34">
+      <c r="F47" s="31"/>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="B48" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="32">
         <v>8</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="34">
+      <c r="F48" s="31"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="32" t="s">
+      <c r="B49" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E49" s="32">
         <v>16</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="34">
+      <c r="F49" s="31"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="34">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="B50" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="32">
         <v>8</v>
       </c>
-      <c r="F49" s="31"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="34">
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="34">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="B51" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="32">
         <v>4</v>
       </c>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="34">
+      <c r="F51" s="31"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="34">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="32">
+      <c r="B52" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" s="32">
         <v>6</v>
       </c>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="34">
+      <c r="F52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="32" t="s">
+      <c r="B53" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="32">
+      <c r="C53" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="32">
         <v>8</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A53" s="34">
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="33"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="34">
+      <c r="B54" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="32" t="s">
+      <c r="B55" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E55" s="32">
         <v>3</v>
       </c>
-      <c r="F54" s="31"/>
+      <c r="F55" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4630,7 +4666,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
@@ -4639,225 +4675,225 @@
     <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F4" t="s">
         <v>302</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
         <v>303</v>
       </c>
-      <c r="D1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="E8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="E10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="E11" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="7392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
+    <sheet name="總傳票明細表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="385">
   <si>
     <t>備註說明</t>
   </si>
@@ -126,9 +127,6 @@
     <t>新繳款總期數</t>
   </si>
   <si>
-    <t>暫收原因</t>
-  </si>
-  <si>
     <t>計息起日</t>
   </si>
   <si>
@@ -244,10 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Principal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Interest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,14 +250,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TempAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnpaidInterest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UnpaidPrincipal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -281,10 +267,6 @@
   </si>
   <si>
     <t>NewTotalPeriod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempReasonCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -514,10 +496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DelayInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LoanBal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -571,10 +549,6 @@
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -774,10 +748,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>實收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實收延滯息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -921,15 +891,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>實收清償違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>短繳本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款來源</t>
   </si>
   <si>
     <t>VARCHAR2</t>
@@ -1069,10 +1032,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>即時收取清償違約金，下期期款收取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1187,7 +1146,301 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>費用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>聯貸管理費</t>
+  </si>
+  <si>
+    <t>TMI</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>呆帳戶法務費墊付</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>催收款項－法務費用</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>聯貸件</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>催收款項－火險費用</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>暫付火險保費</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>契變手續費</t>
+  </si>
+  <si>
+    <t>費用轉換</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>契變手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫付法務費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別(CdCode:AcctCode)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款、暫收款退還</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>支票繳款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvNo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務科目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayBank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChequeAcctNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChequeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 部分償還本金
+2: 回收期數 &gt; 0
+3: 回收期數 = 0
+4: 清償違約金
+5: 催收款
+(首筆)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼檔: 04-批次作業
+  BankRmftCode 匯款摘要代碼</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempTax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>共用代碼檔
+0: 件數不受此影響
+1: 件數加一
+2: 件數減一
+3: 展期
+(保留)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(保留)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAmt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易總金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc,  Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate asc , Displayflag asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortfall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除短繳本金、含收回短收本金
+催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">實收短收本金 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收短收利息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收短收清償違約金</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnpaidCloseBreach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortfallCloseBreach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Displayflag asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempReasonCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業項目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempItemCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2ItemCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(Temp2ItemCode)
+06 轉帳
+07 沖執行費
+08 收回呆帳
+09 沖火險費
+10 沖帳管費/手續費
+12 聯貸件
+13 沖什項收入
+14 NPL-銷項稅額
+15 921貸款戶
+16 3200億專案
+17 3200億-利變
+18 沖備抵呆帳
+19 轉債協暫收款
+20 轉應付代收
+21 88風災
+22 88風災-保費
+23 3200億傳統A
+24 沖催收法務費
+25 沖催收火險費
+27 沖聯貸費用
+29 貸後契變手續費
+30 呆帳戶法務費墊付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2ReasonCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3210
+共用代碼檔(TempReasonCode)
 00:債協暫收款
 01:溢繳
 02:不足利息
@@ -1202,114 +1455,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CloseBreachAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>費用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>F27</t>
-  </si>
-  <si>
-    <t>聯貸管理費</t>
-  </si>
-  <si>
-    <t>TMI</t>
-  </si>
-  <si>
-    <t>F30</t>
-  </si>
-  <si>
-    <t>呆帳戶法務費墊付</t>
-  </si>
-  <si>
-    <t>F24</t>
-  </si>
-  <si>
-    <t>催收款項－法務費用</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>聯貸件</t>
-  </si>
-  <si>
-    <t>F25</t>
-  </si>
-  <si>
-    <t>催收款項－火險費用</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>暫付火險保費</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F29</t>
-  </si>
-  <si>
-    <t>契變手續費</t>
-  </si>
-  <si>
-    <t>費用轉換</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>契變手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫付法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易別(CdCode:AcctCode)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>撥款、暫收款退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
+    <t>暫收原因</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(Temp2ReasonCode)
+1 放款暫收款
+2 債協暫收款
+3 債協退還款
+4 AML暫收款
+5 聯貸費攤提暫收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收帳戶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(TempItemCode)
+01 抽票
+02 退票
+03 服務中心代收抽票
+04 退款他行(匯款單)
+05 核心退款(整批匯款)
+11 退款新光(存入憑條)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時</t>
+  </si>
+  <si>
+    <t>出表條件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件二</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayCode in (01,02,03,04)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1319,114 +1515,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支票金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>支票繳款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務科目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayBank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChequeAcctNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChequeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 部分償還本金
-2: 回收期數 &gt; 0
-3: 回收期數 = 0
-4: 清償違約金
-5: 催收款
-(首筆)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼檔: 04-批次作業
-  BankRmftCode 匯款摘要代碼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempTax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-0: 件數不受此影響
-1: 件數加一
-2: 件數減一
-3: 展期
-(保留)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(保留)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易總金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate asc,  Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate asc , Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortfall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累溢收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收抵繳金額</t>
+    <t>還款來源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除減免、扣除短繳利息、含收回短收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnpaidInterest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短繳利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收清償違約金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即時收取清償違約金，下期期款收取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1434,20 +1555,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增欄位(轉換資料無)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短繳利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除減免、扣除短繳利息、含收回短收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除短繳本金、含收回短收本金
-催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
+    <t>暫收抵繳(暫收借)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累溢收金額(暫收貸)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseBreachAmt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1455,31 +1591,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">實收短收本金 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>實收短收利息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>實收短收清償違約金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnpaidCloseBreach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShortfallCloseBreach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全戶</t>
+    <t>註記欄位(轉換資料無)，本金、利息已含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉出金額(正值)、轉入金額(負值)
+TxAmt+TempAmt=Principal+Interest+DelayInt+CloseBreachAmt+TransAmt+Overflow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1604,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1702,7 +1819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1851,6 +1968,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,13 +2295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -2189,21 +2309,21 @@
     <col min="4" max="4" width="16.77734375" style="9" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="55.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="75.109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="41" style="10" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="51"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="52"/>
       <c r="C1" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2211,14 +2331,14 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
@@ -2226,16 +2346,16 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="55"/>
+    <row r="3" spans="1:9" ht="32.4">
+      <c r="A3" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="56"/>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
@@ -2243,11 +2363,11 @@
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="54"/>
+    <row r="4" spans="1:9">
+      <c r="A4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="55"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
@@ -2256,12 +2376,14 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="7" t="s">
+        <v>376</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
       <c r="F5" s="23"/>
@@ -2269,11 +2391,11 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="53"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="7"/>
       <c r="D6" s="24"/>
       <c r="E6" s="22"/>
@@ -2282,11 +2404,11 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="7"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -2295,7 +2417,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2319,18 +2441,18 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="14">
         <v>7</v>
@@ -2339,42 +2461,42 @@
       <c r="G9" s="19"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" s="14">
         <v>3</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A52" si="0">A10+1</f>
+        <f t="shared" ref="A11:A53" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E11" s="14">
         <v>3</v>
@@ -2383,19 +2505,19 @@
       <c r="G11" s="19"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2404,19 +2526,19 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2425,19 +2547,19 @@
       <c r="G13" s="19"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E14" s="14">
         <v>8</v>
@@ -2446,19 +2568,19 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E15" s="14">
         <v>4</v>
@@ -2467,19 +2589,19 @@
       <c r="G15" s="25"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E16" s="14">
         <v>6</v>
@@ -2488,107 +2610,109 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E17" s="14">
         <v>8</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E18" s="14">
         <v>5</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="54.6" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="24.75" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E21" s="14">
         <v>3</v>
@@ -2597,19 +2721,19 @@
       <c r="G21" s="27"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E22" s="14">
         <v>6</v>
@@ -2618,42 +2742,42 @@
       <c r="G22" s="25"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="162">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E23" s="14">
         <v>2</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E24" s="14">
         <v>15</v>
@@ -2662,19 +2786,19 @@
       <c r="G24" s="25"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E25" s="14">
         <v>8</v>
@@ -2683,65 +2807,65 @@
       <c r="G25" s="19"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E26" s="14">
         <v>26</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="28" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E28" s="14">
         <v>8</v>
@@ -2750,19 +2874,19 @@
       <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -2771,19 +2895,19 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="14">
         <v>16</v>
@@ -2794,19 +2918,19 @@
       <c r="G30" s="25"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E31" s="14">
         <v>16</v>
@@ -2817,19 +2941,19 @@
       <c r="G31" s="20"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="20.25" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2838,19 +2962,19 @@
       <c r="G32" s="26"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E33" s="14">
         <v>8</v>
@@ -2859,19 +2983,19 @@
       <c r="G33" s="27"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E34" s="14">
         <v>3</v>
@@ -2880,19 +3004,19 @@
       <c r="G34" s="26"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E35" s="14">
         <v>6</v>
@@ -2903,19 +3027,19 @@
       <c r="G35" s="20"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="39" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E36" s="14">
         <v>16</v>
@@ -2924,23 +3048,23 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="39.6" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>196</v>
+        <v>366</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E37" s="14">
         <v>16</v>
@@ -2949,23 +3073,23 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="14">
         <v>16</v>
@@ -2974,23 +3098,23 @@
         <v>2</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E39" s="14">
         <v>16</v>
@@ -2999,23 +3123,23 @@
         <v>2</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>233</v>
+        <v>370</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E40" s="14">
         <v>16</v>
@@ -3024,23 +3148,23 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="49.8" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>351</v>
+        <v>377</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E41" s="14">
         <v>16</v>
@@ -3048,24 +3172,24 @@
       <c r="F41" s="14">
         <v>2</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>352</v>
+      <c r="G41" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>166</v>
+        <v>379</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>374</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E42" s="14">
         <v>16</v>
@@ -3073,24 +3197,24 @@
       <c r="F42" s="14">
         <v>2</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>285</v>
+      <c r="G42" s="26" t="s">
+        <v>373</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>354</v>
+        <v>159</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E43" s="14">
         <v>16</v>
@@ -3098,22 +3222,24 @@
       <c r="F43" s="14">
         <v>2</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="25" t="s">
+        <v>274</v>
+      </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="21.75" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>68</v>
+        <v>368</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E44" s="14">
         <v>16</v>
@@ -3124,19 +3250,19 @@
       <c r="G44" s="25"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="22.2" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>266</v>
+        <v>64</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E45" s="14">
         <v>16</v>
@@ -3144,24 +3270,22 @@
       <c r="F45" s="14">
         <v>2</v>
       </c>
-      <c r="G45" s="25" t="s">
-        <v>267</v>
-      </c>
+      <c r="G45" s="25"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="18" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E46" s="14">
         <v>16</v>
@@ -3169,24 +3293,24 @@
       <c r="F46" s="14">
         <v>2</v>
       </c>
-      <c r="G46" s="38" t="s">
-        <v>353</v>
+      <c r="G46" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>350</v>
+        <v>335</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E47" s="14">
         <v>16</v>
@@ -3194,113 +3318,138 @@
       <c r="F47" s="14">
         <v>2</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>364</v>
+      <c r="G47" s="38" t="s">
+        <v>383</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="21" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E48" s="14">
+        <v>16</v>
+      </c>
+      <c r="F48" s="14">
+        <v>2</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="123" customHeight="1">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="14">
         <v>2000</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="20"/>
+      <c r="G49" s="26" t="s">
+        <v>363</v>
+      </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="16.5" customHeight="1">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="14">
-        <v>6</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="20"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E51" s="14">
+        <v>6</v>
+      </c>
       <c r="F51" s="14"/>
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="14">
-        <v>6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="20"/>
       <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="14">
+        <v>6</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3322,12 +3471,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -3335,9 +3484,9 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -3346,141 +3495,144 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>169</v>
-      </c>
       <c r="B9" s="36" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3492,13 +3644,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="29.33203125" style="30" customWidth="1"/>
@@ -3511,26 +3663,26 @@
     <col min="9" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -3539,21 +3691,21 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E3" s="34">
         <v>16</v>
@@ -3563,19 +3715,19 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A4" s="34">
-        <f t="shared" ref="A4:A38" si="0">A3+1</f>
+        <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E4" s="34">
         <v>16</v>
@@ -3584,21 +3736,21 @@
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -3608,19 +3760,19 @@
       </c>
       <c r="G5" s="48"/>
     </row>
-    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" s="34">
         <v>16</v>
@@ -3630,18 +3782,18 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="34">
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" s="34">
         <v>16</v>
@@ -3651,19 +3803,19 @@
       </c>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E8" s="34">
         <v>16</v>
@@ -3673,19 +3825,19 @@
       </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E9" s="46">
         <v>16</v>
@@ -3695,19 +3847,19 @@
       </c>
       <c r="G9" s="48"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" s="34">
         <v>16</v>
@@ -3717,19 +3869,19 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E11" s="34">
         <v>16</v>
@@ -3739,19 +3891,19 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="29" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E12" s="34">
         <v>16</v>
@@ -3761,19 +3913,19 @@
       </c>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" s="34">
         <v>3</v>
@@ -3781,875 +3933,961 @@
       <c r="F13" s="34"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="49" customFormat="1" ht="201.6" customHeight="1">
       <c r="A14" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
       <c r="A15" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="B15" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="46">
+        <v>2</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="46">
+        <v>2</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="49" customFormat="1" ht="97.8" customHeight="1">
+      <c r="A17" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="46">
         <v>1</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="34">
-        <v>1</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="34">
-        <v>2</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="46"/>
+      <c r="G17" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
       <c r="A18" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>327</v>
+        <v>349</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E18" s="34">
         <v>16</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="34"/>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="34">
+        <v>1</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="34">
         <v>2</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="34">
+        <v>16</v>
+      </c>
+      <c r="F22" s="34">
+        <v>2</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="34">
+        <v>9</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="34">
-        <v>9</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="D24" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="34">
+        <v>7</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A25" s="34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="34">
+        <v>16</v>
+      </c>
+      <c r="F25" s="34">
+        <v>2</v>
+      </c>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="34">
-        <v>7</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="D26" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="34">
+        <v>2</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="34">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="34">
-        <v>16</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="B27" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="34">
         <v>2</v>
-      </c>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="34">
-        <v>2</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="34">
-        <v>2</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="33" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="34">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E25" s="32">
-        <v>4</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="34">
-        <v>6</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="34">
-        <v>6</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="35"/>
     </row>
-    <row r="28" spans="1:8" s="29" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="96" customHeight="1">
       <c r="A28" s="34">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="B28" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="32">
         <v>1</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="31"/>
+      <c r="G28" s="33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="32.4">
       <c r="A29" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>290</v>
+      <c r="B29" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>240</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" s="34">
+        <v>243</v>
+      </c>
+      <c r="E29" s="32">
+        <v>4</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="34">
+        <v>6</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="34">
+        <v>6</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="64.8">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="34">
+        <v>1</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="29" customFormat="1">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="34">
         <v>60</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="41">
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" s="45" customFormat="1">
+      <c r="A34" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="41">
         <v>3</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34">
-        <f t="shared" si="0"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" s="45" customFormat="1">
+      <c r="A35" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="41">
         <v>30</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="F35" s="41"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A36" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="34">
+        <v>16</v>
+      </c>
+      <c r="F36" s="34">
+        <v>2</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="34">
+        <v>7</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A38" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="34">
+        <v>14</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A39" s="34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="34">
+        <v>7</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A40" s="34">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="34">
+        <v>3</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="34">
+        <v>16</v>
+      </c>
+      <c r="F41" s="34">
+        <v>2</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="E31" s="41">
-        <v>30</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="34">
+    </row>
+    <row r="42" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1">
+      <c r="A42" s="34">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="34">
+        <v>1</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="34">
+        <f t="shared" ref="A44:A59" si="1">A43+1</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="32">
         <v>16</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F44" s="31">
         <v>2</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="34">
-        <v>7</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="34">
-        <v>14</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="34">
-        <v>7</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="34">
-        <v>3</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="31" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="34">
-        <v>16</v>
-      </c>
-      <c r="F37" s="34">
-        <v>2</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="34">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="34">
-        <v>1</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="33" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="34">
-        <f t="shared" ref="A40:A55" si="1">A39+1</f>
-        <v>1</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="32">
-        <v>16</v>
-      </c>
-      <c r="F40" s="31">
-        <v>2</v>
-      </c>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="34">
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="32">
+      <c r="B45" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="32">
         <v>6</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F45" s="31">
         <v>4</v>
       </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="34">
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="32">
+      <c r="B46" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="32">
         <v>16</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F46" s="31">
         <v>2</v>
       </c>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="34">
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="32">
+      <c r="B47" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="32">
         <v>3</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="34">
+      <c r="F47" s="31"/>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="32">
+      <c r="B48" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="32">
         <v>3</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="34">
+      <c r="F48" s="31"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="34">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="32">
+      <c r="B49" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="32">
         <v>8</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="34">
+      <c r="F49" s="31"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="34">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="32">
+      <c r="B50" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="32">
         <v>8</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="34">
+      <c r="F50" s="31"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="34">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E47" s="32">
+      <c r="B51" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="32">
         <v>8</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="34">
+      <c r="F51" s="31"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="34">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="32">
+      <c r="B52" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="32">
         <v>8</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="34">
+      <c r="F52" s="31"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="34">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="32">
+      <c r="B53" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="32">
         <v>16</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="34">
+      <c r="F53" s="31"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="34">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="32">
+      <c r="B54" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="32">
         <v>8</v>
       </c>
-      <c r="F50" s="31"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="34">
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="34">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" s="32">
+      <c r="B55" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="32">
         <v>4</v>
       </c>
-      <c r="F51" s="31"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="34">
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="34">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="E52" s="32">
+      <c r="B56" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="32">
         <v>6</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="34">
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="34">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="32">
+      <c r="B57" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="32">
         <v>8</v>
       </c>
-      <c r="F53" s="31"/>
-    </row>
-    <row r="54" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34">
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A58" s="34">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="34">
+      <c r="B58" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="34">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="32">
+      <c r="B59" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="32">
         <v>3</v>
       </c>
-      <c r="F55" s="31"/>
+      <c r="F59" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4666,7 +4904,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
@@ -4675,226 +4913,277 @@
     <col min="9" max="9" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="E3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" t="s">
         <v>296</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F8" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E10" t="s">
         <v>299</v>
       </c>
-      <c r="I2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
+      <c r="F10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" t="s">
         <v>300</v>
       </c>
-      <c r="F3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
         <v>182</v>
       </c>
-      <c r="E4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
         <v>183</v>
       </c>
-      <c r="E5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
         <v>185</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" t="s">
         <v>186</v>
       </c>
-      <c r="E8" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" t="s">
-        <v>193</v>
-      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="30"/>
+    <col min="2" max="2" width="53.5546875" style="30" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="30"/>
+    <col min="7" max="7" width="51.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="481">
   <si>
     <t>備註說明</t>
   </si>
@@ -658,9 +658,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正常結案</t>
-  </si>
-  <si>
     <t>轉催收</t>
   </si>
   <si>
@@ -682,10 +679,6 @@
     <t>債權轉讓戶</t>
   </si>
   <si>
-    <t>L3420</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>撥款</t>
   </si>
   <si>
@@ -693,10 +686,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>L3200</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>回收登錄</t>
   </si>
   <si>
@@ -704,32 +693,6 @@
   </si>
   <si>
     <t>回收登錄-催收收回</t>
-  </si>
-  <si>
-    <t>L3210</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收款登錄</t>
-  </si>
-  <si>
-    <t>暫收款退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3220</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收款銷帳</t>
-  </si>
-  <si>
-    <t>暫收款轉帳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3230</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>應繳日變更-不可欠繳</t>
@@ -972,14 +935,6 @@
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>借新還舊(同額度)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期(新額度)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1146,18 +1101,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>費用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易代號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>F27</t>
   </si>
   <si>
@@ -1206,42 +1149,19 @@
     <t>F29</t>
   </si>
   <si>
+    <t>火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>契變手續費</t>
-  </si>
-  <si>
-    <t>費用轉換</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>契變手續費</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>暫付法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易別(CdCode:AcctCode)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1397,11 +1317,160 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Temp2ItemCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔(Temp2ItemCode)
+    <t>RemoveNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3210
+共用代碼檔(TempReasonCode)
+00:債協暫收款
+01:溢繳
+02:不足利息
+03:期票
+04:本金異動
+05:積欠期款
+06:即期票現金
+07:火險、帳管
+08:兌現票入帳
+09:其他
+10:AML凍結／未確定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收原因</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收帳戶</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時</t>
+  </si>
+  <si>
+    <t>出表條件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件一</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件二</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayCode in (01,02,03,04)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     1.減免的金額
+     2.收取的短繳本金、利息     
+     3.收取的各項費用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款來源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除減免、扣除短繳利息、含收回短收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Principal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnpaidInterest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短繳利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收清償違約金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即時收取清償違約金，下期期款收取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳(暫收借)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累溢收金額(暫收貸)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelayInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseBreachAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回短收金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>註記欄位(轉換資料無)，本金、利息已含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實收費用金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3220
+共用代碼檔(TempItemCode)
+01 抽票
+02 退票
+03 服務中心代收抽票
+04 退款他行(匯款單)
+05 核心退款(整批匯款)
+11 退款新光(存入憑條)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3230
+共用代碼檔(Temp2ItemCode)
 06 轉帳
 07 沖執行費
 08 收回呆帳
@@ -1427,39 +1496,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Temp2ReasonCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemoveNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3210
-共用代碼檔(TempReasonCode)
-00:債協暫收款
-01:溢繳
-02:不足利息
-03:期票
-04:本金異動
-05:積欠期款
-06:即期票現金
-07:火險、帳管
-08:兌現票入帳
-09:其他
-10:AML凍結／未確定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收原因</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔(Temp2ReasonCode)
+    <t>L3230
+共用代碼檔(Temp2ReasonCode)
 1 放款暫收款
 2 債協暫收款
 3 債協退還款
@@ -1468,135 +1506,435 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暫收帳戶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔(TempItemCode)
-01 抽票
-02 退票
-03 服務中心代收抽票
-04 退款他行(匯款單)
-05 核心退款(整批匯款)
-11 退款新光(存入憑條)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時</t>
-  </si>
-  <si>
-    <t>出表條件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>條件二</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayCode in (01,02,03,04)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     1.減免的金額
-     2.收取的短繳本金、利息     
-     3.收取的各項費用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>還款來源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣除減免、扣除短繳利息、含收回短收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Principal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnpaidInterest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>短繳利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>實收清償違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>即時收取清償違約金，下期期款收取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暫收抵繳(暫收借)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累溢收金額(暫收貸)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉帳金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TempAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DelayInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseBreachAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回短收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>註記欄位(轉換資料無)，本金、利息已含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉出金額(正值)、轉入金額(負值)
-TxAmt+TempAmt=Principal+Interest+DelayInt+CloseBreachAmt+TransAmt+Overflow</t>
+    <t>TempReasonCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F07</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>F29</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沖執行費</t>
+  </si>
+  <si>
+    <t>收回呆帳</t>
+  </si>
+  <si>
+    <t>沖火險費</t>
+  </si>
+  <si>
+    <t>沖帳管費/手續費</t>
+  </si>
+  <si>
+    <t>企金件</t>
+  </si>
+  <si>
+    <t>沖什項收入</t>
+  </si>
+  <si>
+    <t>NPL-銷項稅額</t>
+  </si>
+  <si>
+    <t>921貸款戶</t>
+  </si>
+  <si>
+    <t>3200億專案</t>
+  </si>
+  <si>
+    <t>3200億-利變</t>
+  </si>
+  <si>
+    <t>沖備抵呆帳</t>
+  </si>
+  <si>
+    <t>轉債協暫收款</t>
+  </si>
+  <si>
+    <t>轉應付代收</t>
+  </si>
+  <si>
+    <t>88風災</t>
+  </si>
+  <si>
+    <t>88風災-保費</t>
+  </si>
+  <si>
+    <t>3200億傳統A</t>
+  </si>
+  <si>
+    <t>沖催收法務費</t>
+  </si>
+  <si>
+    <t>沖催收火險費</t>
+  </si>
+  <si>
+    <t>沖聯貸費用</t>
+  </si>
+  <si>
+    <t>貸後契變手續費</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>債協暫收款</t>
+  </si>
+  <si>
+    <t>溢繳</t>
+  </si>
+  <si>
+    <t>不足利息</t>
+  </si>
+  <si>
+    <t>期票</t>
+  </si>
+  <si>
+    <t>本金異動</t>
+  </si>
+  <si>
+    <t>積欠期款</t>
+  </si>
+  <si>
+    <t>即期票現金</t>
+  </si>
+  <si>
+    <t>火險、帳管</t>
+  </si>
+  <si>
+    <t>兌現票入帳</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>AML凍結／未確定</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>交易別</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別(Desc)</t>
+  </si>
+  <si>
+    <t>交易代號(TitaTxcd)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3200 還款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收利息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分償還本金</t>
+  </si>
+  <si>
+    <t>CdCode:AcctCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>費用轉換</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:TempReasonCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>期票</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期</t>
+  </si>
+  <si>
+    <t>借新還舊</t>
+  </si>
+  <si>
+    <t>債協暫收款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>即期票現金</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML凍結／未確定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3420</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3410</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>結案登錄-可欠繳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>結案登錄</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:CaseCloseCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽票</t>
+  </si>
+  <si>
+    <t>退票</t>
+  </si>
+  <si>
+    <t>服務中心代收抽票</t>
+  </si>
+  <si>
+    <t>債協退還款</t>
+  </si>
+  <si>
+    <t>AML暫收款</t>
+  </si>
+  <si>
+    <t>暫收款登錄</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易別(Desc)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3220</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收款退還</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>退還</t>
+  </si>
+  <si>
+    <t>退還</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:TempItemCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:Temp2ReasonCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>退還</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3230轉帳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3230銷帳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款暫收款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉帳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收轉帳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉債協暫收款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉債協退還款</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷+CdCode:Temp2ItemCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回費用(還放款))</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回費用(存暫收))</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷+CdCode:AcctCode</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷火險保費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷帳管費/手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷契變手續費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收銷法務費</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3210</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.回收金額
+2.轉出金額(負值)轉入金額(正值)
+3.催呆轉帳金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxAmt+TempAmt
+=Principal+Interest+DelayInt+CloseBreachAmt+FeeAmt+Overflow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含催收回復時的催收收回金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1819,7 +2157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,6 +2310,15 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2298,7 +2645,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2315,10 +2662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="13" t="s">
         <v>96</v>
       </c>
@@ -2332,8 +2679,8 @@
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -2347,10 +2694,10 @@
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="32.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
@@ -2364,10 +2711,10 @@
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
@@ -2377,12 +2724,12 @@
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="7" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
@@ -2392,10 +2739,10 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7"/>
       <c r="D6" s="24"/>
       <c r="E6" s="22"/>
@@ -2405,10 +2752,10 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="7"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -2616,7 +2963,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
@@ -2629,7 +2976,7 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="25" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="H17" s="33"/>
     </row>
@@ -2673,7 +3020,7 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="26" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -2683,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>18</v>
@@ -2696,7 +3043,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -2748,10 +3095,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>84</v>
@@ -2761,7 +3108,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="26" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2792,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>107</v>
@@ -2813,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>41</v>
@@ -2826,7 +3173,7 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="25" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H26" s="5"/>
     </row>
@@ -2895,7 +3242,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="30" spans="1:8" ht="65.400000000000006" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2915,7 +3262,9 @@
       <c r="F30" s="14">
         <v>2</v>
       </c>
-      <c r="G30" s="25"/>
+      <c r="G30" s="26" t="s">
+        <v>478</v>
+      </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1">
@@ -2989,10 +3338,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>84</v>
@@ -3033,10 +3382,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>84</v>
@@ -3048,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="H36" s="5"/>
     </row>
@@ -3061,7 +3410,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>84</v>
@@ -3073,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -3083,10 +3432,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>84</v>
@@ -3111,7 +3460,7 @@
         <v>63</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>84</v>
@@ -3133,10 +3482,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>84</v>
@@ -3158,10 +3507,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>84</v>
@@ -3173,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -3183,10 +3532,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>84</v>
@@ -3198,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>373</v>
+        <v>480</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -3208,7 +3557,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>159</v>
@@ -3223,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -3233,10 +3582,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>84</v>
@@ -3259,7 +3608,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>84</v>
@@ -3279,10 +3628,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>84</v>
@@ -3294,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="H46" s="5"/>
     </row>
@@ -3304,10 +3653,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>84</v>
@@ -3319,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3329,10 +3678,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>84</v>
@@ -3343,9 +3692,7 @@
       <c r="F48" s="14">
         <v>2</v>
       </c>
-      <c r="G48" s="26" t="s">
-        <v>373</v>
-      </c>
+      <c r="G48" s="26"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="123" customHeight="1">
@@ -3357,7 +3704,7 @@
         <v>120</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>88</v>
@@ -3367,7 +3714,7 @@
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="26" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="H49" s="5"/>
     </row>
@@ -3471,9 +3818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3497,13 +3844,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3525,7 +3872,7 @@
         <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3536,7 +3883,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3547,7 +3894,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3563,7 +3910,7 @@
         <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>155</v>
@@ -3582,43 +3929,43 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>111</v>
@@ -3626,13 +3973,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3646,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -3665,10 +4012,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -3676,13 +4023,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -3691,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -3721,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>84</v>
@@ -3736,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
@@ -3750,7 +4097,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -3758,7 +4105,9 @@
       <c r="F5" s="46">
         <v>2</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="50" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="34">
@@ -3780,7 +4129,9 @@
       <c r="F6" s="34">
         <v>2</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="50" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="34">
@@ -3801,7 +4152,9 @@
       <c r="F7" s="34">
         <v>2</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="50" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="34">
@@ -3823,7 +4176,9 @@
       <c r="F8" s="34">
         <v>2</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="50" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="34">
@@ -3834,7 +4189,7 @@
         <v>148</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>84</v>
@@ -3856,7 +4211,7 @@
         <v>149</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>84</v>
@@ -3875,10 +4230,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>84</v>
@@ -3897,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>27</v>
@@ -3939,20 +4294,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>88</v>
+        <v>361</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="47" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -3961,10 +4316,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>88</v>
@@ -3973,8 +4328,8 @@
         <v>2</v>
       </c>
       <c r="F15" s="46"/>
-      <c r="G15" s="47" t="s">
-        <v>355</v>
+      <c r="G15" s="51" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -3983,10 +4338,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>88</v>
@@ -3996,7 +4351,7 @@
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="47" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="49" customFormat="1" ht="97.8" customHeight="1">
@@ -4005,10 +4360,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>88</v>
@@ -4017,8 +4372,8 @@
         <v>1</v>
       </c>
       <c r="F17" s="46"/>
-      <c r="G17" s="47" t="s">
-        <v>353</v>
+      <c r="G17" s="51" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
@@ -4027,10 +4382,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>103</v>
@@ -4082,7 +4437,7 @@
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
@@ -4116,7 +4471,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>84</v>
@@ -4128,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4137,7 +4492,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>37</v>
@@ -4157,7 +4512,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>38</v>
@@ -4252,7 +4607,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="33" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -4261,23 +4616,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E29" s="32">
         <v>4</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="33" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
@@ -4289,10 +4644,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E30" s="34">
         <v>6</v>
@@ -4306,13 +4661,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E31" s="34">
         <v>6</v>
@@ -4326,23 +4681,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E32" s="34">
         <v>1</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="29" customFormat="1">
@@ -4351,13 +4706,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E33" s="34">
         <v>60</v>
@@ -4371,10 +4726,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="D34" s="43" t="s">
         <v>88</v>
@@ -4391,13 +4746,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E35" s="41">
         <v>30</v>
@@ -4426,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4441,14 +4796,14 @@
         <v>33</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E37" s="34">
         <v>7</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4470,7 +4825,7 @@
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4492,7 +4847,7 @@
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4501,7 +4856,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>36</v>
@@ -4514,7 +4869,7 @@
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="31" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
@@ -4523,7 +4878,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>23</v>
@@ -4538,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1">
@@ -4560,13 +4915,13 @@
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="33" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="31.2" customHeight="1">
       <c r="A43" s="34"/>
       <c r="B43" s="31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
@@ -4580,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>132</v>
@@ -4602,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>132</v>
@@ -4624,10 +4979,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>132</v>
@@ -4646,10 +5001,10 @@
         <v>4</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>132</v>
@@ -4666,10 +5021,10 @@
         <v>5</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>132</v>
@@ -4686,13 +5041,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E49" s="32">
         <v>8</v>
@@ -4706,13 +5061,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E50" s="32">
         <v>8</v>
@@ -4726,13 +5081,13 @@
         <v>8</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E51" s="32">
         <v>8</v>
@@ -4746,13 +5101,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E52" s="32">
         <v>8</v>
@@ -4766,10 +5121,10 @@
         <v>10</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>132</v>
@@ -4786,13 +5141,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E54" s="32">
         <v>8</v>
@@ -4805,13 +5160,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E55" s="32">
         <v>4</v>
@@ -4824,13 +5179,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E56" s="32">
         <v>6</v>
@@ -4843,13 +5198,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E57" s="32">
         <v>8</v>
@@ -4862,7 +5217,7 @@
         <v>15</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
@@ -4876,10 +5231,10 @@
         <v>16</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>132</v>
@@ -4898,240 +5253,741 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="52" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" style="52" customWidth="1"/>
+    <col min="13" max="13" width="25.77734375" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" style="52" customWidth="1"/>
+    <col min="19" max="19" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="G3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" t="s">
+        <v>473</v>
+      </c>
+      <c r="P4" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="D5" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="R5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="R6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="M7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="R7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q8" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="R8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="I9" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q9" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="R9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q10" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="R10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="I11" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J11" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q11" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="R11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="C12" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I12" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="D1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J12" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="R12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="C13" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="I13" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="F2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="E3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="J13" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="R13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="C14" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="P14" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="R14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="C15" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="G16" t="s">
+        <v>457</v>
+      </c>
+      <c r="H16" t="s">
+        <v>459</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="D17" t="s">
+        <v>441</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="K18" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" t="s">
+        <v>432</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="C20" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="K20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="H21" t="s">
+        <v>448</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="G26" t="s">
+        <v>458</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="I27" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" t="s">
+        <v>429</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="I29" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30"/>
+      <c r="I30" s="52">
+        <v>10</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31"/>
+      <c r="I31" s="52">
+        <v>12</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="52">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32"/>
+      <c r="I32" s="52">
+        <v>13</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="C33" s="52">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33"/>
+      <c r="I33" s="52">
+        <v>14</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="C34" s="52">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34"/>
+      <c r="I34" s="52">
+        <v>15</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="C35" s="52">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35"/>
+      <c r="I35" s="52">
+        <v>16</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="52">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36"/>
+      <c r="I36" s="52">
+        <v>17</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="C37" s="52">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37"/>
+      <c r="I37" s="52">
+        <v>18</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="C38" s="52">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38"/>
+      <c r="I38" s="52">
+        <v>19</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="C39" s="52">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39"/>
+      <c r="I39" s="52">
+        <v>20</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40"/>
+      <c r="I40" s="52">
+        <v>21</v>
+      </c>
+      <c r="J40" s="52" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="I41" s="52">
+        <v>22</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
         <v>175</v>
       </c>
-      <c r="E4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" t="s">
-        <v>289</v>
-      </c>
-      <c r="I4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" t="s">
+      <c r="I42" s="52">
+        <v>23</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="I43" s="52">
+        <v>24</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="E5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="E11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="B16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" t="s">
-        <v>186</v>
+      <c r="I44" s="52">
+        <v>25</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="I45" s="52">
+        <v>27</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="I46" s="52">
+        <v>29</v>
+      </c>
+      <c r="J46" s="52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="I47" s="52">
+        <v>30</v>
+      </c>
+      <c r="J47" s="52" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5162,23 +6018,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="50" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB6914-C979-4452-91A0-DA0D6C4BBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
     <sheet name="總傳票明細表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="483">
   <si>
     <t>備註說明</t>
   </si>
@@ -1937,11 +1938,19 @@
     <t>含催收回復時的催收收回金額</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AcSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳務分錄起號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -2431,6 +2440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2466,6 +2492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2641,11 +2684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2833,7 +2876,7 @@
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A53" si="0">A10+1</f>
+        <f t="shared" ref="A11:A54" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2875,7 +2918,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2896,7 +2939,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
-        <f t="shared" si="0"/>
+        <f>A13+1</f>
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2917,7 +2960,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
-        <f t="shared" si="0"/>
+        <f>A14+1</f>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2938,7 +2981,7 @@
     </row>
     <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
+        <f>A15+1</f>
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2959,7 +3002,7 @@
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
-        <f t="shared" si="0"/>
+        <f>A16+1</f>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2980,245 +3023,245 @@
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
+        <f>A17+1</f>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A19" s="4">
+        <f>A18+1</f>
+        <v>11</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D19" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E19" s="14">
         <v>5</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" ht="54.6" customHeight="1">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8" ht="54.6" customHeight="1">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="75.599999999999994" customHeight="1">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E22" s="14">
         <v>3</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>6</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="162">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="162">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="14">
         <v>15</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="14">
-        <v>2</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="14">
-        <v>15</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E26" s="14">
         <v>8</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="14">
-        <v>26</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="74.400000000000006" customHeight="1">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="14">
+        <v>26</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="74.400000000000006" customHeight="1">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="14">
         <v>1</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="28" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="14">
-        <v>8</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="25"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
@@ -3227,13 +3270,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -3242,41 +3285,37 @@
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="65.400000000000006" customHeight="1">
+    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="14">
+        <v>8</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="65.400000000000006" customHeight="1">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="14">
-        <v>16</v>
-      </c>
-      <c r="F30" s="14">
-        <v>2</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>84</v>
@@ -3287,49 +3326,53 @@
       <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="26" t="s">
+        <v>478</v>
+      </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="14">
+        <v>16</v>
+      </c>
+      <c r="F32" s="14">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>8</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="14">
-        <v>8</v>
-      </c>
       <c r="F33" s="14"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
@@ -3338,79 +3381,75 @@
         <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="14">
+        <v>8</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="14">
-        <v>3</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="14">
-        <v>6</v>
-      </c>
-      <c r="F35" s="14">
-        <v>4</v>
-      </c>
-      <c r="G35" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1">
+    <row r="36" spans="1:8" ht="18" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>261</v>
+        <v>116</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F36" s="14">
-        <v>2</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>315</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G36" s="20"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39.6" customHeight="1">
+    <row r="37" spans="1:8" ht="39" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>84</v>
@@ -3421,21 +3460,21 @@
       <c r="F37" s="14">
         <v>2</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>339</v>
+      <c r="G37" s="20" t="s">
+        <v>315</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="38" spans="1:8" ht="39.6" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>84</v>
@@ -3446,8 +3485,8 @@
       <c r="F38" s="14">
         <v>2</v>
       </c>
-      <c r="G38" s="25" t="s">
-        <v>154</v>
+      <c r="G38" s="26" t="s">
+        <v>339</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -3457,10 +3496,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>84</v>
@@ -3482,10 +3521,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>84</v>
@@ -3497,20 +3536,20 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="49.8" customHeight="1">
+    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>84</v>
@@ -3521,21 +3560,21 @@
       <c r="F41" s="14">
         <v>2</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>479</v>
+      <c r="G41" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="42" spans="1:8" ht="49.8" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>347</v>
+        <v>355</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>84</v>
@@ -3546,8 +3585,8 @@
       <c r="F42" s="14">
         <v>2</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>480</v>
+      <c r="G42" s="15" t="s">
+        <v>479</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -3557,10 +3596,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>159</v>
+        <v>350</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>84</v>
@@ -3571,21 +3610,21 @@
       <c r="F43" s="14">
         <v>2</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>262</v>
+      <c r="G43" s="26" t="s">
+        <v>480</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="21.75" customHeight="1">
+    <row r="44" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>84</v>
@@ -3596,19 +3635,21 @@
       <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="G44" s="25"/>
+      <c r="G44" s="25" t="s">
+        <v>262</v>
+      </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="22.2" customHeight="1">
+    <row r="45" spans="1:8" ht="21.75" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>84</v>
@@ -3622,16 +3663,16 @@
       <c r="G45" s="25"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1">
+    <row r="46" spans="1:8" ht="22.2" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>244</v>
+        <v>64</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>84</v>
@@ -3642,21 +3683,19 @@
       <c r="F46" s="14">
         <v>2</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>346</v>
-      </c>
+      <c r="G46" s="25"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="47" spans="1:8" ht="18" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>84</v>
@@ -3667,21 +3706,21 @@
       <c r="F47" s="14">
         <v>2</v>
       </c>
-      <c r="G47" s="38" t="s">
-        <v>354</v>
+      <c r="G47" s="25" t="s">
+        <v>346</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="21" customHeight="1">
+    <row r="48" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>348</v>
+        <v>314</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>353</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>84</v>
@@ -3692,68 +3731,72 @@
       <c r="F48" s="14">
         <v>2</v>
       </c>
-      <c r="G48" s="26"/>
+      <c r="G48" s="38" t="s">
+        <v>354</v>
+      </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="123" customHeight="1">
+    <row r="49" spans="1:8" ht="21" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="14">
+        <v>16</v>
+      </c>
+      <c r="F49" s="14">
+        <v>2</v>
+      </c>
+      <c r="G49" s="26"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" ht="123" customHeight="1">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E50" s="14">
         <v>2000</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="26" t="s">
+      <c r="F50" s="14"/>
+      <c r="G50" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B50" s="15" t="s">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D51" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="14">
-        <v>6</v>
-      </c>
+      <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="20"/>
       <c r="H51" s="5"/>
@@ -3764,39 +3807,60 @@
         <v>44</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="14"/>
+        <v>121</v>
+      </c>
+      <c r="E52" s="14">
+        <v>6</v>
+      </c>
       <c r="F52" s="14"/>
       <c r="G52" s="20"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="14">
-        <v>6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="20"/>
       <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="14">
+        <v>6</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3815,7 +3879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3990,11 +4054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5252,7 +5316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5998,7 +6062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB6914-C979-4452-91A0-DA0D6C4BBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,8 +17,9 @@
     <sheet name="JsonField" sheetId="3" r:id="rId3"/>
     <sheet name="交易別" sheetId="4" r:id="rId4"/>
     <sheet name="總傳票明細表" sheetId="5" r:id="rId5"/>
+    <sheet name="國稅局" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="491">
   <si>
     <t>備註說明</t>
   </si>
@@ -55,15 +55,15 @@
   </si>
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
@@ -79,11 +79,11 @@
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交易序號</t>
@@ -165,15 +165,15 @@
   </si>
   <si>
     <t>更正序號, 原交易序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UNI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
@@ -192,226 +192,226 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BorxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RemitAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ChequeAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Interest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BreachAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnpaidPrincipal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ReduceAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StampFreeAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LawFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NewTotalPeriod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>帳戶區分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctDivisionCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IntStartDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IntEndDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RemitBank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RemitAcctNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RemitSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OldSpecificDd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NeqSpecificDd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo,FacmNo,BormNo,BorxNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交易內容檔序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>經辦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交易時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交易日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxCd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaCrDb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaCurCd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LoanBorTx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>borxFacmNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>borxBormNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ExtraRepayCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攤還額異動碼</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">共用代碼檔
 0: 不變  
 1: 變   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -426,215 +426,215 @@
 9: 其他
 10: 買回
 11: 綁約期還款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TxAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>交易金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo &gt;= ,AND BormNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BormNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>摘要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>利率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaEmpNoS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaCalDy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>OtherFields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>查詢時顯示否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LoanBal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>放款交易內容檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>borxEntryDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND EntryDate &gt;= ,AND EntryDate &lt;=,AND Displayflag  ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>999;聯貸訂約案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AdvanceCloseCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CaseCloseCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回收登錄種類</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>RepayKindCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>應繳日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DueDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaCalTm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND BorxNo &gt;= ,AND BorxNo &lt;=  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>borxTxtNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>custNoTxtNoFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Displayflag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TitaKinBr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>單位別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcctFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ModifyFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FireFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShortfallPrin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShortfallInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收帳管費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收契變手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">實收火險保費 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收法拍費用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>已扣除減免</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BorxNo desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bormNoDescFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已扣除減免，實收立即收取違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>F:繳息、帳務
@@ -642,11 +642,11 @@
 A:帳務 
 Y:是
 N:否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>提前償還本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
@@ -656,7 +656,7 @@
   </si>
   <si>
     <t>findByCustNoandFacmNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>轉催收</t>
@@ -684,7 +684,7 @@
   </si>
   <si>
     <t>L3100</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>回收登錄</t>
@@ -697,246 +697,246 @@
   </si>
   <si>
     <t>應繳日變更-不可欠繳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>應繳日變更-可欠繳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3711</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3712</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收延滯息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>custNoTxtNoEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND AcDate = ,AND TitaKinBr = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交易前撥款主檔留存欄</t>
   </si>
   <si>
     <t>LoanBal</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>放款餘額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>RepaidPeriod</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>已還本期數</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PaidTerms</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>已繳息期數</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PrevPayIntDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次繳息日,繳息迄日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PrevRepaidDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次還本日,最後還本日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NextPayIntDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>下次繳息日,應繳息日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NextRepayDate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>下次還本日,應還本日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DueAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>每期攤還金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>StoreRate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實際計息利率</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LastEntDy</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次交易日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LastKinbr</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次交易行別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LastTlrNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次櫃員編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LastTxtNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上次交易序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交易前催呆主檔留存欄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>OvduNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>催收序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>短繳本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>整批批號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SELECT  JSON_VALUE  ("OtherFields",  '$.CaseCloseCode') AS CaseCloseCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>會計日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>會計日期(8)+單位別(4)+經辦(6)+交易序號(8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CorrectSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>borxAcDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findDueDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND DueDate &gt;= ,AND DueDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo asc,BormNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DueDate asc, FacmNo asc, BormNo asc </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DetailSeq</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>明細序號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>摘要代碼</t>
   </si>
   <si>
     <t>DscptCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">L8110
 AML有效戶 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -950,119 +950,115 @@
 7:轉列呆帳
 8:催收部分轉呆
 9:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RenewCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>展期記號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>展期協議：新額度商品代碼:60,61,62,63)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>代碼檔: 02-業務作業
 RenewCode展期記號
 1.一般
 2.協議</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>減免違約金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ReduceBreachAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>減免清償違約金+減免違約金+減免延滯息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>短繳清償違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>回收期數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findAcDateRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TitaHCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND AcDate &gt;= ,AND AcDate &lt;=,AND Displayflag  ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate &gt;= ,AND AcDate &lt;= ,AND TitaHCode ^i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BorxNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate asc ,CustNo asc ,FacmNo asc ,BormNo asc ,BorxNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NewDueAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findIntEndDateEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND IntEndDate = ,AND TitaHCode ^i ,AND AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
   </si>
   <si>
-    <t>IntEndDate DESC ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>borxIntEndDateDescRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ExtraRepay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收本金含提前償還本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(空白):無
 1:借
 2:貸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0:正常
@@ -1070,7 +1066,7 @@
 2:被訂正
 3:沖正
 4:被沖正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.RepayCode
@@ -1083,23 +1079,23 @@
 07:定存特約
 08:劃撥存款
 09:其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PaidTerms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摘要</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Note</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>F27</t>
@@ -1151,67 +1147,67 @@
   </si>
   <si>
     <t>火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>契變手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫付法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>撥款、暫收款退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>支票金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>支票繳款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>RvNo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>銷帳編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>業務科目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>其他欄位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RepayBank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ChequeAcctNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ChequeNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1: 部分償還本金
@@ -1220,24 +1216,24 @@
 4: 清償違約金
 5: 催收款
 (首筆)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>代碼檔: 04-批次作業
   BankRmftCode 匯款摘要代碼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>AcctCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TempTax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>共用代碼檔
@@ -1246,84 +1242,84 @@
 2: 件數減一
 3: 展期
 (保留)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(保留)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TxAmt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交易總金額</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>還款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>AcDate asc,  Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate asc , Displayflag asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Shortfall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扣除短繳本金、含收回短收本金
 催收結案時：沖催收款項+利息收入=實收本金+實收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">實收短收本金 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收短收利息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>實收短收清償違約金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>UnpaidCloseBreach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShortfallCloseBreach</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Displayflag asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TempReasonCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作業項目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TempItemCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RemoveNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>銷帳編號</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3210
@@ -1339,124 +1335,124 @@
 08:兌現票入帳
 09:其他
 10:AML凍結／未確定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暫收原因</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收帳戶</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo(5:2)+DetailSeq(6) = TitaTxtNo 時</t>
   </si>
   <si>
     <t>出表條件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>條件一</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>條件二</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>RepayCode in (01,02,03,04)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     1.減免的金額
      2.收取的短繳本金、利息     
      3.收取的各項費用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>還款來源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扣除減免、扣除短繳利息、含收回短收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Principal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UnpaidInterest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>短繳利息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收清償違約金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Overflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>即時收取清償違約金，下期期款收取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暫收抵繳(暫收借)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>累溢收金額(暫收貸)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,TitaTlrNo,TitaTxtNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TempAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DelayInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CloseBreachAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收回短收金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>註記欄位(轉換資料無)，本金、利息已含</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FeeAmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>實收費用金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L3220
@@ -1467,7 +1463,7 @@
 04 退款他行(匯款單)
 05 核心退款(整批匯款)
 11 退款新光(存入憑條)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L3230
@@ -1494,7 +1490,7 @@
 27 沖聯貸費用
 29 貸後契變手續費
 30 呆帳戶法務費墊付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L3230
@@ -1504,31 +1500,31 @@
 3 債協退還款
 4 AML暫收款
 5 聯貸費攤提暫收款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TempReasonCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>F07</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>F10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TMI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>F29</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>沖執行費</t>
@@ -1598,21 +1594,21 @@
   </si>
   <si>
     <t>07</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>08</t>
   </si>
   <si>
     <t>08</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>09</t>
   </si>
   <si>
     <t>09</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>債協暫收款</t>
@@ -1670,45 +1666,45 @@
   </si>
   <si>
     <t>交易別</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交易別(Desc)</t>
   </si>
   <si>
     <t>交易代號(TitaTxcd)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3200 還款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>回收利息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>部分償還本金</t>
   </si>
   <si>
     <t>CdCode:AcctCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>費用轉換</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:TempReasonCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>00</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>期票</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>展期</t>
@@ -1718,35 +1714,35 @@
   </si>
   <si>
     <t>債協暫收款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>即期票現金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>AML凍結／未確定</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3420</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3410</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>結案登錄-可欠繳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>結案登錄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:CaseCloseCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>抽票</t>
@@ -1765,50 +1761,50 @@
   </si>
   <si>
     <t>暫收款登錄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>登錄</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交易別(Desc)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3220</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收款退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>退還</t>
   </si>
   <si>
     <t>退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:TempItemCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
@@ -1821,142 +1817,187 @@
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CdCode:Temp2ReasonCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>退還</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3230轉帳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3230銷帳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>放款暫收款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>轉帳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收轉帳</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>轉債協暫收款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>轉債協退還款</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷+CdCode:Temp2ItemCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收回費用(還放款))</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收回費用(存暫收))</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷+CdCode:AcctCode</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷火險保費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷帳管費/手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷契變手續費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暫收銷法務費</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>L3210</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.回收金額
 2.轉出金額(負值)轉入金額(正值)
 3.催呆轉帳金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TxAmt+TempAmt
 =Principal+Interest+DelayInt+CloseBreachAmt+FeeAmt+Overflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>含催收回復時的催收收回金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>帳務分錄起號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntEndDate DESC ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, AcSeq asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaHCode=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest累計</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate=畫面輸入區間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>對帳類別</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReconCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITA:RpDetailSeq1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ReconCode 
+TITA:RpAcctCode1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳序號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -2161,8 +2202,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2170,157 +2214,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2329,27 +2373,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2440,23 +2485,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2492,23 +2520,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2684,11 +2695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2772,7 +2783,7 @@
       </c>
       <c r="B5" s="59"/>
       <c r="C5" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
@@ -2918,7 +2929,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
-        <f>A12+1</f>
+        <f t="shared" ref="A13:A19" si="1">A12+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -2939,7 +2950,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2960,7 +2971,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="4">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2981,7 +2992,7 @@
     </row>
     <row r="16" spans="1:9" ht="21.6" customHeight="1">
       <c r="A16" s="4">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -3002,11 +3013,11 @@
     </row>
     <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
@@ -3019,20 +3030,20 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="4">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>85</v>
@@ -3046,7 +3057,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A19" s="4">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -3084,7 +3095,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -3107,7 +3118,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H21" s="5"/>
     </row>
@@ -3162,7 +3173,7 @@
         <v>255</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>84</v>
@@ -3172,7 +3183,7 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -3327,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H31" s="5"/>
     </row>
@@ -3402,7 +3413,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>246</v>
@@ -3446,10 +3457,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>84</v>
@@ -3461,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H37" s="5"/>
     </row>
@@ -3474,7 +3485,7 @@
         <v>62</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>84</v>
@@ -3486,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -3496,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>179</v>
@@ -3546,10 +3557,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>84</v>
@@ -3571,10 +3582,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>84</v>
@@ -3586,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H42" s="5"/>
     </row>
@@ -3596,10 +3607,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>84</v>
@@ -3611,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H43" s="5"/>
     </row>
@@ -3621,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>159</v>
@@ -3636,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H44" s="5"/>
     </row>
@@ -3646,10 +3657,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>84</v>
@@ -3692,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>244</v>
@@ -3707,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H47" s="5"/>
     </row>
@@ -3717,10 +3728,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>84</v>
@@ -3732,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H48" s="5"/>
     </row>
@@ -3742,10 +3753,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>84</v>
@@ -3768,7 +3779,7 @@
         <v>120</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>88</v>
@@ -3778,7 +3789,7 @@
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H50" s="5"/>
     </row>
@@ -3872,19 +3883,19 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3914,7 +3925,7 @@
         <v>249</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3947,7 +3958,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3958,7 +3969,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4037,28 +4048,28 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>258</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C4"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -4087,13 +4098,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>310</v>
-      </c>
       <c r="D2" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -4102,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4128,7 +4139,7 @@
     </row>
     <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A4" s="34">
-        <f t="shared" ref="A4:A42" si="0">A3+1</f>
+        <f t="shared" ref="A4:A43" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -4161,7 +4172,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -4170,7 +4181,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4194,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4217,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4241,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
@@ -4253,7 +4264,7 @@
         <v>148</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>84</v>
@@ -4275,7 +4286,7 @@
         <v>149</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>84</v>
@@ -4294,10 +4305,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>84</v>
@@ -4358,20 +4369,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>360</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>361</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -4380,10 +4391,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>88</v>
@@ -4393,7 +4404,7 @@
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -4402,10 +4413,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>88</v>
@@ -4415,7 +4426,7 @@
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="49" customFormat="1" ht="97.8" customHeight="1">
@@ -4424,10 +4435,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>88</v>
@@ -4437,7 +4448,7 @@
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
@@ -4446,10 +4457,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>103</v>
@@ -4535,7 +4546,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>84</v>
@@ -4547,7 +4558,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4556,7 +4567,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>37</v>
@@ -4576,7 +4587,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>38</v>
@@ -4671,7 +4682,7 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -4693,7 +4704,7 @@
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>235</v>
@@ -4737,358 +4748,362 @@
         <v>6</v>
       </c>
       <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:8" s="29" customFormat="1" ht="64.8">
+      <c r="G31" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" ht="37.200000000000003" customHeight="1">
       <c r="A32" s="34">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>237</v>
+        <v>486</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>238</v>
+        <v>485</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>206</v>
+        <v>487</v>
       </c>
       <c r="E32" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="29" customFormat="1" ht="64.8">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" s="34">
+        <v>1</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H33" s="29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="29" customFormat="1">
-      <c r="A33" s="34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" s="33" t="s">
+    <row r="34" spans="1:8" s="29" customFormat="1">
+      <c r="A34" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="34">
+      <c r="E34" s="34">
         <v>60</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" s="45" customFormat="1">
-      <c r="A34" s="34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="41">
-        <v>3</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="1:7" s="45" customFormat="1">
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" s="45" customFormat="1">
       <c r="A35" s="34">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>295</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="E35" s="41">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F35" s="41"/>
       <c r="G35" s="44"/>
     </row>
-    <row r="36" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="36" spans="1:8" s="45" customFormat="1">
       <c r="A36" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="41">
+        <v>30</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A37" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C37" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D37" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E37" s="34">
         <v>16</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F37" s="34">
         <v>2</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A37" s="34">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="G37" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A38" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C38" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D38" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E38" s="34">
         <v>7</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A38" s="34">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="34">
-        <v>14</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>35</v>
+        <v>74</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" s="34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="31" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="29" customFormat="1" ht="16.5" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="34">
+        <v>3</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="34">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="34">
+        <v>16</v>
+      </c>
+      <c r="F42" s="34">
+        <v>2</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
+      <c r="A43" s="34">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="34">
+        <v>1</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C41" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="34">
+    </row>
+    <row r="44" spans="1:8" ht="31.2" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34">
+        <f t="shared" ref="A45:A60" si="1">A44+1</f>
+        <v>1</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="32">
         <v>16</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F45" s="31">
         <v>2</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="29" customFormat="1" ht="96" customHeight="1">
-      <c r="A42" s="34">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="34">
-        <v>1</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="34">
-        <f t="shared" ref="A44:A59" si="1">A43+1</f>
-        <v>1</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="32">
-        <v>16</v>
-      </c>
-      <c r="F44" s="31">
-        <v>2</v>
-      </c>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="34">
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="34">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B46" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C46" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D46" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E46" s="32">
         <v>6</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F46" s="31">
         <v>4</v>
       </c>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="34">
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="34">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B47" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C47" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D47" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E47" s="32">
         <v>16</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F47" s="31">
         <v>2</v>
       </c>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="34">
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="34">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B48" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C48" s="31" t="s">
         <v>186</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="32">
-        <v>3</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>188</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>132</v>
@@ -5102,19 +5117,19 @@
     <row r="49" spans="1:7">
       <c r="A49" s="34">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E49" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="33"/>
@@ -5122,13 +5137,13 @@
     <row r="50" spans="1:7">
       <c r="A50" s="34">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" s="32" t="s">
         <v>191</v>
@@ -5142,13 +5157,13 @@
     <row r="51" spans="1:7">
       <c r="A51" s="34">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>191</v>
@@ -5162,13 +5177,13 @@
     <row r="52" spans="1:7">
       <c r="A52" s="34">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>191</v>
@@ -5182,19 +5197,19 @@
     <row r="53" spans="1:7">
       <c r="A53" s="34">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="E53" s="32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="33"/>
@@ -5202,124 +5217,144 @@
     <row r="54" spans="1:7">
       <c r="A54" s="34">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="E54" s="32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F54" s="31"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="34">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E55" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="34">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>206</v>
       </c>
       <c r="E56" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>206</v>
       </c>
       <c r="E57" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F57" s="31"/>
     </row>
-    <row r="58" spans="1:7" ht="31.2" customHeight="1">
+    <row r="58" spans="1:7">
       <c r="A58" s="34">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+        <v>209</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="32">
+        <v>8</v>
+      </c>
       <c r="F58" s="31"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:7" ht="31.2" customHeight="1">
       <c r="A59" s="34">
         <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="33"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="34">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B60" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C60" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D60" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E60" s="32">
         <v>3</v>
       </c>
-      <c r="F59" s="31"/>
+      <c r="F60" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -5342,13 +5377,13 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5359,93 +5394,93 @@
         <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I2" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="M2" t="s">
         <v>417</v>
-      </c>
-      <c r="M2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="G3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3" t="s">
         <v>470</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="52" t="s">
         <v>471</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
         <v>172</v>
       </c>
       <c r="I4" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="52" t="s">
-        <v>271</v>
-      </c>
       <c r="M4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="D5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="D6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I6" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="J6" s="52" t="s">
-        <v>274</v>
-      </c>
       <c r="M6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q6" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -5453,22 +5488,22 @@
         <v>174</v>
       </c>
       <c r="I7" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="52" t="s">
-        <v>276</v>
-      </c>
       <c r="M7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -5476,379 +5511,379 @@
         <v>173</v>
       </c>
       <c r="I8" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="J8" s="52" t="s">
-        <v>278</v>
-      </c>
       <c r="Q8" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="J9" s="52" t="s">
-        <v>280</v>
-      </c>
       <c r="Q9" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I10" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="J10" s="52" t="s">
-        <v>282</v>
-      </c>
       <c r="P10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q10" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="C12" s="52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="C13" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J13" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="C14" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="C15" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:18">
       <c r="G16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="s">
         <v>440</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="D17" t="s">
-        <v>441</v>
-      </c>
       <c r="I17" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="J17" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="K17" t="s">
         <v>461</v>
-      </c>
-      <c r="K17" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="53" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="I18" s="52" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>449</v>
-      </c>
       <c r="J18" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="C19" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="C20" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="C21" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>453</v>
-      </c>
       <c r="I22" s="52" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="C23" s="52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="C24" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="C25" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="G26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="I27" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" t="s">
         <v>428</v>
       </c>
-      <c r="D28" t="s">
-        <v>429</v>
-      </c>
       <c r="I28" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J28" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="I29" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J29" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30"/>
       <c r="I30" s="52">
         <v>10</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E31"/>
       <c r="I31" s="52">
         <v>12</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5856,14 +5891,14 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E32"/>
       <c r="I32" s="52">
         <v>13</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5871,14 +5906,14 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E33"/>
       <c r="I33" s="52">
         <v>14</v>
       </c>
       <c r="J33" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5893,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5908,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5923,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5938,7 +5973,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5953,7 +5988,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5968,12 +6003,12 @@
         <v>20</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -5983,7 +6018,7 @@
         <v>21</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -5991,7 +6026,7 @@
         <v>22</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -6005,7 +6040,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6013,7 +6048,7 @@
         <v>24</v>
       </c>
       <c r="J43" s="52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6027,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="J44" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6035,7 +6070,7 @@
         <v>27</v>
       </c>
       <c r="J45" s="52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6043,7 +6078,7 @@
         <v>29</v>
       </c>
       <c r="J46" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6051,18 +6086,18 @@
         <v>30</v>
       </c>
       <c r="J47" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -6082,23 +6117,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>335</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6106,8 +6141,42 @@
       <c r="B4" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="499">
   <si>
     <t>備註說明</t>
   </si>
@@ -362,10 +362,6 @@
   </si>
   <si>
     <t>TitaTxCd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaCrDb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -562,14 +558,6 @@
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND BormNo = ,AND AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>borxTxtNoFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>custNoTxtNoFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1935,10 +1923,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcSeq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IntEndDate DESC ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, AcSeq asc</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1976,8 +1960,57 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>入帳序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>borxTxtNoFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoTxtNoFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoLastTxtNoFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlipSumNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00：單筆傳票
+01~99：彙總傳票批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分錄序號(起)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務科目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate DESC ,TitaCalDy DESC ,TitaCalTm DESC ,TitaTxtNo DESC ,AcSeq DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaCrDb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND TitaHCode = ,AND TitaTxCd ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2210,7 +2243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2372,6 +2405,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2696,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:XEZ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2716,15 +2752,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="23"/>
@@ -2733,8 +2769,8 @@
       <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
@@ -2748,10 +2784,10 @@
       <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="32.4">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="8" t="s">
         <v>79</v>
       </c>
@@ -2765,10 +2801,10 @@
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
@@ -2778,12 +2814,12 @@
       <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="22"/>
@@ -2793,10 +2829,10 @@
       <c r="I5" s="23"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="7"/>
       <c r="D6" s="24"/>
       <c r="E6" s="22"/>
@@ -2806,10 +2842,10 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="7"/>
       <c r="D7" s="24"/>
       <c r="E7" s="22"/>
@@ -2881,13 +2917,13 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A54" si="0">A10+1</f>
+        <f t="shared" ref="A11:A29" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2918,7 +2954,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="14">
         <v>4</v>
@@ -2933,13 +2969,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="14">
         <v>8</v>
@@ -2954,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>90</v>
@@ -2969,16 +3005,16 @@
       <c r="G14" s="19"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="20.399999999999999" customHeight="1">
+    <row r="15" spans="1:9" ht="20.7" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -2996,7 +3032,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>83</v>
@@ -3011,13 +3047,13 @@
       <c r="G16" s="25"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8 16377:16380" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
@@ -3030,20 +3066,20 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:8 16377:16380" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>85</v>
@@ -3055,7 +3091,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="19" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3067,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="14">
         <v>5</v>
@@ -3076,36 +3112,36 @@
       <c r="G19" s="25"/>
       <c r="H19" s="33"/>
     </row>
-    <row r="20" spans="1:8" ht="54.6" customHeight="1">
+    <row r="20" spans="1:8 16377:16380" ht="54.6" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>93</v>
+        <v>497</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="21" spans="1:8 16377:16380" ht="75.599999999999994" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>18</v>
@@ -3118,23 +3154,23 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="24.75" customHeight="1">
+    <row r="22" spans="1:8 16377:16380" ht="24.75" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="14">
         <v>3</v>
@@ -3143,13 +3179,13 @@
       <c r="G22" s="27"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="23" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>19</v>
@@ -3164,16 +3200,16 @@
       <c r="G23" s="25"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" ht="162">
+    <row r="24" spans="1:8 16377:16380" ht="162">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>84</v>
@@ -3183,23 +3219,23 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="25" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="14">
         <v>15</v>
@@ -3208,19 +3244,19 @@
       <c r="G25" s="25"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:8 16377:16380" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="14">
         <v>8</v>
@@ -3229,13 +3265,13 @@
       <c r="G26" s="19"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="27" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>41</v>
@@ -3248,20 +3284,20 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="74.400000000000006" customHeight="1">
+    <row r="28" spans="1:8 16377:16380" ht="74.7" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>88</v>
@@ -3271,11 +3307,15 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="XEW28" s="23"/>
+      <c r="XEX28" s="23"/>
+      <c r="XEY28" s="23"/>
+      <c r="XEZ28" s="23"/>
+    </row>
+    <row r="29" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3287,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="14">
         <v>8</v>
@@ -3295,20 +3335,24 @@
       <c r="F29" s="14"/>
       <c r="G29" s="25"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="XEW29" s="23"/>
+      <c r="XEX29" s="23"/>
+      <c r="XEY29" s="23"/>
+      <c r="XEZ29" s="23"/>
+    </row>
+    <row r="30" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
+        <f>A29+1</f>
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="14">
         <v>8</v>
@@ -3316,42 +3360,41 @@
       <c r="F30" s="14"/>
       <c r="G30" s="25"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="65.400000000000006" customHeight="1">
+      <c r="XEW30" s="23"/>
+      <c r="XEX30" s="23"/>
+      <c r="XEY30" s="23"/>
+      <c r="XEZ30" s="23"/>
+    </row>
+    <row r="31" spans="1:8 16377:16380" s="54" customFormat="1">
       <c r="A31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A31:A56" si="2">A30+1</f>
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8 16377:16380" ht="65.7" customHeight="1">
+      <c r="A32" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="14">
-        <v>16</v>
-      </c>
-      <c r="F31" s="14">
-        <v>2</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>84</v>
@@ -3362,130 +3405,142 @@
       <c r="F32" s="14">
         <v>2</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="26" t="s">
+        <v>474</v>
+      </c>
       <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1">
+      <c r="XEW32" s="23"/>
+      <c r="XEX32" s="23"/>
+      <c r="XEY32" s="23"/>
+      <c r="XEZ32" s="23"/>
+    </row>
+    <row r="33" spans="1:8 16377:16380" ht="18" customHeight="1">
       <c r="A33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="14">
+        <v>16</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="5"/>
+      <c r="XEW33" s="23"/>
+      <c r="XEX33" s="23"/>
+      <c r="XEY33" s="23"/>
+      <c r="XEZ33" s="23"/>
+    </row>
+    <row r="34" spans="1:8 16377:16380" ht="20.25" customHeight="1">
+      <c r="A34" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="4">
-        <v>8</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="20.399999999999999" customHeight="1">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="27"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.399999999999999" customHeight="1">
+      <c r="XEW34" s="23"/>
+      <c r="XEX34" s="23"/>
+      <c r="XEY34" s="23"/>
+      <c r="XEZ34" s="23"/>
+    </row>
+    <row r="35" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>246</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E35" s="14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1">
+    <row r="36" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="14">
-        <v>6</v>
-      </c>
-      <c r="F36" s="14">
-        <v>4</v>
-      </c>
-      <c r="G36" s="20"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="39" customHeight="1">
+    <row r="37" spans="1:8 16377:16380" ht="18" customHeight="1">
       <c r="A37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F37" s="14">
-        <v>2</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>314</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G37" s="20"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="39.6" customHeight="1">
+    <row r="38" spans="1:8 16377:16380" ht="39" customHeight="1">
       <c r="A38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>84</v>
@@ -3496,21 +3551,21 @@
       <c r="F38" s="14">
         <v>2</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>338</v>
+      <c r="G38" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="39" spans="1:8 16377:16380" ht="39.6" customHeight="1">
       <c r="A39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>350</v>
+        <v>62</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>84</v>
@@ -3521,21 +3576,21 @@
       <c r="F39" s="14">
         <v>2</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>154</v>
+      <c r="G39" s="26" t="s">
+        <v>335</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="40" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>63</v>
+        <v>347</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>84</v>
@@ -3547,20 +3602,20 @@
         <v>2</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="41" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>351</v>
+        <v>63</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>343</v>
+        <v>211</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>84</v>
@@ -3572,20 +3627,20 @@
         <v>2</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="49.8" customHeight="1">
+    <row r="42" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>340</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>84</v>
@@ -3596,21 +3651,21 @@
       <c r="F42" s="14">
         <v>2</v>
       </c>
-      <c r="G42" s="15" t="s">
-        <v>478</v>
+      <c r="G42" s="25" t="s">
+        <v>154</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="43" spans="1:8 16377:16380" ht="49.95" customHeight="1">
       <c r="A43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>346</v>
+        <v>351</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>84</v>
@@ -3621,21 +3676,21 @@
       <c r="F43" s="14">
         <v>2</v>
       </c>
-      <c r="G43" s="26" t="s">
-        <v>479</v>
+      <c r="G43" s="15" t="s">
+        <v>475</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="44" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>159</v>
+        <v>346</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>84</v>
@@ -3646,21 +3701,21 @@
       <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="G44" s="25" t="s">
-        <v>261</v>
+      <c r="G44" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="21.75" customHeight="1">
+    <row r="45" spans="1:8 16377:16380" ht="20.7" customHeight="1">
       <c r="A45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>84</v>
@@ -3671,19 +3726,21 @@
       <c r="F45" s="14">
         <v>2</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="25" t="s">
+        <v>258</v>
+      </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="22.2" customHeight="1">
+    <row r="46" spans="1:8 16377:16380" ht="21.75" customHeight="1">
       <c r="A46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>84</v>
@@ -3697,16 +3754,16 @@
       <c r="G46" s="25"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1">
+    <row r="47" spans="1:8 16377:16380" ht="22.2" customHeight="1">
       <c r="A47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>244</v>
+        <v>64</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>84</v>
@@ -3717,21 +3774,19 @@
       <c r="F47" s="14">
         <v>2</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>345</v>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="48" spans="1:8 16377:16380" ht="18" customHeight="1">
       <c r="A48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>84</v>
@@ -3742,21 +3797,21 @@
       <c r="F48" s="14">
         <v>2</v>
       </c>
-      <c r="G48" s="38" t="s">
-        <v>353</v>
+      <c r="G48" s="25" t="s">
+        <v>342</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="21" customHeight="1">
+    <row r="49" spans="1:8" ht="20.7" customHeight="1">
       <c r="A49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>347</v>
+        <v>310</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>84</v>
@@ -3767,104 +3822,112 @@
       <c r="F49" s="14">
         <v>2</v>
       </c>
-      <c r="G49" s="26"/>
+      <c r="G49" s="38" t="s">
+        <v>350</v>
+      </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="123" customHeight="1">
+    <row r="50" spans="1:8" ht="21" customHeight="1">
       <c r="A50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>120</v>
+        <v>341</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="D50" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="14">
+        <v>16</v>
+      </c>
+      <c r="F50" s="14">
+        <v>2</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" ht="32.4">
+      <c r="A51" s="4">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="14">
+        <v>2</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" ht="123" customHeight="1">
+      <c r="A52" s="4">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E52" s="14">
         <v>2000</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B51" s="15" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A53" s="4">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D53" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="14">
-        <v>6</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A53" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="20"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E54" s="14">
         <v>6</v>
@@ -3872,6 +3935,46 @@
       <c r="F54" s="14"/>
       <c r="G54" s="20"/>
       <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A55" s="4">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A56" s="4">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="14">
+        <v>6</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3891,11 +3994,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3919,142 +4022,153 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="C6" s="36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>487</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="36" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="36" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4068,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -4087,10 +4201,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -4098,13 +4212,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E2" s="41">
         <v>16</v>
@@ -4113,10 +4227,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -4137,16 +4251,16 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A43" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>84</v>
@@ -4158,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
@@ -4166,13 +4280,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E5" s="46">
         <v>16</v>
@@ -4181,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4190,10 +4304,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>84</v>
@@ -4205,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4213,10 +4327,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>84</v>
@@ -4228,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="29" customFormat="1" ht="27" customHeight="1">
@@ -4240,7 +4354,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>84</v>
@@ -4252,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="49" customFormat="1" ht="27" customHeight="1">
@@ -4261,10 +4375,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D9" s="46" t="s">
         <v>84</v>
@@ -4283,10 +4397,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>84</v>
@@ -4305,10 +4419,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>84</v>
@@ -4327,7 +4441,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>27</v>
@@ -4343,7 +4457,7 @@
       </c>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="13" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4369,20 +4483,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E14" s="46">
         <v>2</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="47" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -4391,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>88</v>
@@ -4404,7 +4518,7 @@
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="51" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="49" customFormat="1" ht="172.2" customHeight="1">
@@ -4413,10 +4527,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>88</v>
@@ -4426,19 +4540,19 @@
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="47" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="49" customFormat="1" ht="97.8" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="49" customFormat="1" ht="97.95" customHeight="1">
       <c r="A17" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>88</v>
@@ -4448,7 +4562,7 @@
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="51" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="29" customFormat="1" ht="61.5" customHeight="1">
@@ -4457,13 +4571,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="34">
         <v>16</v>
@@ -4477,20 +4591,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="D19" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>103</v>
       </c>
       <c r="E19" s="34">
         <v>1</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="29" customFormat="1" ht="228" customHeight="1">
@@ -4499,42 +4613,42 @@
         <v>19</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="34">
         <v>1</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.4" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" ht="200.7" customHeight="1">
       <c r="A21" s="34">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="34">
         <v>2</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="29" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -4546,7 +4660,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>84</v>
@@ -4558,16 +4672,16 @@
         <v>2</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A23" s="34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>37</v>
@@ -4581,13 +4695,13 @@
       <c r="F23" s="34"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="24" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A24" s="34">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>38</v>
@@ -4601,7 +4715,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="25" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A25" s="34">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4623,7 +4737,7 @@
       </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="26" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A26" s="34">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4635,7 +4749,7 @@
         <v>39</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="34">
         <v>2</v>
@@ -4655,7 +4769,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="34">
         <v>2</v>
@@ -4669,20 +4783,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>131</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -4691,23 +4805,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C29" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>233</v>
       </c>
       <c r="E29" s="32">
         <v>4</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="29" customFormat="1" ht="18" customHeight="1">
@@ -4719,10 +4833,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E30" s="34">
         <v>6</v>
@@ -4736,20 +4850,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E31" s="34">
         <v>6</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="35" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="29" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -4758,20 +4872,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E32" s="34">
         <v>3</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="29" customFormat="1" ht="64.8">
@@ -4780,23 +4894,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E33" s="34">
         <v>1</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="29" customFormat="1">
@@ -4805,13 +4919,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E34" s="34">
         <v>60</v>
@@ -4825,10 +4939,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D35" s="43" t="s">
         <v>88</v>
@@ -4845,13 +4959,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>293</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>296</v>
       </c>
       <c r="E36" s="41">
         <v>30</v>
@@ -4859,7 +4973,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="44"/>
     </row>
-    <row r="37" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="37" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A37" s="34">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4880,10 +4994,10 @@
         <v>2</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A38" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4895,17 +5009,17 @@
         <v>33</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E38" s="34">
         <v>7</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A39" s="34">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4924,10 +5038,10 @@
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A40" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4946,16 +5060,16 @@
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="29" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="29" customFormat="1" ht="20.7" customHeight="1">
       <c r="A41" s="34">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>36</v>
@@ -4968,7 +5082,7 @@
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="29" customFormat="1" ht="16.5" customHeight="1">
@@ -4977,7 +5091,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>23</v>
@@ -4992,7 +5106,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="29" customFormat="1" ht="96" customHeight="1">
@@ -5014,13 +5128,13 @@
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="31.2" customHeight="1">
       <c r="A44" s="34"/>
       <c r="B44" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="32"/>
@@ -5034,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="32">
         <v>16</v>
@@ -5056,13 +5170,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" s="32">
         <v>6</v>
@@ -5078,13 +5192,13 @@
         <v>3</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="32">
         <v>16</v>
@@ -5100,13 +5214,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="32">
         <v>3</v>
@@ -5120,13 +5234,13 @@
         <v>5</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="32">
         <v>3</v>
@@ -5140,13 +5254,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E50" s="32">
         <v>8</v>
@@ -5160,13 +5274,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E51" s="32">
         <v>8</v>
@@ -5180,13 +5294,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E52" s="32">
         <v>8</v>
@@ -5200,13 +5314,13 @@
         <v>9</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E53" s="32">
         <v>8</v>
@@ -5220,13 +5334,13 @@
         <v>10</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="32">
         <v>16</v>
@@ -5240,13 +5354,13 @@
         <v>11</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E55" s="32">
         <v>8</v>
@@ -5259,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E56" s="32">
         <v>4</v>
@@ -5278,13 +5392,13 @@
         <v>13</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E57" s="32">
         <v>6</v>
@@ -5297,13 +5411,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E58" s="32">
         <v>8</v>
@@ -5316,7 +5430,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -5330,13 +5444,13 @@
         <v>16</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="32">
         <v>3</v>
@@ -5367,7 +5481,7 @@
     <col min="5" max="5" width="20.21875" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" customWidth="1"/>
     <col min="8" max="8" width="4.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="52" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" style="52" customWidth="1"/>
     <col min="11" max="12" width="12.109375" style="52" customWidth="1"/>
     <col min="13" max="13" width="25.77734375" customWidth="1"/>
@@ -5377,513 +5491,513 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="G3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I4" s="52" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="R4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="D5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="R5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="D6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q6" s="52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="R6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="D7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="R7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="D8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q8" s="52" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="R8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="I9" s="52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="52" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q10" s="52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="R10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="53" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="C12" s="52" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I12" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="J12" s="52" t="s">
-        <v>286</v>
-      </c>
       <c r="Q12" s="52" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="R12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="C13" s="52" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I13" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="J13" s="52" t="s">
-        <v>287</v>
-      </c>
       <c r="Q13" s="52" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="R13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="C14" s="52" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="R14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="C15" s="52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:18">
       <c r="G16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I16" s="52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I17" s="52" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="53" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="C19" s="52" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="J19" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="52" t="s">
-        <v>453</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>434</v>
-      </c>
       <c r="K19" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="C20" s="52" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="J20" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="E20" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="I20" s="52" t="s">
-        <v>450</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>435</v>
-      </c>
       <c r="K20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="C21" s="52" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="53" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="C23" s="52" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="C24" s="52" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="C25" s="52" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="G26" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="I27" s="52" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J28" s="52" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="I29" s="52" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J29" s="52" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" t="s">
         <v>426</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" t="s">
-        <v>429</v>
       </c>
       <c r="E30"/>
       <c r="I30" s="52">
         <v>10</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="53" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E31"/>
       <c r="I31" s="52">
         <v>12</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5891,14 +6005,14 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E32"/>
       <c r="I32" s="52">
         <v>13</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5906,14 +6020,14 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E33"/>
       <c r="I33" s="52">
         <v>14</v>
       </c>
       <c r="J33" s="52" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5921,14 +6035,14 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E34"/>
       <c r="I34" s="52">
         <v>15</v>
       </c>
       <c r="J34" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5936,14 +6050,14 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E35"/>
       <c r="I35" s="52">
         <v>16</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -5951,14 +6065,14 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E36"/>
       <c r="I36" s="52">
         <v>17</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -5966,14 +6080,14 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E37"/>
       <c r="I37" s="52">
         <v>18</v>
       </c>
       <c r="J37" s="52" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -5981,14 +6095,14 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E38"/>
       <c r="I38" s="52">
         <v>19</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5996,29 +6110,29 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E39"/>
       <c r="I39" s="52">
         <v>20</v>
       </c>
       <c r="J39" s="52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="B40" s="53" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E40"/>
       <c r="I40" s="52">
         <v>21</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6026,21 +6140,21 @@
         <v>22</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I42" s="52">
         <v>23</v>
       </c>
       <c r="J42" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6048,21 +6162,21 @@
         <v>24</v>
       </c>
       <c r="J43" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I44" s="52">
         <v>25</v>
       </c>
       <c r="J44" s="52" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6070,7 +6184,7 @@
         <v>27</v>
       </c>
       <c r="J45" s="52" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6078,7 +6192,7 @@
         <v>29</v>
       </c>
       <c r="J46" s="52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6086,7 +6200,7 @@
         <v>30</v>
       </c>
       <c r="J47" s="52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6104,10 +6218,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="30"/>
-    <col min="2" max="2" width="53.5546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" style="30" customWidth="1"/>
     <col min="3" max="4" width="10.44140625" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="30"/>
@@ -6117,23 +6231,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6162,17 +6276,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="15" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -2416,21 +2416,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>TX.TRXTRN='3036'
-AND TX.LMSRSN=0</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX.TRXTRN='3036'
-AND TX.LMSRSN=3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX.TRXTRN='3036'
-AND TX.LMSRSN=6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>TX.TRXTRN='3083'</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -2532,10 +2517,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>TX.TRXTRN='3088'</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2762,13 +2743,31 @@
   </si>
   <si>
     <t>6182</t>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3089'</t>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3036'
+AND TX.LMSRSN=6</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3036'
+AND TX.LMSRSN=3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3036'
+AND TX.LMSRSN=0</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3076,7 +3075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3237,6 +3236,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3258,13 +3266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3579,7 +3581,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -3592,11 +3594,11 @@
     <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="12" t="s">
         <v>92</v>
       </c>
@@ -3608,9 +3610,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3622,11 +3624,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3638,11 +3640,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3650,11 +3652,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="59" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="6" t="s">
         <v>327</v>
       </c>
@@ -3664,11 +3666,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3676,11 +3678,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -3688,7 +3690,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -3712,7 +3714,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3732,7 +3734,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -3755,7 +3757,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A30" si="0">A10+1</f>
         <v>3</v>
@@ -3776,7 +3778,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3797,7 +3799,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" ref="A13:A19" si="1">A12+1</f>
         <v>5</v>
@@ -3818,7 +3820,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3839,7 +3841,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="20.7" customHeight="1">
+    <row r="15" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3860,7 +3862,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="21.6" customHeight="1">
+    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3881,7 +3883,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3904,7 +3906,7 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3925,7 +3927,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="20.7" customHeight="1">
+    <row r="19" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3946,7 +3948,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="54.6" customHeight="1">
+    <row r="20" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3969,7 +3971,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1">
+    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3992,7 +3994,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="24.75" customHeight="1">
+    <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4013,7 +4015,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="20.7" customHeight="1">
+    <row r="23" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4034,7 +4036,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="162">
+    <row r="24" spans="1:8" ht="162" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4057,7 +4059,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4078,7 +4080,7 @@
       <c r="G25" s="47"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="20.7" customHeight="1">
+    <row r="26" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4099,7 +4101,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4120,7 +4122,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="20.7" customHeight="1">
+    <row r="28" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4143,7 +4145,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="74.7" customHeight="1">
+    <row r="29" spans="1:8" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4166,7 +4168,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="20.7" customHeight="1">
+    <row r="30" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4187,7 +4189,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="20.7" customHeight="1">
+    <row r="31" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f>A30+1</f>
         <v>23</v>
@@ -4208,7 +4210,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="27" customFormat="1">
+    <row r="32" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" ref="A32:A57" si="2">A31+1</f>
         <v>24</v>
@@ -4228,7 +4230,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="65.7" customHeight="1">
+    <row r="33" spans="1:8" ht="65.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4253,7 +4255,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1">
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4276,7 +4278,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4297,7 +4299,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="20.7" customHeight="1">
+    <row r="36" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4318,7 +4320,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="20.7" customHeight="1">
+    <row r="37" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4339,7 +4341,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1">
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4362,7 +4364,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="39" customHeight="1">
+    <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4387,7 +4389,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="39.6" customHeight="1">
+    <row r="40" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -4412,7 +4414,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="20.7" customHeight="1">
+    <row r="41" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4437,7 +4439,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="20.7" customHeight="1">
+    <row r="42" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4462,7 +4464,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="20.7" customHeight="1">
+    <row r="43" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4487,7 +4489,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="49.95" customHeight="1">
+    <row r="44" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4512,7 +4514,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="20.7" customHeight="1">
+    <row r="45" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4537,7 +4539,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="20.7" customHeight="1">
+    <row r="46" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -4562,7 +4564,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="21.75" customHeight="1">
+    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -4585,7 +4587,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="22.2" customHeight="1">
+    <row r="48" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4608,7 +4610,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1">
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4633,7 +4635,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="20.7" customHeight="1">
+    <row r="50" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4658,7 +4660,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="21" customHeight="1">
+    <row r="51" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4681,7 +4683,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="32.4">
+    <row r="52" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -4704,7 +4706,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="123" customHeight="1">
+    <row r="53" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4727,7 +4729,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4746,7 +4748,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4767,7 +4769,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4786,7 +4788,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -4832,7 +4834,7 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -4840,7 +4842,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>208</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>429</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>430</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>167</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>209</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>233</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>241</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>243</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>431</v>
       </c>
@@ -5017,7 +5019,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="28"/>
     <col min="2" max="2" width="29.33203125" style="28" customWidth="1"/>
@@ -5030,7 +5032,7 @@
     <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>446</v>
       </c>
@@ -5038,7 +5040,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <f t="shared" ref="A4:A43" si="0">A3+1</f>
         <v>3</v>
@@ -5106,7 +5108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5153,7 +5155,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5200,7 +5202,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5222,7 +5224,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5244,7 +5246,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" ht="25.5" customHeight="1">
+    <row r="12" spans="1:8" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5288,7 +5290,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="13" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5308,7 +5310,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="201.6" customHeight="1">
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5330,7 +5332,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
+    <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5352,7 +5354,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
+    <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5374,7 +5376,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
+    <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5396,7 +5398,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
+    <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5416,7 +5418,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
+    <row r="19" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5438,7 +5440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" ht="228" customHeight="1">
+    <row r="20" spans="1:8" s="27" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5460,7 +5462,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
+    <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5482,7 +5484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5506,7 +5508,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5526,7 +5528,7 @@
       <c r="F23" s="31"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="24" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5546,7 +5548,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="25" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5568,7 +5570,7 @@
       </c>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="26" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5588,7 +5590,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="27" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5608,7 +5610,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:8" ht="96" customHeight="1">
+    <row r="28" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5629,7 +5631,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32.4">
+    <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5653,7 +5655,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5673,7 +5675,7 @@
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5695,7 +5697,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
+    <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5717,7 +5719,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
+    <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5742,7 +5744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="27" customFormat="1">
+    <row r="34" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5762,7 +5764,7 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:8" s="37" customFormat="1">
+    <row r="35" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5782,7 +5784,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="1:8" s="37" customFormat="1">
+    <row r="36" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5802,7 +5804,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="37" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5826,7 +5828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="38" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5848,7 +5850,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="39" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5870,7 +5872,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5892,7 +5894,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+    <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5914,7 +5916,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
+    <row r="42" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5938,7 +5940,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
+    <row r="43" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5960,7 +5962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="31.2" customHeight="1">
+    <row r="44" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="28" t="s">
         <v>169</v>
@@ -5968,7 +5970,7 @@
       <c r="D44" s="29"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <f t="shared" ref="A45:A60" si="1">A44+1</f>
         <v>1</v>
@@ -5990,7 +5992,7 @@
       </c>
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6012,7 +6014,7 @@
       </c>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6034,7 +6036,7 @@
       </c>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6053,7 +6055,7 @@
       </c>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6072,7 +6074,7 @@
       </c>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6091,7 +6093,7 @@
       </c>
       <c r="G50" s="30"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6110,7 +6112,7 @@
       </c>
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6129,7 +6131,7 @@
       </c>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6148,7 +6150,7 @@
       </c>
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6167,7 +6169,7 @@
       </c>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6185,7 +6187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6203,7 +6205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6221,7 +6223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6239,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="31.2" customHeight="1">
+    <row r="59" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6250,7 +6252,7 @@
       <c r="D59" s="29"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6279,11 +6281,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" style="41" customWidth="1"/>
@@ -6304,7 +6306,7 @@
     <col min="22" max="22" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="97.2">
+    <row r="1" spans="1:21" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -6320,19 +6322,19 @@
       <c r="I1" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="32.4">
+    <row r="3" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>575</v>
       </c>
@@ -6389,7 +6391,7 @@
       <c r="O3" s="42"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:21" ht="32.4">
+    <row r="4" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>576</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I5" s="49" t="s">
         <v>586</v>
       </c>
@@ -6432,7 +6434,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
     </row>
-    <row r="6" spans="1:21" ht="32.4">
+    <row r="6" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>385</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>460</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J6" s="42">
         <v>3015</v>
@@ -6466,7 +6468,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>386</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>387</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>165</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>164</v>
       </c>
@@ -6597,9 +6599,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="32.4">
+    <row r="11" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="I11" s="48" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J11" s="42">
         <v>3031</v>
@@ -6626,7 +6628,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>416</v>
       </c>
@@ -6665,16 +6667,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="32.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="41" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>462</v>
       </c>
-      <c r="I13" s="48" t="s">
-        <v>590</v>
-      </c>
+      <c r="I13" s="64"/>
       <c r="J13" s="42">
         <v>3036</v>
       </c>
@@ -6697,12 +6697,12 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="32.4">
+    <row r="14" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C14" s="40" t="s">
         <v>388</v>
       </c>
       <c r="D14" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>579</v>
@@ -6710,14 +6710,14 @@
       <c r="H14" s="40" t="s">
         <v>463</v>
       </c>
-      <c r="I14" s="48" t="s">
-        <v>591</v>
+      <c r="I14" s="64" t="s">
+        <v>676</v>
       </c>
       <c r="J14" s="42">
         <v>3037</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="L14" s="42" t="s">
         <v>501</v>
@@ -6737,12 +6737,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="32.4">
+    <row r="15" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C15" s="40" t="s">
         <v>380</v>
       </c>
       <c r="D15" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>544</v>
@@ -6750,8 +6750,8 @@
       <c r="H15" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="I15" s="48" t="s">
-        <v>592</v>
+      <c r="I15" s="64" t="s">
+        <v>675</v>
       </c>
       <c r="J15" s="42">
         <v>3038</v>
@@ -6774,12 +6774,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C16" s="40" t="s">
         <v>361</v>
       </c>
       <c r="D16" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>545</v>
@@ -6787,8 +6787,8 @@
       <c r="H16" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="I16" s="48" t="s">
-        <v>615</v>
+      <c r="I16" s="64" t="s">
+        <v>674</v>
       </c>
       <c r="J16" s="42">
         <v>3040</v>
@@ -6802,18 +6802,20 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C17" s="40" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H17" s="40"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="48" t="s">
+        <v>673</v>
+      </c>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -6822,7 +6824,7 @@
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C18" s="40" t="s">
         <v>383</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>390</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="42">
@@ -6849,7 +6851,7 @@
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I19" s="49"/>
       <c r="J19" s="42">
         <v>3045</v>
@@ -6863,22 +6865,22 @@
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>404</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E20" s="52"/>
       <c r="G20" s="40" t="s">
         <v>546</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J20" s="42">
         <v>3046</v>
@@ -6894,7 +6896,7 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" s="41" t="s">
         <v>405</v>
       </c>
@@ -6914,14 +6916,14 @@
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C22" s="40" t="s">
         <v>378</v>
       </c>
       <c r="D22" t="s">
         <v>393</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="55"/>
       <c r="G22" s="40" t="s">
         <v>580</v>
       </c>
@@ -6938,14 +6940,14 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C23" s="40" t="s">
         <v>379</v>
       </c>
       <c r="D23" t="s">
         <v>394</v>
       </c>
-      <c r="E23" s="62"/>
+      <c r="E23" s="55"/>
       <c r="G23" s="40" t="s">
         <v>547</v>
       </c>
@@ -6962,14 +6964,14 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C24" s="40" t="s">
         <v>380</v>
       </c>
       <c r="D24" t="s">
         <v>395</v>
       </c>
-      <c r="E24" s="62"/>
+      <c r="E24" s="55"/>
       <c r="G24" s="40" t="s">
         <v>548</v>
       </c>
@@ -6986,7 +6988,7 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" s="41" t="s">
         <v>409</v>
       </c>
@@ -7007,7 +7009,7 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C26" s="40" t="s">
         <v>406</v>
       </c>
@@ -7018,7 +7020,7 @@
         <v>400</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="I26" s="49"/>
       <c r="J26" s="42">
@@ -7033,7 +7035,7 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C27" s="40" t="s">
         <v>407</v>
       </c>
@@ -7063,7 +7065,7 @@
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C28" s="40" t="s">
         <v>408</v>
       </c>
@@ -7089,18 +7091,18 @@
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29" s="40" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>400</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="42">
@@ -7115,7 +7117,7 @@
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>413</v>
       </c>
@@ -7141,22 +7143,22 @@
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31" s="40" t="s">
         <v>414</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E31" s="51"/>
       <c r="F31"/>
       <c r="G31" s="52" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="53" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J31" s="42">
         <v>3077</v>
@@ -7170,7 +7172,7 @@
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32" s="40" t="s">
         <v>406</v>
@@ -7198,7 +7200,7 @@
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33" s="40" t="s">
         <v>407</v>
@@ -7230,10 +7232,10 @@
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34" s="40" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>397</v>
@@ -7262,13 +7264,13 @@
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35" s="40" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E35" s="51" t="s">
         <v>469</v>
@@ -7294,7 +7296,7 @@
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>403</v>
       </c>
@@ -7322,7 +7324,7 @@
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37" s="40" t="s">
         <v>471</v>
@@ -7348,14 +7350,14 @@
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38" s="40" t="s">
         <v>472</v>
       </c>
       <c r="D38" s="40"/>
       <c r="G38" s="52" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="I38" s="49"/>
       <c r="J38" s="42">
@@ -7374,7 +7376,7 @@
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="D39" s="40"/>
       <c r="I39" s="49"/>
@@ -7394,16 +7396,16 @@
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="40" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="42"/>
@@ -7414,16 +7416,16 @@
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="40" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="42"/>
@@ -7434,16 +7436,16 @@
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="D42" s="40" t="s">
         <v>658</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>662</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="42"/>
@@ -7454,13 +7456,13 @@
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="40" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="42">
@@ -7479,7 +7481,7 @@
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
     </row>
-    <row r="44" spans="1:16" ht="32.4">
+    <row r="44" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44" s="40" t="s">
         <v>558</v>
@@ -7493,8 +7495,8 @@
       <c r="F44" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="I44" s="63" t="s">
-        <v>594</v>
+      <c r="I44" s="56" t="s">
+        <v>591</v>
       </c>
       <c r="J44" s="42">
         <v>3088</v>
@@ -7512,7 +7514,7 @@
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="C45" s="40" t="s">
         <v>559</v>
@@ -7524,7 +7526,7 @@
         <v>560</v>
       </c>
       <c r="F45" s="40" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="42">
@@ -7543,7 +7545,7 @@
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="1:16" ht="32.4">
+    <row r="46" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="D46" s="40"/>
       <c r="E46" s="40" t="s">
@@ -7552,8 +7554,8 @@
       <c r="F46" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="I46" s="63" t="s">
-        <v>595</v>
+      <c r="I46" s="56" t="s">
+        <v>592</v>
       </c>
       <c r="J46" s="42">
         <v>3090</v>
@@ -7567,7 +7569,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="C47" s="40" t="s">
         <v>365</v>
@@ -7594,7 +7596,7 @@
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="1:16" ht="32.4">
+    <row r="48" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48" s="40">
         <v>10</v>
@@ -7608,11 +7610,11 @@
       <c r="F48" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I48" s="63" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+      <c r="I48" s="56" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49" s="40">
         <v>12</v>
@@ -7628,7 +7630,7 @@
       </c>
       <c r="I49" s="49"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="C50" s="40">
         <v>13</v>
@@ -7637,14 +7639,14 @@
         <v>348</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F50" s="40" t="s">
         <v>348</v>
       </c>
       <c r="I50" s="49"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51" s="40">
         <v>14</v>
@@ -7653,14 +7655,14 @@
         <v>349</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F51" s="40" t="s">
         <v>349</v>
       </c>
       <c r="I51" s="49"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52" s="40">
         <v>15</v>
@@ -7669,14 +7671,14 @@
         <v>350</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F52" s="40" t="s">
         <v>350</v>
       </c>
       <c r="I52" s="49"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53" s="40">
         <v>16</v>
@@ -7685,14 +7687,14 @@
         <v>351</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F53" s="40" t="s">
         <v>351</v>
       </c>
       <c r="I53" s="49"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54"/>
       <c r="C54" s="40">
         <v>17</v>
@@ -7701,14 +7703,14 @@
         <v>352</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F54" s="40" t="s">
         <v>352</v>
       </c>
       <c r="I54" s="49"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55"/>
       <c r="C55" s="40">
         <v>18</v>
@@ -7717,14 +7719,14 @@
         <v>353</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F55" s="40" t="s">
         <v>353</v>
       </c>
       <c r="I55" s="49"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56" s="40">
         <v>19</v>
@@ -7733,13 +7735,13 @@
         <v>354</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F56" s="40" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57" s="40">
         <v>20</v>
@@ -7748,13 +7750,13 @@
         <v>355</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F57" s="40" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58" s="40">
         <v>21</v>
@@ -7763,13 +7765,13 @@
         <v>356</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F58" s="40" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59" s="40">
         <v>22</v>
@@ -7778,13 +7780,13 @@
         <v>357</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60" s="40">
         <v>23</v>
@@ -7793,13 +7795,13 @@
         <v>358</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F60" s="40" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61" s="40">
         <v>24</v>
@@ -7814,22 +7816,22 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62" s="40">
         <v>25</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63" s="40">
         <v>27</v>
@@ -7838,13 +7840,13 @@
         <v>360</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.4">
+    <row r="64" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64" s="40">
         <v>29</v>
@@ -7856,11 +7858,11 @@
       <c r="F64" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="I64" s="63" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="56" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65" s="40">
         <v>30</v>
@@ -7875,13 +7877,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66"/>
       <c r="D66" s="40"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B69" s="41" t="s">
         <v>411</v>
@@ -7893,10 +7895,10 @@
         <v>561</v>
       </c>
       <c r="I69" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" s="41" t="s">
         <v>412</v>
       </c>
@@ -7904,21 +7906,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="32.4">
+    <row r="71" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C71" s="40">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>581</v>
       </c>
       <c r="I71" s="50" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="48.6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="C72" s="40">
         <v>2</v>
       </c>
@@ -7929,10 +7931,10 @@
         <v>562</v>
       </c>
       <c r="I72" s="50" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="32.4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C73" s="40">
         <v>3</v>
       </c>
@@ -7943,10 +7945,10 @@
         <v>563</v>
       </c>
       <c r="I73" s="50" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="32.4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C74" s="40">
         <v>4</v>
       </c>
@@ -7957,10 +7959,10 @@
         <v>564</v>
       </c>
       <c r="I74" s="50" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="32.4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C75" s="40">
         <v>5</v>
       </c>
@@ -7971,10 +7973,10 @@
         <v>565</v>
       </c>
       <c r="I75" s="50" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="32.4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="C76" s="40">
         <v>6</v>
       </c>
@@ -7985,10 +7987,10 @@
         <v>566</v>
       </c>
       <c r="I76" s="50" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="48.6">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="C77" s="40">
         <v>7</v>
       </c>
@@ -7999,10 +8001,10 @@
         <v>567</v>
       </c>
       <c r="I77" s="50" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C78" s="40">
         <v>8</v>
       </c>
@@ -8013,10 +8015,10 @@
         <v>568</v>
       </c>
       <c r="I78" s="50" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B79" s="41" t="s">
         <v>415</v>
       </c>
@@ -8030,21 +8032,21 @@
         <v>569</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D81" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="I81" s="61" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>629</v>
+      </c>
+      <c r="I81" s="54" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>467</v>
       </c>
@@ -8055,63 +8057,63 @@
         <v>570</v>
       </c>
       <c r="I83" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D85" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G85" s="40" t="s">
         <v>571</v>
       </c>
       <c r="I85" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D87" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>666</v>
+      </c>
+      <c r="I87" s="54" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>667</v>
+      </c>
+      <c r="D89" s="51" t="s">
         <v>669</v>
       </c>
-      <c r="G87" s="40" t="s">
+      <c r="G89" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="I87" s="61" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>671</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>673</v>
-      </c>
-      <c r="G89" s="40" t="s">
-        <v>674</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I89" s="54" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>540</v>
       </c>
       <c r="D91" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G91" s="40" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>542</v>
       </c>
@@ -8122,15 +8124,15 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D93" s="51" t="s">
         <v>256</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -8153,7 +8155,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="28"/>
     <col min="2" max="2" width="53.44140625" style="28" customWidth="1"/>
@@ -8164,12 +8166,12 @@
     <col min="8" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>312</v>
       </c>
@@ -8177,7 +8179,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>313</v>
       </c>
@@ -8200,22 +8202,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>422</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="712">
   <si>
     <t>備註說明</t>
   </si>
@@ -835,10 +835,6 @@
   </si>
   <si>
     <t>上次交易序號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易前催呆主檔留存欄</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2761,6 +2757,149 @@
     <t>TX.TRXTRN='3036'
 AND TX.LMSRSN=0</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易前催呆主檔留存欄</t>
+  </si>
+  <si>
+    <t>交易前催呆主檔留存欄</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:催收
+2.部分轉呆
+3:呆帳
+4:催收回復
+5:催呆結案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BadDebtDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉呆帳日期</t>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduPrinAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉催收本金</t>
+  </si>
+  <si>
+    <t>OvduIntAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉催收利息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduBreachAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉催收違約金</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduAmt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉催收金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduPrinBal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收本金餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduIntBal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收利息餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduBreachBal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收違約金餘額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OvduBal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收餘額</t>
+  </si>
+  <si>
+    <t>OvduStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvRvJsonFields</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳JsonFields</t>
+  </si>
+  <si>
+    <t>ResvEntdy</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResvTxSeq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔日訂正交易序號</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔日訂正會計日</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔日沖正再做新交易，抓取原交易資料時使用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3075,7 +3214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3181,9 +3320,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3245,6 +3381,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3266,8 +3405,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3577,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -3658,7 +3839,7 @@
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -3889,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -3902,7 +4083,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -3912,10 +4093,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>82</v>
@@ -3954,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -3967,7 +4148,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -3977,10 +4158,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>444</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>85</v>
@@ -3990,7 +4171,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4042,10 +4223,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>81</v>
@@ -4055,29 +4236,29 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="45">
         <v>4</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -4086,10 +4267,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>449</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>109</v>
@@ -4107,10 +4288,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>103</v>
@@ -4128,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>39</v>
@@ -4141,7 +4322,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -4216,10 +4397,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>437</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>438</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>85</v>
@@ -4251,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4326,10 +4507,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>81</v>
@@ -4370,10 +4551,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>81</v>
@@ -4385,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4395,10 +4576,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>81</v>
@@ -4410,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4420,7 +4601,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>166</v>
@@ -4448,7 +4629,7 @@
         <v>60</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>81</v>
@@ -4470,10 +4651,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>81</v>
@@ -4495,10 +4676,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>81</v>
@@ -4510,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4520,10 +4701,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>81</v>
@@ -4535,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4545,7 +4726,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>151</v>
@@ -4560,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4570,10 +4751,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>81</v>
@@ -4596,7 +4777,7 @@
         <v>61</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>81</v>
@@ -4616,10 +4797,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>81</v>
@@ -4631,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4641,10 +4822,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>81</v>
@@ -4656,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4666,10 +4847,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>81</v>
@@ -4689,10 +4870,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>433</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>81</v>
@@ -4702,7 +4883,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4715,7 +4896,7 @@
         <v>114</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>85</v>
@@ -4725,7 +4906,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -4855,13 +5036,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4883,18 +5064,18 @@
         <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4905,12 +5086,12 @@
         <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>133</v>
@@ -4921,7 +5102,7 @@
         <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>147</v>
@@ -4946,37 +5127,37 @@
         <v>168</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>107</v>
@@ -4984,24 +5165,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5013,10 +5194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5027,31 +5208,31 @@
     <col min="4" max="4" width="20.88671875" style="28" customWidth="1"/>
     <col min="5" max="5" width="9" style="29"/>
     <col min="6" max="6" width="9" style="28"/>
-    <col min="7" max="7" width="45.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.5546875" style="28" customWidth="1"/>
     <col min="8" max="8" width="23.21875" style="28" customWidth="1"/>
     <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>288</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5059,8 +5240,8 @@
       <c r="F2" s="33">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>289</v>
+      <c r="G2" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -5086,14 +5267,14 @@
     </row>
     <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
-        <f t="shared" ref="A4:A43" si="0">A3+1</f>
+        <f t="shared" ref="A4:A46" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>81</v>
@@ -5105,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5119,7 +5300,7 @@
         <v>142</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5127,8 +5308,8 @@
       <c r="F5" s="31">
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>341</v>
+      <c r="G5" s="37" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5151,8 +5332,8 @@
       <c r="F6" s="31">
         <v>2</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>343</v>
+      <c r="G6" s="37" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5174,8 +5355,8 @@
       <c r="F7" s="31">
         <v>2</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>342</v>
+      <c r="G7" s="37" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5198,8 +5379,8 @@
       <c r="F8" s="31">
         <v>2</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>340</v>
+      <c r="G8" s="37" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5211,7 +5392,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>81</v>
@@ -5233,7 +5414,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>81</v>
@@ -5252,10 +5433,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>81</v>
@@ -5274,7 +5455,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -5316,20 +5497,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>339</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5338,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>85</v>
@@ -5350,8 +5531,8 @@
         <v>2</v>
       </c>
       <c r="F15" s="31"/>
-      <c r="G15" s="39" t="s">
-        <v>335</v>
+      <c r="G15" s="38" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5360,10 +5541,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>85</v>
@@ -5373,7 +5554,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5382,10 +5563,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>85</v>
@@ -5394,8 +5575,8 @@
         <v>1</v>
       </c>
       <c r="F17" s="31"/>
-      <c r="G17" s="39" t="s">
-        <v>337</v>
+      <c r="G17" s="38" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5404,10 +5585,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>304</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>99</v>
@@ -5449,7 +5630,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>96</v>
@@ -5459,7 +5640,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -5493,7 +5674,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>81</v>
@@ -5505,7 +5686,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -5514,7 +5695,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>35</v>
@@ -5534,7 +5715,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>36</v>
@@ -5628,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -5637,22 +5818,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="29">
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5664,10 +5845,10 @@
         <v>73</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="31">
         <v>6</v>
@@ -5681,20 +5862,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="E31" s="31">
         <v>6</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,20 +5884,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>425</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>426</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
@@ -5725,10 +5906,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>223</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>224</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>193</v>
@@ -5738,10 +5919,10 @@
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -5750,13 +5931,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="E34" s="31">
         <v>60</v>
@@ -5764,112 +5945,108 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+    <row r="35" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="35" t="s">
+      <c r="B35" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="74">
         <v>3</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="F35" s="74"/>
+      <c r="G35" s="77"/>
+    </row>
+    <row r="36" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="33">
+      <c r="D36" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" s="74">
         <v>30</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="F36" s="74"/>
+      <c r="G36" s="77"/>
+    </row>
+    <row r="37" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="74">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="31">
-        <v>16</v>
-      </c>
-      <c r="F37" s="31">
-        <v>2</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="B37" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>703</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="74">
+        <v>300</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="77"/>
+    </row>
+    <row r="38" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="74">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="31">
+      <c r="B38" s="75" t="s">
+        <v>704</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>709</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>707</v>
+      </c>
+      <c r="E38" s="74">
         <v>7</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="F38" s="74"/>
+      <c r="G38" s="77" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="74">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="31">
-        <v>14</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="28" t="s">
-        <v>268</v>
+      <c r="B39" s="75" t="s">
+        <v>705</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>708</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="74">
+        <v>18</v>
+      </c>
+      <c r="F39" s="74"/>
+      <c r="G39" s="77" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -5878,20 +6055,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="31">
-        <v>7</v>
-      </c>
-      <c r="F40" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="F40" s="31">
+        <v>2</v>
+      </c>
       <c r="G40" s="28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -5900,247 +6079,256 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="E41" s="31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>81</v>
+        <v>706</v>
       </c>
       <c r="E42" s="31">
-        <v>16</v>
-      </c>
-      <c r="F42" s="31">
-        <v>2</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="31">
+        <v>7</v>
+      </c>
+      <c r="F43" s="31"/>
+      <c r="G43" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="31">
+        <v>3</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="31">
+        <v>16</v>
+      </c>
+      <c r="F45" s="31">
+        <v>2</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D46" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E46" s="31">
         <v>1</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
-      <c r="B44" s="28" t="s">
+      <c r="F46" s="31"/>
+      <c r="G46" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+      <c r="B47" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
-        <f t="shared" ref="A45:A60" si="1">A44+1</f>
-        <v>1</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="29">
-        <v>16</v>
-      </c>
-      <c r="F45" s="28">
-        <v>2</v>
-      </c>
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="29">
-        <v>6</v>
-      </c>
-      <c r="F46" s="28">
-        <v>4</v>
-      </c>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="29">
-        <v>16</v>
-      </c>
-      <c r="F47" s="28">
-        <v>2</v>
-      </c>
+      <c r="D47" s="29"/>
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A48:A61" si="1">A47+1</f>
+        <v>1</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E48" s="29">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="F48" s="28">
+        <v>2</v>
       </c>
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E49" s="29">
-        <v>3</v>
-      </c>
-      <c r="G49" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="F49" s="28">
+        <v>4</v>
+      </c>
+      <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="E50" s="29">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="F50" s="28">
+        <v>2</v>
       </c>
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="E51" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="E52" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="31">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>178</v>
@@ -6153,32 +6341,32 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E54" s="29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>178</v>
@@ -6186,89 +6374,369 @@
       <c r="E55" s="29">
         <v>8</v>
       </c>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E56" s="29">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G56" s="30"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="E57" s="29">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" s="30"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E58" s="29">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" s="29"/>
-      <c r="G59" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
+      <c r="B62" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="D62" s="29"/>
+      <c r="G62" s="30"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="64">
+        <f>A62+1</f>
+        <v>1</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="66">
+        <v>3</v>
+      </c>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="67">
+        <f t="shared" ref="A64:A73" si="2">A63+1</f>
+        <v>2</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>678</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="69">
+        <v>1</v>
+      </c>
+      <c r="F64" s="69"/>
+      <c r="G64" s="70" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="67">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" s="68" t="s">
+        <v>681</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65" s="69">
+        <v>8</v>
+      </c>
+      <c r="F65" s="69"/>
+      <c r="G65" s="71"/>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="67">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>683</v>
+      </c>
+      <c r="C66" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="69">
         <v>16</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="29">
-        <v>3</v>
-      </c>
+      <c r="F66" s="69">
+        <v>2</v>
+      </c>
+      <c r="G66" s="72"/>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="67">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B67" s="68" t="s">
+        <v>685</v>
+      </c>
+      <c r="C67" s="68" t="s">
+        <v>686</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="69">
+        <v>16</v>
+      </c>
+      <c r="F67" s="69">
+        <v>2</v>
+      </c>
+      <c r="G67" s="73"/>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="67">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B68" s="68" t="s">
+        <v>687</v>
+      </c>
+      <c r="C68" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="69">
+        <v>16</v>
+      </c>
+      <c r="F68" s="69">
+        <v>2</v>
+      </c>
+      <c r="G68" s="73" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>691</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="69">
+        <v>16</v>
+      </c>
+      <c r="F69" s="69">
+        <v>2</v>
+      </c>
+      <c r="G69" s="72"/>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="67">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="69">
+        <v>16</v>
+      </c>
+      <c r="F70" s="69">
+        <v>2</v>
+      </c>
+      <c r="G70" s="72"/>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="67">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>695</v>
+      </c>
+      <c r="D71" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="69">
+        <v>16</v>
+      </c>
+      <c r="F71" s="69">
+        <v>2</v>
+      </c>
+      <c r="G71" s="73"/>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="67">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>696</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>697</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="69">
+        <v>16</v>
+      </c>
+      <c r="F72" s="69">
+        <v>2</v>
+      </c>
+      <c r="G72" s="73" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="67">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>699</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="69">
+        <v>16</v>
+      </c>
+      <c r="F73" s="69">
+        <v>2</v>
+      </c>
+      <c r="G73" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -6281,54 +6749,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="41" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="39" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="39" customWidth="1"/>
     <col min="8" max="8" width="28.5546875" customWidth="1"/>
     <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
     <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="40" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="40" customWidth="1"/>
-    <col min="14" max="15" width="12.109375" style="40" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="39" customWidth="1"/>
+    <col min="14" max="15" width="12.109375" style="39" customWidth="1"/>
     <col min="16" max="16" width="25.77734375" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="39" customWidth="1"/>
     <col min="22" max="22" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>574</v>
+        <v>398</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>573</v>
       </c>
       <c r="H1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>582</v>
+        <v>451</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>581</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
       <c r="M1" s="63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N1" s="63"/>
       <c r="O1" s="63"/>
@@ -6341,1798 +6809,1798 @@
       <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="39" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>481</v>
+      <c r="O2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>575</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="I3" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="J3" s="42">
+        <v>574</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="J3" s="41">
         <v>3005</v>
       </c>
-      <c r="K3" s="42" t="s">
-        <v>482</v>
-      </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="K3" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>576</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="I4" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="J4" s="41">
+        <v>3010</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="S4" t="s">
+        <v>383</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="U4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="I5" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="J4" s="42">
-        <v>3010</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>483</v>
-      </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="S4" t="s">
-        <v>384</v>
-      </c>
-      <c r="T4" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="U4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="I5" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>455</v>
+        <v>459</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>454</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>610</v>
-      </c>
-      <c r="J6" s="42">
+        <v>459</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="J6" s="41">
         <v>3015</v>
       </c>
-      <c r="K6" s="42" t="s">
-        <v>484</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="T6" s="40" t="s">
-        <v>378</v>
+      <c r="K6" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="T6" s="39" t="s">
+        <v>377</v>
       </c>
       <c r="U6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>456</v>
+        <v>385</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>455</v>
       </c>
       <c r="H7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>587</v>
-      </c>
-      <c r="J7" s="42">
+        <v>385</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="J7" s="41">
         <v>3020</v>
       </c>
-      <c r="K7" s="42" t="s">
-        <v>485</v>
-      </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="T7" s="40" t="s">
-        <v>379</v>
+      <c r="K7" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="T7" s="39" t="s">
+        <v>378</v>
       </c>
       <c r="U7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>387</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>457</v>
+        <v>386</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="H8" t="s">
-        <v>387</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>588</v>
-      </c>
-      <c r="J8" s="42">
+        <v>386</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="J8" s="41">
         <v>3021</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42" t="s">
-        <v>487</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>384</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>379</v>
       </c>
       <c r="U8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>458</v>
+      <c r="G9" s="39" t="s">
+        <v>457</v>
       </c>
       <c r="H9" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="49" t="s">
-        <v>589</v>
-      </c>
-      <c r="J9" s="42">
+      <c r="I9" s="48" t="s">
+        <v>588</v>
+      </c>
+      <c r="J9" s="41">
         <v>3025</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="L9" s="42" t="s">
+      <c r="M9" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>490</v>
-      </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="T9" s="40" t="s">
-        <v>381</v>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="T9" s="39" t="s">
+        <v>380</v>
       </c>
       <c r="U9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="40" t="s">
-        <v>459</v>
+      <c r="G10" s="39" t="s">
+        <v>458</v>
       </c>
       <c r="H10" t="s">
-        <v>461</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="42">
+        <v>460</v>
+      </c>
+      <c r="I10" s="48"/>
+      <c r="J10" s="41">
         <v>3030</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="K10" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="T10" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="U10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="I11" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="J11" s="41">
+        <v>3031</v>
+      </c>
+      <c r="K11" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="T10" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="L11" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="S11" t="s">
+        <v>383</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="U11" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="I11" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="J11" s="42">
-        <v>3031</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="S11" t="s">
-        <v>384</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="U11" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="H12" t="s">
+        <v>465</v>
+      </c>
+      <c r="I12" s="48"/>
+      <c r="J12" s="41">
+        <v>3033</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M12" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="T12" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="U12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="D12" t="s">
-        <v>398</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="C13" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="41">
+        <v>3036</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="T13" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="U13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="C14" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" t="s">
+        <v>618</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="J14" s="41">
+        <v>3037</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="M14" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="T14" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="U14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="C15" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>619</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="H12" t="s">
-        <v>466</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="42">
-        <v>3033</v>
-      </c>
-      <c r="K12" s="42" t="s">
+      <c r="H15" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="J15" s="41">
+        <v>3038</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="S15" t="s">
+        <v>383</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="U15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="C16" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" t="s">
+        <v>620</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="J16" s="41">
+        <v>3040</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" t="s">
+        <v>607</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="47" t="s">
+        <v>672</v>
+      </c>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>389</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="I18" s="48"/>
+      <c r="J18" s="41">
+        <v>3041</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="L18" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="L12" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="T12" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="U12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="42">
-        <v>3036</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>498</v>
-      </c>
-      <c r="L13" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>500</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="T13" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="U13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="D14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>676</v>
-      </c>
-      <c r="J14" s="42">
-        <v>3037</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>502</v>
-      </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="P14" s="42"/>
-      <c r="T14" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="U14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" t="s">
-        <v>620</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>675</v>
-      </c>
-      <c r="J15" s="42">
-        <v>3038</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="S15" t="s">
-        <v>384</v>
-      </c>
-      <c r="T15" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="U15" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" t="s">
-        <v>621</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>674</v>
-      </c>
-      <c r="J16" s="42">
-        <v>3040</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>505</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="D17" t="s">
-        <v>608</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="48" t="s">
-        <v>673</v>
-      </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C18" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" t="s">
-        <v>390</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>609</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="42">
-        <v>3041</v>
-      </c>
-      <c r="K18" s="42" t="s">
+      <c r="M18" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="L18" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M18" s="42" t="s">
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I19" s="48"/>
+      <c r="J19" s="41">
+        <v>3045</v>
+      </c>
+      <c r="K19" s="41" t="s">
         <v>507</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I19" s="49"/>
-      <c r="J19" s="42">
-        <v>3045</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>508</v>
-      </c>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>618</v>
-      </c>
-      <c r="B20" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="G20" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="J20" s="41">
+        <v>3046</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="40" t="s">
         <v>404</v>
       </c>
-      <c r="D20" s="51" t="s">
-        <v>623</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="G20" s="40" t="s">
+      <c r="C21" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="41">
+        <v>3050</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="G22" s="39" t="s">
+        <v>579</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="41">
+        <v>3051</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="G23" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="I20" s="49" t="s">
-        <v>614</v>
-      </c>
-      <c r="J20" s="42">
-        <v>3046</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
+      <c r="I23" s="48"/>
+      <c r="J23" s="41">
+        <v>3055</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="G24" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="I24" s="48"/>
+      <c r="J24" s="41">
+        <v>3060</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="41">
+        <v>3063</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="42">
-        <v>3050</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>511</v>
-      </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C22" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="D22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="G22" s="40" t="s">
-        <v>580</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="42">
-        <v>3051</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C23" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="D23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="G23" s="40" t="s">
-        <v>547</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="42">
-        <v>3055</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>513</v>
-      </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C24" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="41">
+        <v>3065</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D27" t="s">
         <v>395</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="G24" s="40" t="s">
+      <c r="E27" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="42">
-        <v>3060</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>514</v>
-      </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
-        <v>409</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="52"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="42">
-        <v>3063</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C26" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="D26" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>625</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="42">
-        <v>3065</v>
-      </c>
-      <c r="K26" s="42" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="41">
+        <v>3066</v>
+      </c>
+      <c r="K27" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C27" s="40" t="s">
+      <c r="L27" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>396</v>
       </c>
-      <c r="E27" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="G27" s="40" t="s">
+      <c r="E28" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="42">
-        <v>3066</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="I28" s="48"/>
+      <c r="J28" s="41">
+        <v>3070</v>
+      </c>
+      <c r="K28" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="L27" s="42" t="s">
-        <v>493</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C28" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="D28" t="s">
-        <v>397</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="42">
-        <v>3070</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="I29" s="48"/>
+      <c r="J29" s="41">
+        <v>3075</v>
+      </c>
+      <c r="K29" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C29" s="40" t="s">
-        <v>612</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>617</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>613</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="42">
-        <v>3075</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>519</v>
-      </c>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="D30" s="40"/>
+        <v>401</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="D30" s="39"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="42">
+      <c r="I30" s="48"/>
+      <c r="J30" s="41">
         <v>3076</v>
       </c>
-      <c r="K30" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="K30" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31"/>
-      <c r="C31" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>632</v>
-      </c>
-      <c r="E31" s="51"/>
+      <c r="C31" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" s="50"/>
       <c r="F31"/>
-      <c r="G31" s="52" t="s">
-        <v>622</v>
-      </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="53" t="s">
-        <v>590</v>
-      </c>
-      <c r="J31" s="42">
+      <c r="G31" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="J31" s="41">
         <v>3077</v>
       </c>
-      <c r="K31" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
+      <c r="K31" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B32"/>
-      <c r="C32" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>469</v>
+      <c r="C32" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>468</v>
       </c>
       <c r="F32"/>
-      <c r="G32" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="42">
+      <c r="G32" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="I32" s="52"/>
+      <c r="J32" s="41">
         <v>3079</v>
       </c>
-      <c r="K32" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
+      <c r="K32" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33"/>
-      <c r="C33" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>469</v>
+      <c r="C33" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>468</v>
       </c>
       <c r="F33"/>
-      <c r="G33" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="42">
+      <c r="G33" s="51" t="s">
+        <v>551</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="41">
         <v>3080</v>
       </c>
-      <c r="K33" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="L33" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M33" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
+      <c r="K33" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="L33" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34"/>
-      <c r="C34" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>469</v>
+      <c r="C34" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>468</v>
       </c>
       <c r="F34"/>
-      <c r="G34" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="42">
+      <c r="G34" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="I34" s="48"/>
+      <c r="J34" s="41">
         <v>3081</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M34" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="L34" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35"/>
-      <c r="C35" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>631</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>469</v>
+      <c r="C35" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>630</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>468</v>
       </c>
       <c r="F35"/>
-      <c r="G35" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="42">
+      <c r="G35" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="41">
         <v>3082</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="K35" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="M35" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="L35" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="M35" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>403</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="G36" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="42">
+        <v>402</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="G36" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="41">
         <v>3083</v>
       </c>
-      <c r="K36" s="42" t="s">
-        <v>528</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
+      <c r="K36" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="L36" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="M36" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37"/>
-      <c r="C37" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="G37" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="42">
+      <c r="C37" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="G37" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="41">
         <v>3084</v>
       </c>
-      <c r="K37" s="42" t="s">
-        <v>529</v>
-      </c>
-      <c r="L37" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M37" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
+      <c r="K37" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38"/>
-      <c r="C38" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="G38" s="52" t="s">
-        <v>624</v>
-      </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="42">
+      <c r="C38" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="G38" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="I38" s="48"/>
+      <c r="J38" s="41">
         <v>3085</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="41" t="s">
+        <v>529</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="M38" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="L38" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="M38" s="42" t="s">
-        <v>531</v>
-      </c>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39"/>
-      <c r="D39" s="40"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="42">
+      <c r="D39" s="39"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="41">
         <v>3086</v>
       </c>
-      <c r="K39" s="42" t="s">
+      <c r="K39" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="L39" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="L39" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>507</v>
-      </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
+      <c r="M39" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>661</v>
+      </c>
+      <c r="B40"/>
+      <c r="D40" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="B40"/>
-      <c r="D40" s="40" t="s">
-        <v>663</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>652</v>
-      </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
+      <c r="G40" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I40" s="48"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B41"/>
-      <c r="C41" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>657</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
+      <c r="C41" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="I41" s="48"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B42"/>
-      <c r="C42" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>658</v>
-      </c>
-      <c r="I42" s="49"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
+      <c r="C42" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B43"/>
-      <c r="D43" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="42">
+      <c r="D43" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="I43" s="48"/>
+      <c r="J43" s="41">
         <v>3087</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="41" t="s">
+        <v>533</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="L43" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="M43" s="42" t="s">
-        <v>535</v>
-      </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
     </row>
     <row r="44" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B44"/>
-      <c r="C44" s="40" t="s">
-        <v>558</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="I44" s="56" t="s">
-        <v>591</v>
-      </c>
-      <c r="J44" s="42">
+      <c r="D44" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="I44" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="J44" s="41">
         <v>3088</v>
       </c>
-      <c r="K44" s="42" t="s">
-        <v>536</v>
-      </c>
-      <c r="L44" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="M44" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
+      <c r="K44" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="L44" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="M44" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45"/>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="42">
+      <c r="F45" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="41">
         <v>3089</v>
       </c>
-      <c r="K45" s="42" t="s">
-        <v>537</v>
-      </c>
-      <c r="L45" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="M45" s="42" t="s">
-        <v>507</v>
-      </c>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
+      <c r="K45" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="L45" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="M45" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
     </row>
     <row r="46" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B46"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="I46" s="56" t="s">
-        <v>592</v>
-      </c>
-      <c r="J46" s="42">
+      <c r="D46" s="39"/>
+      <c r="E46" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="J46" s="41">
         <v>3090</v>
       </c>
-      <c r="K46" s="42" t="s">
-        <v>538</v>
-      </c>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
+      <c r="K46" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B47"/>
-      <c r="C47" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="40" t="s">
+      <c r="C47" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="F47" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="42">
+      <c r="I47" s="48"/>
+      <c r="J47" s="41">
         <v>3092</v>
       </c>
-      <c r="K47" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
+      <c r="K47" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
     </row>
     <row r="48" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B48"/>
-      <c r="C48" s="40">
+      <c r="C48" s="39">
         <v>10</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>263</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>593</v>
+      <c r="D48" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49"/>
-      <c r="C49" s="40">
+      <c r="C49" s="39">
         <v>12</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="E49" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="I49" s="49"/>
+      <c r="I49" s="48"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50"/>
-      <c r="C50" s="40">
+      <c r="C50" s="39">
         <v>13</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>640</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="I50" s="49"/>
+      <c r="D50" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="I50" s="48"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51"/>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>14</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>641</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="I51" s="49"/>
+      <c r="D51" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>640</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="I51" s="48"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52"/>
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>15</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>642</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="I52" s="49"/>
+      <c r="D52" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53"/>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>16</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>643</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="I53" s="49"/>
+      <c r="D53" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54"/>
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>17</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="I54" s="49"/>
+      <c r="D54" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55"/>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>18</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>645</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="I55" s="49"/>
+      <c r="D55" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56"/>
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>19</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>354</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>354</v>
+      <c r="D56" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57"/>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>20</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>355</v>
+      <c r="D57" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58"/>
-      <c r="C58" s="40">
+      <c r="C58" s="39">
         <v>21</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>648</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>356</v>
+      <c r="D58" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59"/>
-      <c r="C59" s="40">
+      <c r="C59" s="39">
         <v>22</v>
       </c>
-      <c r="D59" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>357</v>
+      <c r="D59" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60"/>
-      <c r="C60" s="40">
+      <c r="C60" s="39">
         <v>23</v>
       </c>
-      <c r="D60" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>358</v>
+      <c r="D60" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61"/>
-      <c r="C61" s="40">
+      <c r="C61" s="39">
         <v>24</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="E61" s="40" t="s">
+      <c r="D61" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62"/>
-      <c r="C62" s="40">
+      <c r="C62" s="39">
         <v>25</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>634</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63"/>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>27</v>
       </c>
-      <c r="D63" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>660</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>253</v>
+      <c r="D63" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="F63" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B64"/>
-      <c r="C64" s="40">
+      <c r="C64" s="39">
         <v>29</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>594</v>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="I64" s="55" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B65"/>
-      <c r="C65" s="40">
+      <c r="C65" s="39">
         <v>30</v>
       </c>
-      <c r="D65" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="E65" s="40" t="s">
+      <c r="D65" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="F65" s="40" t="s">
-        <v>256</v>
+      <c r="E65" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66"/>
-      <c r="D66" s="40"/>
+      <c r="D66" s="39"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>638</v>
-      </c>
-      <c r="B69" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="I69" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C70" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="G69" s="40" t="s">
+    </row>
+    <row r="71" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="C71" s="39">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>636</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="I71" s="49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="C72" s="39">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>388</v>
+      </c>
+      <c r="G72" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="I69" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="41" t="s">
-        <v>412</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C71" s="40">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>637</v>
-      </c>
-      <c r="G71" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="I71" s="50" t="s">
+      <c r="I72" s="49" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="C72" s="40">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>389</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>562</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>597</v>
-      </c>
-    </row>
     <row r="73" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <v>3</v>
       </c>
       <c r="D73" t="s">
         <v>155</v>
       </c>
-      <c r="G73" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="I73" s="50" t="s">
-        <v>598</v>
+      <c r="G73" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C74" s="40">
+      <c r="C74" s="39">
         <v>4</v>
       </c>
       <c r="D74" t="s">
         <v>156</v>
       </c>
-      <c r="G74" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="I74" s="50" t="s">
-        <v>599</v>
+      <c r="G74" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C75" s="40">
+      <c r="C75" s="39">
         <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>157</v>
       </c>
-      <c r="G75" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="I75" s="50" t="s">
-        <v>600</v>
+      <c r="G75" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="I75" s="49" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="C76" s="40">
+      <c r="C76" s="39">
         <v>6</v>
       </c>
       <c r="D76" t="s">
         <v>158</v>
       </c>
-      <c r="G76" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>601</v>
+      <c r="G76" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="C77" s="40">
+      <c r="C77" s="39">
         <v>7</v>
       </c>
       <c r="D77" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="I77" s="50" t="s">
-        <v>602</v>
+      <c r="G77" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="I77" s="49" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="40">
+      <c r="C78" s="39">
         <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>160</v>
       </c>
-      <c r="G78" s="40" t="s">
-        <v>568</v>
-      </c>
-      <c r="I78" s="50" t="s">
-        <v>603</v>
+      <c r="G78" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="I78" s="49" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>473</v>
+      <c r="B79" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>472</v>
       </c>
       <c r="D79" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="40" t="s">
-        <v>569</v>
+      <c r="G79" s="39" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>626</v>
+      </c>
+      <c r="D81" t="s">
         <v>627</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="G81" s="40" t="s">
+      <c r="I81" s="53" t="s">
         <v>629</v>
-      </c>
-      <c r="I81" s="54" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>466</v>
+      </c>
+      <c r="D83" t="s">
         <v>467</v>
       </c>
-      <c r="D83" t="s">
-        <v>468</v>
-      </c>
-      <c r="G83" s="40" t="s">
-        <v>570</v>
+      <c r="G83" s="39" t="s">
+        <v>569</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D85" t="s">
-        <v>626</v>
-      </c>
-      <c r="G85" s="40" t="s">
-        <v>571</v>
+        <v>625</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>570</v>
       </c>
       <c r="I85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>663</v>
+      </c>
+      <c r="D87" s="50" t="s">
         <v>664</v>
       </c>
-      <c r="D87" s="51" t="s">
+      <c r="G87" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="G87" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="I87" s="54" t="s">
-        <v>630</v>
+      <c r="I87" s="53" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>667</v>
-      </c>
-      <c r="D89" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="G89" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I89" s="54" t="s">
-        <v>630</v>
+      <c r="I89" s="53" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D91" t="s">
-        <v>668</v>
-      </c>
-      <c r="G91" s="40" t="s">
-        <v>572</v>
+        <v>667</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D92" t="s">
-        <v>541</v>
-      </c>
-      <c r="G92" s="40" t="s">
-        <v>573</v>
+        <v>540</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>670</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="G93" s="39" t="s">
         <v>671</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -8167,24 +8635,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>311</v>
+      <c r="A1" s="37" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8209,17 +8677,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1813,10 +1813,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>分錄序號(起)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2901,12 +2897,16 @@
     <t>同上</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>入帳順序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3384,27 +3384,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3449,6 +3428,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3758,11 +3758,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
@@ -3775,11 +3775,11 @@
     <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="12" t="s">
         <v>92</v>
       </c>
@@ -3791,9 +3791,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3805,11 +3805,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:8" ht="32.4">
+      <c r="A3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="7" t="s">
         <v>76</v>
       </c>
@@ -3821,11 +3821,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3833,11 +3833,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="6" t="s">
         <v>326</v>
       </c>
@@ -3847,11 +3847,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3859,11 +3859,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -3871,7 +3871,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3915,7 +3915,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="4">
         <f>A9+1</f>
         <v>2</v>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" ref="A11:A30" si="0">A10+1</f>
         <v>3</v>
@@ -3959,7 +3959,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3980,7 +3980,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" ref="A13:A19" si="1">A12+1</f>
         <v>5</v>
@@ -4001,7 +4001,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4022,7 +4022,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="20.7" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -4043,7 +4043,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="21.6" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4064,7 +4064,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="21.6" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4096,7 +4096,7 @@
         <v>434</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>435</v>
+        <v>711</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>82</v>
@@ -4108,7 +4108,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="20.7" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -4129,13 +4129,13 @@
       <c r="G19" s="23"/>
       <c r="H19" s="30"/>
     </row>
-    <row r="20" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="54.6" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4152,16 +4152,16 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="75.599999999999994" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>442</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>443</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>85</v>
@@ -4171,11 +4171,11 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="24.75" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4196,7 +4196,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="20.7" customHeight="1">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4217,7 +4217,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="162" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="162">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4240,16 +4240,16 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>449</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>450</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>85</v>
@@ -4261,16 +4261,16 @@
       <c r="G25" s="46"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="20.7" customHeight="1">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>448</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>109</v>
@@ -4282,7 +4282,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4303,7 +4303,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="20.7" customHeight="1">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="74.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="74.7" customHeight="1">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="20.7" customHeight="1">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4370,7 +4370,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="20.7" customHeight="1">
       <c r="A31" s="4">
         <f>A30+1</f>
         <v>23</v>
@@ -4391,16 +4391,16 @@
       <c r="G31" s="23"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="27" customFormat="1">
       <c r="A32" s="4">
         <f t="shared" ref="A32:A57" si="2">A31+1</f>
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>437</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>85</v>
@@ -4411,7 +4411,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="65.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="65.7" customHeight="1">
       <c r="A33" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="18" customHeight="1">
       <c r="A34" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -4459,7 +4459,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -4480,7 +4480,7 @@
       <c r="G35" s="24"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20.7" customHeight="1">
       <c r="A36" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -4501,7 +4501,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="20.7" customHeight="1">
       <c r="A37" s="4">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -4522,7 +4522,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="18" customHeight="1">
       <c r="A38" s="4">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -4545,7 +4545,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="39" customHeight="1">
       <c r="A39" s="4">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -4570,13 +4570,13 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="39.6" customHeight="1">
       <c r="A40" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>317</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="20.7" customHeight="1">
       <c r="A41" s="4">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="20.7" customHeight="1">
       <c r="A42" s="4">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="20.7" customHeight="1">
       <c r="A43" s="4">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="49.95" customHeight="1">
       <c r="A44" s="4">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="20.7" customHeight="1">
       <c r="A45" s="4">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="20.7" customHeight="1">
       <c r="A46" s="4">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="21.75" customHeight="1">
       <c r="A47" s="4">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -4768,7 +4768,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="22.2" customHeight="1">
       <c r="A48" s="4">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -4791,7 +4791,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="18" customHeight="1">
       <c r="A49" s="4">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="20.7" customHeight="1">
       <c r="A50" s="4">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="21" customHeight="1">
       <c r="A51" s="4">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -4864,7 +4864,7 @@
       <c r="G51" s="24"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="32.4">
       <c r="A52" s="4">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="123" customHeight="1">
       <c r="A53" s="4">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="16.5" customHeight="1">
       <c r="A54" s="4">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -4929,7 +4929,7 @@
       <c r="G54" s="19"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="4">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -4950,7 +4950,7 @@
       <c r="G55" s="19"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="4">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -4969,7 +4969,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="16.5" customHeight="1">
       <c r="A57" s="4">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5015,7 +5015,7 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="22.44140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="129.88671875" style="3" customWidth="1"/>
@@ -5023,7 +5023,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>207</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>428</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>429</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>154</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>167</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>208</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>232</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>242</v>
       </c>
@@ -5174,15 +5174,15 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5196,11 +5196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9" style="28"/>
     <col min="2" max="2" width="29.33203125" style="28" customWidth="1"/>
@@ -5213,15 +5213,15 @@
     <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="36" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="36" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A4" s="31">
         <f t="shared" ref="A4:A46" si="0">A3+1</f>
         <v>3</v>
@@ -5289,7 +5289,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5336,7 +5336,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5383,7 +5383,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="27" customFormat="1" ht="25.5" customHeight="1">
       <c r="A12" s="31">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A13" s="31">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5491,7 +5491,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="201.6" customHeight="1">
       <c r="A14" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5513,7 +5513,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5535,7 +5535,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5557,7 +5557,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
       <c r="A17" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5579,7 +5579,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
       <c r="A18" s="31">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5599,7 +5599,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
       <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5621,7 +5621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="27" customFormat="1" ht="228" customHeight="1">
       <c r="A20" s="31">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5630,7 +5630,7 @@
         <v>123</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>96</v>
@@ -5643,7 +5643,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
       <c r="A21" s="31">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5665,7 +5665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="31">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5689,7 +5689,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A23" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5709,7 +5709,7 @@
       <c r="F23" s="31"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A24" s="31">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5729,7 +5729,7 @@
       <c r="F24" s="31"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A25" s="31">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A26" s="31">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5771,7 +5771,7 @@
       <c r="F26" s="31"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="31">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5791,7 +5791,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="96" customHeight="1">
       <c r="A28" s="31">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5812,7 +5812,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="32.4">
       <c r="A29" s="31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5836,7 +5836,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5856,7 +5856,7 @@
       <c r="F30" s="31"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5878,7 +5878,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
       <c r="A32" s="31">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5900,7 +5900,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
       <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5925,7 +5925,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="27" customFormat="1">
       <c r="A34" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5945,111 +5945,111 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74">
+    <row r="35" spans="1:8" s="71" customFormat="1">
+      <c r="A35" s="67">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="67">
         <v>3</v>
       </c>
-      <c r="F35" s="74"/>
-      <c r="G35" s="77"/>
-    </row>
-    <row r="36" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74">
+      <c r="F35" s="67"/>
+      <c r="G35" s="70"/>
+    </row>
+    <row r="36" spans="1:8" s="71" customFormat="1">
+      <c r="A36" s="67">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="67">
         <v>30</v>
       </c>
-      <c r="F36" s="74"/>
-      <c r="G36" s="77"/>
-    </row>
-    <row r="37" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74">
+      <c r="F36" s="67"/>
+      <c r="G36" s="70"/>
+    </row>
+    <row r="37" spans="1:8" s="71" customFormat="1">
+      <c r="A37" s="67">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="C37" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="C37" s="75" t="s">
-        <v>703</v>
-      </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="67">
         <v>300</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74">
+      <c r="F37" s="67"/>
+      <c r="G37" s="70"/>
+    </row>
+    <row r="38" spans="1:8" s="71" customFormat="1">
+      <c r="A38" s="67">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>704</v>
-      </c>
-      <c r="C38" s="75" t="s">
+      <c r="B38" s="68" t="s">
+        <v>703</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>708</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="E38" s="67">
+        <v>7</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="70" t="s">
         <v>709</v>
       </c>
-      <c r="D38" s="76" t="s">
-        <v>707</v>
-      </c>
-      <c r="E38" s="74">
-        <v>7</v>
-      </c>
-      <c r="F38" s="74"/>
-      <c r="G38" s="77" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74">
+    </row>
+    <row r="39" spans="1:8" s="71" customFormat="1">
+      <c r="A39" s="67">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>705</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>708</v>
-      </c>
-      <c r="D39" s="76" t="s">
+      <c r="B39" s="68" t="s">
+        <v>704</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39" s="69" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="67">
         <v>18</v>
       </c>
-      <c r="F39" s="74"/>
-      <c r="G39" s="77" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="67"/>
+      <c r="G39" s="70" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A40" s="31">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6073,7 +6073,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6095,7 +6095,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6107,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
@@ -6117,7 +6117,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6139,7 +6139,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A44" s="31">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6161,7 +6161,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="31">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6185,7 +6185,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
       <c r="A46" s="31">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6207,7 +6207,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="31.2" customHeight="1">
       <c r="A47" s="31"/>
       <c r="B47" s="28" t="s">
         <v>169</v>
@@ -6215,7 +6215,7 @@
       <c r="D47" s="29"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="31">
         <f t="shared" ref="A48:A61" si="1">A47+1</f>
         <v>1</v>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="31">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="G50" s="30"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="31">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="31">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="G53" s="30"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="31">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="31">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="31">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="31">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6432,7 +6432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="31">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6450,7 +6450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="31">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6468,7 +6468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="31">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6486,257 +6486,257 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="31.2" customHeight="1">
       <c r="A62" s="31"/>
       <c r="B62" s="28" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D62" s="29"/>
       <c r="G62" s="30"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="64">
+    <row r="63" spans="1:7">
+      <c r="A63" s="57">
         <f>A62+1</f>
         <v>1</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="66" t="s">
+      <c r="D63" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="66">
+      <c r="E63" s="59">
         <v>3</v>
       </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="67">
+      <c r="F63" s="58"/>
+      <c r="G63" s="58" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A64" s="60">
         <f t="shared" ref="A64:A73" si="2">A63+1</f>
         <v>2</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>701</v>
-      </c>
-      <c r="C64" s="68" t="s">
+      <c r="B64" s="61" t="s">
+        <v>700</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>677</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="62">
+        <v>1</v>
+      </c>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="D64" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="69">
-        <v>1</v>
-      </c>
-      <c r="F64" s="69"/>
-      <c r="G64" s="70" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="67">
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A65" s="60">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="61" t="s">
+        <v>679</v>
+      </c>
+      <c r="C65" s="61" t="s">
         <v>680</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="D65" s="62" t="s">
         <v>681</v>
       </c>
-      <c r="D65" s="69" t="s">
-        <v>682</v>
-      </c>
-      <c r="E65" s="69">
+      <c r="E65" s="62">
         <v>8</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="71"/>
-    </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="67">
+      <c r="F65" s="62"/>
+      <c r="G65" s="64"/>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A66" s="60">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B66" s="68" t="s">
+      <c r="B66" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="C66" s="61" t="s">
         <v>683</v>
       </c>
-      <c r="C66" s="68" t="s">
-        <v>684</v>
-      </c>
-      <c r="D66" s="69" t="s">
+      <c r="D66" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="69">
+      <c r="E66" s="62">
         <v>16</v>
       </c>
-      <c r="F66" s="69">
+      <c r="F66" s="62">
         <v>2</v>
       </c>
-      <c r="G66" s="72"/>
-    </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="67">
+      <c r="G66" s="65"/>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A67" s="60">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="61" t="s">
+        <v>684</v>
+      </c>
+      <c r="C67" s="61" t="s">
         <v>685</v>
       </c>
-      <c r="C67" s="68" t="s">
-        <v>686</v>
-      </c>
-      <c r="D67" s="69" t="s">
+      <c r="D67" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E67" s="69">
+      <c r="E67" s="62">
         <v>16</v>
       </c>
-      <c r="F67" s="69">
+      <c r="F67" s="62">
         <v>2</v>
       </c>
-      <c r="G67" s="73"/>
-    </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="67">
+      <c r="G67" s="66"/>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A68" s="60">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B68" s="68" t="s">
+      <c r="B68" s="61" t="s">
+        <v>686</v>
+      </c>
+      <c r="C68" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="C68" s="68" t="s">
+      <c r="D68" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="62">
+        <v>16</v>
+      </c>
+      <c r="F68" s="62">
+        <v>2</v>
+      </c>
+      <c r="G68" s="66" t="s">
         <v>688</v>
       </c>
-      <c r="D68" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="69">
-        <v>16</v>
-      </c>
-      <c r="F68" s="69">
-        <v>2</v>
-      </c>
-      <c r="G68" s="73" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67">
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A69" s="60">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="61" t="s">
+        <v>689</v>
+      </c>
+      <c r="C69" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="C69" s="68" t="s">
-        <v>691</v>
-      </c>
-      <c r="D69" s="69" t="s">
+      <c r="D69" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="69">
+      <c r="E69" s="62">
         <v>16</v>
       </c>
-      <c r="F69" s="69">
+      <c r="F69" s="62">
         <v>2</v>
       </c>
-      <c r="G69" s="72"/>
-    </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="67">
+      <c r="G69" s="65"/>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A70" s="60">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B70" s="68" t="s">
+      <c r="B70" s="61" t="s">
+        <v>691</v>
+      </c>
+      <c r="C70" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="C70" s="68" t="s">
-        <v>693</v>
-      </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="62">
         <v>16</v>
       </c>
-      <c r="F70" s="69">
+      <c r="F70" s="62">
         <v>2</v>
       </c>
-      <c r="G70" s="72"/>
-    </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="67">
+      <c r="G70" s="65"/>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A71" s="60">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B71" s="68" t="s">
+      <c r="B71" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="C71" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="C71" s="68" t="s">
-        <v>695</v>
-      </c>
-      <c r="D71" s="69" t="s">
+      <c r="D71" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="62">
         <v>16</v>
       </c>
-      <c r="F71" s="69">
+      <c r="F71" s="62">
         <v>2</v>
       </c>
-      <c r="G71" s="73"/>
-    </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="67">
+      <c r="G71" s="66"/>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A72" s="60">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B72" s="68" t="s">
+      <c r="B72" s="61" t="s">
+        <v>695</v>
+      </c>
+      <c r="C72" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="C72" s="68" t="s">
+      <c r="D72" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="62">
+        <v>16</v>
+      </c>
+      <c r="F72" s="62">
+        <v>2</v>
+      </c>
+      <c r="G72" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="D72" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="69">
-        <v>16</v>
-      </c>
-      <c r="F72" s="69">
-        <v>2</v>
-      </c>
-      <c r="G72" s="73" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="67">
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A73" s="60">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B73" s="68" t="s">
+      <c r="B73" s="61" t="s">
+        <v>698</v>
+      </c>
+      <c r="C73" s="61" t="s">
         <v>699</v>
       </c>
-      <c r="C73" s="68" t="s">
-        <v>700</v>
-      </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="69">
+      <c r="E73" s="62">
         <v>16</v>
       </c>
-      <c r="F73" s="69">
+      <c r="F73" s="62">
         <v>2</v>
       </c>
-      <c r="G73" s="73"/>
+      <c r="G73" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -6753,7 +6753,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" style="40" customWidth="1"/>
@@ -6774,35 +6774,35 @@
     <col min="22" max="22" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D1" t="s">
         <v>398</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="J1" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>474</v>
+      </c>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78" t="s">
         <v>475</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63" t="s">
-        <v>476</v>
-      </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -6810,48 +6810,48 @@
         <v>162</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I2" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="32.4">
+      <c r="D3" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>582</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>480</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>583</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6859,21 +6859,21 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6890,9 +6890,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -6902,27 +6902,27 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
         <v>384</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -6936,24 +6936,24 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="D7" t="s">
         <v>385</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H7" t="s">
         <v>385</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -6967,28 +6967,28 @@
         <v>367</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="D8" t="s">
         <v>386</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H8" t="s">
         <v>386</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
@@ -7003,30 +7003,30 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="D9" t="s">
         <v>165</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H9" t="s">
         <v>165</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>489</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
@@ -7038,22 +7038,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="D10" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7067,21 +7067,21 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="M11" s="41" t="s">
         <v>492</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>493</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
@@ -7096,7 +7096,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>415</v>
       </c>
@@ -7107,23 +7107,23 @@
         <v>397</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="M12" s="41" t="s">
         <v>495</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>496</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -7135,25 +7135,25 @@
         <v>372</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
         <v>402</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I13" s="56"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="M13" s="41" t="s">
         <v>498</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>499</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
@@ -7165,37 +7165,37 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="32.4">
       <c r="C14" s="39" t="s">
         <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L14" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="M14" s="41" t="s">
         <v>500</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>501</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
@@ -7205,27 +7205,27 @@
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
         <v>379</v>
       </c>
       <c r="D15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I15" s="56" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7242,27 +7242,27 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
         <v>360</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I16" s="56" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7270,19 +7270,19 @@
       <c r="O16" s="41"/>
       <c r="P16" s="41"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="D17" t="s">
         <v>606</v>
       </c>
-      <c r="D17" t="s">
-        <v>607</v>
-      </c>
       <c r="G17" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7292,7 +7292,7 @@
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
         <v>382</v>
       </c>
@@ -7300,32 +7300,32 @@
         <v>389</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="M18" s="41" t="s">
         <v>505</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>506</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="I19" s="48"/>
       <c r="J19" s="41">
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7333,38 +7333,38 @@
       <c r="O19" s="41"/>
       <c r="P19" s="41"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>403</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E20" s="51"/>
       <c r="G20" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="B21" s="40" t="s">
         <v>404</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7384,7 +7384,7 @@
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
         <v>377</v>
       </c>
@@ -7393,14 +7393,14 @@
       </c>
       <c r="E22" s="54"/>
       <c r="G22" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7408,7 +7408,7 @@
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
         <v>378</v>
       </c>
@@ -7417,14 +7417,14 @@
       </c>
       <c r="E23" s="54"/>
       <c r="G23" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7432,7 +7432,7 @@
       <c r="O23" s="41"/>
       <c r="P23" s="41"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="C24" s="39" t="s">
         <v>379</v>
       </c>
@@ -7441,14 +7441,14 @@
       </c>
       <c r="E24" s="54"/>
       <c r="G24" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7456,7 +7456,7 @@
       <c r="O24" s="41"/>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="B25" s="40" t="s">
         <v>408</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7477,7 +7477,7 @@
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="C26" s="39" t="s">
         <v>405</v>
       </c>
@@ -7488,14 +7488,14 @@
         <v>399</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7503,7 +7503,7 @@
       <c r="O26" s="41"/>
       <c r="P26" s="41"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="C27" s="39" t="s">
         <v>406</v>
       </c>
@@ -7514,26 +7514,26 @@
         <v>399</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L27" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>492</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>493</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
       <c r="P27" s="41"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
         <v>407</v>
       </c>
@@ -7544,14 +7544,14 @@
         <v>399</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7559,25 +7559,25 @@
       <c r="O28" s="41"/>
       <c r="P28" s="41"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="C29" s="39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>399</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7585,7 +7585,7 @@
       <c r="O29" s="41"/>
       <c r="P29" s="41"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>412</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7611,28 +7611,28 @@
       <c r="O30" s="41"/>
       <c r="P30" s="41"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
         <v>413</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7640,7 +7640,7 @@
       <c r="O31" s="41"/>
       <c r="P31" s="41"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
         <v>405</v>
@@ -7649,18 +7649,18 @@
         <v>365</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7668,7 +7668,7 @@
       <c r="O32" s="41"/>
       <c r="P32" s="41"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="39" t="s">
         <v>406</v>
@@ -7677,174 +7677,174 @@
         <v>395</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="51" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
       <c r="P33" s="41"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>396</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="M34" s="41" t="s">
         <v>523</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>524</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
       <c r="P34" s="41"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="51" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>499</v>
+      </c>
+      <c r="M35" s="41" t="s">
         <v>525</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="M35" s="41" t="s">
-        <v>526</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="B36" t="s">
         <v>402</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
       <c r="P36" s="41"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D37" s="39"/>
       <c r="G37" s="51" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
       <c r="P37" s="41"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="39" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D38" s="39"/>
       <c r="G38" s="51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
+        <v>528</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="M38" s="41" t="s">
         <v>529</v>
-      </c>
-      <c r="L38" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>530</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
       <c r="P38" s="41"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="B39"/>
       <c r="D39" s="39"/>
       <c r="I39" s="48"/>
@@ -7852,28 +7852,28 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="L39" s="41" t="s">
         <v>531</v>
       </c>
-      <c r="L39" s="41" t="s">
-        <v>532</v>
-      </c>
       <c r="M39" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
       <c r="P39" s="41"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7884,16 +7884,16 @@
       <c r="O40" s="41"/>
       <c r="P40" s="41"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -7904,16 +7904,16 @@
       <c r="O41" s="41"/>
       <c r="P41" s="41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -7924,35 +7924,35 @@
       <c r="O42" s="41"/>
       <c r="P42" s="41"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
+        <v>532</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>531</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>533</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>534</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
       <c r="P43" s="41"/>
     </row>
-    <row r="44" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>343</v>
@@ -7961,59 +7961,59 @@
         <v>261</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I44" s="55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
       <c r="P44" s="41"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>344</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
       <c r="P45" s="41"/>
     </row>
-    <row r="46" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="32.4">
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
@@ -8023,13 +8023,13 @@
         <v>264</v>
       </c>
       <c r="I46" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8037,7 +8037,7 @@
       <c r="O46" s="41"/>
       <c r="P46" s="41"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
         <v>364</v>
@@ -8056,7 +8056,7 @@
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8064,7 +8064,7 @@
       <c r="O47" s="41"/>
       <c r="P47" s="41"/>
     </row>
-    <row r="48" spans="1:16" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="32.4">
       <c r="B48"/>
       <c r="C48" s="39">
         <v>10</v>
@@ -8079,26 +8079,26 @@
         <v>265</v>
       </c>
       <c r="I48" s="55" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49"/>
       <c r="C49" s="39">
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>258</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I49" s="48"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9">
       <c r="B50"/>
       <c r="C50" s="39">
         <v>13</v>
@@ -8107,14 +8107,14 @@
         <v>347</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>347</v>
       </c>
       <c r="I50" s="48"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9">
       <c r="B51"/>
       <c r="C51" s="39">
         <v>14</v>
@@ -8123,14 +8123,14 @@
         <v>348</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F51" s="39" t="s">
         <v>348</v>
       </c>
       <c r="I51" s="48"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9">
       <c r="B52"/>
       <c r="C52" s="39">
         <v>15</v>
@@ -8139,14 +8139,14 @@
         <v>349</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>349</v>
       </c>
       <c r="I52" s="48"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9">
       <c r="B53"/>
       <c r="C53" s="39">
         <v>16</v>
@@ -8155,14 +8155,14 @@
         <v>350</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F53" s="39" t="s">
         <v>350</v>
       </c>
       <c r="I53" s="48"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9">
       <c r="B54"/>
       <c r="C54" s="39">
         <v>17</v>
@@ -8171,14 +8171,14 @@
         <v>351</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>351</v>
       </c>
       <c r="I54" s="48"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9">
       <c r="B55"/>
       <c r="C55" s="39">
         <v>18</v>
@@ -8187,14 +8187,14 @@
         <v>352</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F55" s="39" t="s">
         <v>352</v>
       </c>
       <c r="I55" s="48"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9">
       <c r="B56"/>
       <c r="C56" s="39">
         <v>19</v>
@@ -8203,13 +8203,13 @@
         <v>353</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9">
       <c r="B57"/>
       <c r="C57" s="39">
         <v>20</v>
@@ -8218,13 +8218,13 @@
         <v>354</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F57" s="39" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9">
       <c r="B58"/>
       <c r="C58" s="39">
         <v>21</v>
@@ -8233,13 +8233,13 @@
         <v>355</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9">
       <c r="B59"/>
       <c r="C59" s="39">
         <v>22</v>
@@ -8248,13 +8248,13 @@
         <v>356</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9">
       <c r="B60"/>
       <c r="C60" s="39">
         <v>23</v>
@@ -8263,13 +8263,13 @@
         <v>357</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9">
       <c r="B61"/>
       <c r="C61" s="39">
         <v>24</v>
@@ -8284,22 +8284,22 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9">
       <c r="B62"/>
       <c r="C62" s="39">
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>631</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>632</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63"/>
       <c r="C63" s="39">
         <v>27</v>
@@ -8308,13 +8308,13 @@
         <v>359</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F63" s="39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="32.4">
       <c r="B64"/>
       <c r="C64" s="39">
         <v>29</v>
@@ -8327,10 +8327,10 @@
         <v>266</v>
       </c>
       <c r="I64" s="55" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65"/>
       <c r="C65" s="39">
         <v>30</v>
@@ -8345,13 +8345,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="B66"/>
       <c r="D66" s="39"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>410</v>
@@ -8360,13 +8360,13 @@
         <v>390</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I69" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
         <v>411</v>
       </c>
@@ -8374,21 +8374,21 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="32.4">
       <c r="C71" s="39">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="48.6">
       <c r="C72" s="39">
         <v>2</v>
       </c>
@@ -8396,13 +8396,13 @@
         <v>388</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="32.4">
       <c r="C73" s="39">
         <v>3</v>
       </c>
@@ -8410,13 +8410,13 @@
         <v>155</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="32.4">
       <c r="C74" s="39">
         <v>4</v>
       </c>
@@ -8424,13 +8424,13 @@
         <v>156</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="32.4">
       <c r="C75" s="39">
         <v>5</v>
       </c>
@@ -8438,13 +8438,13 @@
         <v>157</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="32.4">
       <c r="C76" s="39">
         <v>6</v>
       </c>
@@ -8452,13 +8452,13 @@
         <v>158</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="48.6">
       <c r="C77" s="39">
         <v>7</v>
       </c>
@@ -8466,13 +8466,13 @@
         <v>159</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="C78" s="39">
         <v>8</v>
       </c>
@@ -8480,127 +8480,127 @@
         <v>160</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
         <v>414</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D79" t="s">
         <v>161</v>
       </c>
       <c r="G79" s="39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>625</v>
+      </c>
+      <c r="D81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>465</v>
+      </c>
+      <c r="D83" t="s">
+        <v>466</v>
+      </c>
+      <c r="G83" s="39" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>626</v>
-      </c>
-      <c r="D81" t="s">
-        <v>627</v>
-      </c>
-      <c r="G81" s="39" t="s">
+      <c r="I83" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>637</v>
+      </c>
+      <c r="D85" t="s">
+        <v>624</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="I85" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>662</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="G87" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="I87" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="I81" s="53" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>466</v>
-      </c>
-      <c r="D83" t="s">
-        <v>467</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="I83" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>638</v>
-      </c>
-      <c r="D85" t="s">
-        <v>625</v>
-      </c>
-      <c r="G85" s="39" t="s">
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>665</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>667</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="I89" s="53" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>538</v>
+      </c>
+      <c r="D91" t="s">
+        <v>666</v>
+      </c>
+      <c r="G91" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="I85" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>663</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>664</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>665</v>
-      </c>
-      <c r="I87" s="53" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>666</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>668</v>
-      </c>
-      <c r="G89" s="39" t="s">
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>540</v>
+      </c>
+      <c r="D92" t="s">
+        <v>539</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
         <v>669</v>
-      </c>
-      <c r="I89" s="53" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>539</v>
-      </c>
-      <c r="D91" t="s">
-        <v>667</v>
-      </c>
-      <c r="G91" s="39" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>541</v>
-      </c>
-      <c r="D92" t="s">
-        <v>540</v>
-      </c>
-      <c r="G92" s="39" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>670</v>
       </c>
       <c r="D93" s="50" t="s">
         <v>255</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -8623,7 +8623,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="28"/>
     <col min="2" max="2" width="53.44140625" style="28" customWidth="1"/>
@@ -8634,12 +8634,12 @@
     <col min="8" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
         <v>311</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
         <v>312</v>
       </c>
@@ -8670,22 +8670,22 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
         <v>421</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -23,16 +23,6 @@
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -82,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="723">
   <si>
     <t>備註說明</t>
   </si>
@@ -168,9 +158,6 @@
   </si>
   <si>
     <t>新攤還金額</t>
-  </si>
-  <si>
-    <t>新繳款總期數</t>
   </si>
   <si>
     <t>計息起日</t>
@@ -1149,10 +1136,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>業務科目</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1184,10 +1167,6 @@
   <si>
     <t>代碼檔: 04-批次作業
   BankRmftCode 匯款摘要代碼</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1370,19 +1349,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Overflow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>即時收取清償違約金，下期期款收取</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暫收抵繳(暫收借)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累溢收金額(暫收貸)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2899,6 +2870,70 @@
   </si>
   <si>
     <t>入帳順序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新繳款總期數</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RECPNO</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYCOD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收據號碼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>代收繳款方式</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS400舊資料
+新壽IT珮琪說要保留</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉債權轉讓戶</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3732</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本戶累溢收</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excessive</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢收金額(暫收貸)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3214,7 +3249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3375,59 +3410,29 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3758,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3776,15 +3781,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="73"/>
+      <c r="A1" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="63"/>
       <c r="C1" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
@@ -3792,13 +3797,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
@@ -3806,15 +3811,15 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="77"/>
+      <c r="A3" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="67"/>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
@@ -3822,10 +3827,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="76"/>
+      <c r="A4" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="66"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3834,12 +3839,12 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="77"/>
+      <c r="A5" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="67"/>
       <c r="C5" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -3848,10 +3853,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="75"/>
+      <c r="A6" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="65"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3860,10 +3865,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="76"/>
+      <c r="A7" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="66"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -3900,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="13">
         <v>7</v>
@@ -3921,20 +3926,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -3944,13 +3949,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13">
         <v>3</v>
@@ -3965,13 +3970,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="13">
         <v>4</v>
@@ -3986,13 +3991,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="13">
         <v>8</v>
@@ -4007,13 +4012,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="13">
         <v>8</v>
@@ -4028,13 +4033,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>136</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="13">
         <v>4</v>
@@ -4049,13 +4054,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="13">
         <v>6</v>
@@ -4070,20 +4075,20 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="13">
         <v>8</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4093,13 +4098,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="13">
         <v>4</v>
@@ -4114,13 +4119,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="13">
         <v>5</v>
@@ -4135,20 +4140,20 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="13">
         <v>1</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4158,20 +4163,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4181,13 +4186,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="13">
         <v>3</v>
@@ -4202,13 +4207,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13">
         <v>6</v>
@@ -4223,20 +4228,20 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="13">
         <v>2</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4246,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="45">
         <v>4</v>
@@ -4267,13 +4272,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="13">
         <v>15</v>
@@ -4288,13 +4293,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E27" s="13">
         <v>8</v>
@@ -4309,20 +4314,20 @@
         <v>20</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="13">
         <v>26</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -4332,20 +4337,20 @@
         <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="13">
         <v>1</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -4355,13 +4360,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="13">
         <v>8</v>
@@ -4376,13 +4381,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="13">
         <v>8</v>
@@ -4397,13 +4402,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="4">
         <v>3</v>
@@ -4417,13 +4422,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>105</v>
-      </c>
       <c r="D33" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E33" s="13">
         <v>16</v>
@@ -4432,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4442,13 +4447,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="13">
         <v>16</v>
@@ -4465,13 +4470,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -4486,13 +4491,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="13">
         <v>8</v>
@@ -4507,13 +4512,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="13">
         <v>3</v>
@@ -4528,13 +4533,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="D38" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="13">
         <v>6</v>
@@ -4551,13 +4556,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="13">
         <v>16</v>
@@ -4566,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4576,13 +4581,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="13">
         <v>16</v>
@@ -4591,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4601,13 +4606,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="13">
         <v>16</v>
@@ -4616,7 +4621,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4626,13 +4631,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E42" s="13">
         <v>16</v>
@@ -4641,7 +4646,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -4651,13 +4656,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="13">
         <v>16</v>
@@ -4666,7 +4671,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4676,13 +4681,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="13">
         <v>16</v>
@@ -4691,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4701,13 +4706,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="13">
         <v>16</v>
@@ -4716,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4726,13 +4731,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E46" s="13">
         <v>16</v>
@@ -4741,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4751,13 +4756,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" s="13">
         <v>16</v>
@@ -4774,13 +4779,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="13">
         <v>16</v>
@@ -4797,13 +4802,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="13">
         <v>16</v>
@@ -4812,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4822,13 +4827,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" s="13">
         <v>16</v>
@@ -4837,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4847,13 +4852,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>322</v>
+        <v>721</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>325</v>
+        <v>722</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E51" s="13">
         <v>16</v>
@@ -4870,20 +4875,20 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="13">
         <v>2</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4893,20 +4898,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="13">
         <v>2000</v>
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -4916,13 +4921,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
@@ -4935,13 +4940,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="13">
         <v>6</v>
@@ -4956,13 +4961,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
@@ -4975,13 +4980,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="13">
         <v>6</v>
@@ -5025,7 +5030,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -5036,153 +5041,153 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5194,10 +5199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5215,10 +5220,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="28" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="36" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -5226,13 +5231,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5241,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5249,13 +5254,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="31">
         <v>16</v>
@@ -5271,13 +5276,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="31">
         <v>16</v>
@@ -5286,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5294,13 +5299,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5309,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5318,13 +5323,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="31">
         <v>16</v>
@@ -5333,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5341,13 +5346,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="31">
         <v>16</v>
@@ -5356,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5365,13 +5370,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="31">
         <v>16</v>
@@ -5380,7 +5385,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5389,13 +5394,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="31">
         <v>16</v>
@@ -5411,13 +5416,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="31">
         <v>16</v>
@@ -5433,13 +5438,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="31">
         <v>16</v>
@@ -5455,13 +5460,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="31">
         <v>16</v>
@@ -5477,13 +5482,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>27</v>
+        <v>707</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="31">
         <v>3</v>
@@ -5497,20 +5502,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5519,20 +5524,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="31">
         <v>2</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5541,20 +5546,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="31">
         <v>2</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5563,20 +5568,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="31">
         <v>1</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5585,13 +5590,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="31">
         <v>16</v>
@@ -5605,20 +5610,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="31" t="s">
         <v>98</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="E19" s="31">
         <v>1</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="27" customFormat="1" ht="228" customHeight="1">
@@ -5627,20 +5632,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="31">
         <v>1</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
@@ -5649,20 +5654,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="31">
         <v>2</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
@@ -5671,13 +5676,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="31">
         <v>16</v>
@@ -5686,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5695,13 +5700,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="31">
         <v>9</v>
@@ -5715,13 +5720,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="31">
         <v>7</v>
@@ -5735,13 +5740,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>81</v>
+        <v>718</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5757,13 +5762,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>103</v>
+        <v>716</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5777,13 +5782,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>103</v>
+        <v>717</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5797,19 +5802,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5818,22 +5823,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="29">
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
@@ -5842,13 +5847,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E30" s="31">
         <v>6</v>
@@ -5862,20 +5867,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="E31" s="31">
         <v>6</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5884,20 +5889,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
@@ -5906,23 +5911,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>223</v>
-      </c>
       <c r="D33" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" s="31">
         <v>1</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5931,13 +5936,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>249</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>250</v>
       </c>
       <c r="E34" s="31">
         <v>60</v>
@@ -5945,108 +5950,110 @@
       <c r="F34" s="31"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:8" s="71" customFormat="1">
-      <c r="A35" s="67">
+    <row r="35" spans="1:8" s="27" customFormat="1">
+      <c r="A35" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="67">
-        <v>3</v>
-      </c>
-      <c r="F35" s="67"/>
-      <c r="G35" s="70"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1">
-      <c r="A36" s="67">
+      <c r="B35" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="E35" s="31">
+        <v>16</v>
+      </c>
+      <c r="F35" s="31">
+        <v>2</v>
+      </c>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" s="27" customFormat="1">
+      <c r="A36" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C36" s="68" t="s">
+      <c r="D36" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="D36" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="67">
+      <c r="E36" s="31">
         <v>30</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1">
-      <c r="A37" s="67">
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" s="27" customFormat="1">
+      <c r="A37" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="68" t="s">
-        <v>701</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>702</v>
-      </c>
-      <c r="D37" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="67">
+      <c r="B37" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="31">
         <v>300</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="70"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1">
-      <c r="A38" s="67">
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" s="27" customFormat="1">
+      <c r="A38" s="31">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>703</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>708</v>
-      </c>
-      <c r="D38" s="69" t="s">
-        <v>706</v>
-      </c>
-      <c r="E38" s="67">
+      <c r="D38" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E38" s="31">
         <v>7</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="70" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="71" customFormat="1">
-      <c r="A39" s="67">
+      <c r="F38" s="31"/>
+      <c r="G38" s="32" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="27" customFormat="1">
+      <c r="A39" s="31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="68" t="s">
-        <v>704</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>707</v>
-      </c>
-      <c r="D39" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" s="67">
+      <c r="B39" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="31">
         <v>18</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="70" t="s">
-        <v>710</v>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6055,13 +6062,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" s="31">
         <v>16</v>
@@ -6070,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6079,20 +6086,20 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="31">
         <v>7</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6101,20 +6108,20 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6123,20 +6130,20 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="31">
         <v>7</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6145,20 +6152,20 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="31">
         <v>3</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -6167,13 +6174,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="31">
         <v>16</v>
@@ -6182,7 +6189,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6191,87 +6198,85 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="31">
         <v>1</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="31.2" customHeight="1">
-      <c r="A47" s="31"/>
-      <c r="B47" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="G47" s="30"/>
-    </row>
-    <row r="48" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>710</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="31">
+        <v>20</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="30" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
       <c r="A48" s="31">
-        <f t="shared" ref="A48:A61" si="1">A47+1</f>
-        <v>1</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>170</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>709</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="29">
-        <v>16</v>
-      </c>
-      <c r="F48" s="28">
-        <v>2</v>
-      </c>
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="31">
+        <v>20</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="30" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A49" s="31"/>
       <c r="B49" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="29">
-        <v>6</v>
-      </c>
-      <c r="F49" s="28">
-        <v>4</v>
-      </c>
-      <c r="G49" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="31">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="A50:A63" si="1">A49+1</f>
+        <v>1</v>
       </c>
       <c r="B50" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>171</v>
-      </c>
       <c r="D50" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="29">
         <v>16</v>
@@ -6284,92 +6289,98 @@
     <row r="51" spans="1:7">
       <c r="A51" s="31">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="29">
+        <v>6</v>
+      </c>
+      <c r="F51" s="28">
         <v>4</v>
       </c>
-      <c r="B51" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="29">
-        <v>3</v>
-      </c>
-      <c r="G51" s="30"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" s="29">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="F52" s="28">
+        <v>2</v>
       </c>
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="E53" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="31">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="E54" s="29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55" s="29">
         <v>8</v>
@@ -6379,16 +6390,16 @@
     <row r="56" spans="1:7">
       <c r="A56" s="31">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E56" s="29">
         <v>8</v>
@@ -6398,345 +6409,382 @@
     <row r="57" spans="1:7">
       <c r="A57" s="31">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="E57" s="29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G57" s="30"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="31">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E58" s="29">
         <v>8</v>
       </c>
+      <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E59" s="29">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="31">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E60" s="29">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="31">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="31">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="31">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B63" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="D63" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A64" s="31"/>
+      <c r="B64" s="28" t="s">
+        <v>671</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="G64" s="30"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="31">
+        <f>A64+1</f>
+        <v>1</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A62" s="31"/>
-      <c r="B62" s="28" t="s">
-        <v>676</v>
-      </c>
-      <c r="D62" s="29"/>
-      <c r="G62" s="30"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="57">
-        <f>A62+1</f>
+      <c r="C65" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="29">
+        <v>3</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A66" s="1">
+        <f t="shared" ref="A66:A75" si="2">A65+1</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="57">
         <v>1</v>
       </c>
-      <c r="B63" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="59">
-        <v>3</v>
-      </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
-      <c r="A64" s="60">
-        <f t="shared" ref="A64:A73" si="2">A63+1</f>
-        <v>2</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>700</v>
-      </c>
-      <c r="C64" s="61" t="s">
-        <v>677</v>
-      </c>
-      <c r="D64" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="62">
-        <v>1</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A65" s="60">
+      <c r="F66" s="57"/>
+      <c r="G66" s="58" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A67" s="1">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B65" s="61" t="s">
-        <v>679</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>680</v>
-      </c>
-      <c r="D65" s="62" t="s">
-        <v>681</v>
-      </c>
-      <c r="E65" s="62">
+      <c r="B67" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>675</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>676</v>
+      </c>
+      <c r="E67" s="57">
         <v>8</v>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="64"/>
-    </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A66" s="60">
+      <c r="F67" s="57"/>
+      <c r="G67" s="59"/>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A68" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B66" s="61" t="s">
-        <v>682</v>
-      </c>
-      <c r="C66" s="61" t="s">
-        <v>683</v>
-      </c>
-      <c r="D66" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="62">
+      <c r="B68" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>678</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="57">
         <v>16</v>
       </c>
-      <c r="F66" s="62">
+      <c r="F68" s="57">
         <v>2</v>
       </c>
-      <c r="G66" s="65"/>
-    </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A67" s="60">
+      <c r="G68" s="60"/>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A69" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B67" s="61" t="s">
-        <v>684</v>
-      </c>
-      <c r="C67" s="61" t="s">
-        <v>685</v>
-      </c>
-      <c r="D67" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="62">
+      <c r="B69" s="56" t="s">
+        <v>679</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>680</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="57">
         <v>16</v>
       </c>
-      <c r="F67" s="62">
+      <c r="F69" s="57">
         <v>2</v>
       </c>
-      <c r="G67" s="66"/>
-    </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A68" s="60">
+      <c r="G69" s="61"/>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B68" s="61" t="s">
-        <v>686</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>687</v>
-      </c>
-      <c r="D68" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" s="62">
+      <c r="B70" s="56" t="s">
+        <v>681</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>682</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="57">
         <v>16</v>
       </c>
-      <c r="F68" s="62">
+      <c r="F70" s="57">
         <v>2</v>
       </c>
-      <c r="G68" s="66" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A69" s="60">
+      <c r="G70" s="61" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B69" s="61" t="s">
-        <v>689</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>690</v>
-      </c>
-      <c r="D69" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E69" s="62">
+      <c r="B71" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="57">
         <v>16</v>
       </c>
-      <c r="F69" s="62">
+      <c r="F71" s="57">
         <v>2</v>
       </c>
-      <c r="G69" s="65"/>
-    </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A70" s="60">
+      <c r="G71" s="60"/>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B70" s="61" t="s">
-        <v>691</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>692</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E70" s="62">
+      <c r="B72" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>687</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="57">
         <v>16</v>
       </c>
-      <c r="F70" s="62">
+      <c r="F72" s="57">
         <v>2</v>
       </c>
-      <c r="G70" s="65"/>
-    </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A71" s="60">
+      <c r="G72" s="60"/>
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B71" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>694</v>
-      </c>
-      <c r="D71" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E71" s="62">
+      <c r="B73" s="56" t="s">
+        <v>688</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>689</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="57">
         <v>16</v>
       </c>
-      <c r="F71" s="62">
+      <c r="F73" s="57">
         <v>2</v>
       </c>
-      <c r="G71" s="66"/>
-    </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A72" s="60">
+      <c r="G73" s="61"/>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A74" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B72" s="61" t="s">
-        <v>695</v>
-      </c>
-      <c r="C72" s="61" t="s">
-        <v>696</v>
-      </c>
-      <c r="D72" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="62">
+      <c r="B74" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="57">
         <v>16</v>
       </c>
-      <c r="F72" s="62">
+      <c r="F74" s="57">
         <v>2</v>
       </c>
-      <c r="G72" s="66" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A73" s="60">
+      <c r="G74" s="61" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A75" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B73" s="61" t="s">
-        <v>698</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>699</v>
-      </c>
-      <c r="D73" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" s="62">
+      <c r="B75" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="57">
         <v>16</v>
       </c>
-      <c r="F73" s="62">
+      <c r="F75" s="57">
         <v>2</v>
       </c>
-      <c r="G73" s="66"/>
+      <c r="G75" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -6749,8 +6797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6776,82 +6824,82 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="J1" s="78" t="s">
-        <v>474</v>
-      </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
+        <v>575</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6861,19 +6909,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6881,18 +6929,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="U4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -6904,25 +6952,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G6" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="H6" t="s">
         <v>453</v>
       </c>
-      <c r="H6" t="s">
-        <v>458</v>
-      </c>
       <c r="I6" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -6930,30 +6978,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="U6" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -6961,99 +7009,99 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="U7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="U8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="D9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="U9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H10" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7061,171 +7109,171 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="U10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="U11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="U12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="I13" s="56"/>
+        <v>455</v>
+      </c>
+      <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="U13" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="32.4">
       <c r="C14" s="39" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D14" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="I14" s="56" t="s">
-        <v>674</v>
+        <v>456</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>669</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="U14" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="I15" s="56" t="s">
-        <v>673</v>
+        <v>457</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>668</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7233,36 +7281,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="U15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>672</v>
+        <v>458</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>667</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7272,17 +7320,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D17" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7294,26 +7342,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7325,7 +7373,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7335,30 +7383,30 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
+        <v>611</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>616</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>621</v>
       </c>
       <c r="E20" s="51"/>
       <c r="G20" s="39" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -7366,17 +7414,17 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="40" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7386,21 +7434,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
-        <v>392</v>
-      </c>
-      <c r="E22" s="54"/>
+        <v>387</v>
+      </c>
+      <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7410,21 +7458,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D23" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" s="54"/>
+        <v>388</v>
+      </c>
+      <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7434,21 +7482,21 @@
     </row>
     <row r="24" spans="1:16">
       <c r="C24" s="39" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
-      </c>
-      <c r="E24" s="54"/>
+        <v>389</v>
+      </c>
+      <c r="E24" s="51"/>
       <c r="G24" s="39" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7458,10 +7506,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="40" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E25" s="51"/>
       <c r="I25" s="48"/>
@@ -7469,7 +7517,7 @@
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7479,23 +7527,23 @@
     </row>
     <row r="26" spans="1:16">
       <c r="C26" s="39" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D26" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7505,29 +7553,29 @@
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="39" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7535,23 +7583,23 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7561,23 +7609,23 @@
     </row>
     <row r="29" spans="1:16">
       <c r="C29" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="D29" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>615</v>
-      </c>
       <c r="E29" s="51" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7587,13 +7635,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7603,7 +7651,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7614,25 +7662,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7643,24 +7691,24 @@
     <row r="32" spans="1:16">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7671,30 +7719,30 @@
     <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="39" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="51" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7703,30 +7751,30 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M34" s="41" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7735,30 +7783,30 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="51" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7766,27 +7814,27 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -7795,24 +7843,24 @@
     <row r="37" spans="1:16">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D37" s="39"/>
       <c r="G37" s="51" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7821,24 +7869,24 @@
     <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="39" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D38" s="39"/>
       <c r="G38" s="51" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7852,13 +7900,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7866,14 +7914,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7886,14 +7934,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -7906,14 +7954,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -7926,24 +7974,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L43" s="41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -7952,31 +8000,31 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>555</v>
-      </c>
-      <c r="I44" s="55" t="s">
-        <v>589</v>
+        <v>550</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>584</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -7985,29 +8033,29 @@
     <row r="45" spans="1:16">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8017,19 +8065,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="I46" s="55" t="s">
-        <v>590</v>
+        <v>263</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>585</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8040,23 +8088,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>259</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>260</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8070,16 +8118,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="I48" s="55" t="s">
-        <v>591</v>
+        <v>264</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8088,13 +8136,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8104,13 +8152,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8120,13 +8168,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8136,13 +8184,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8152,13 +8200,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8168,13 +8216,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8184,13 +8232,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8200,13 +8248,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8215,13 +8263,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8230,13 +8278,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8245,13 +8293,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8260,13 +8308,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8275,13 +8323,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>256</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8290,13 +8338,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8305,13 +8353,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8321,13 +8369,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="I64" s="55" t="s">
-        <v>592</v>
+        <v>265</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8336,13 +8384,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E65" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8351,27 +8399,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I69" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8379,13 +8427,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8393,13 +8441,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8407,13 +8455,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8421,13 +8469,13 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8435,13 +8483,13 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8449,13 +8497,13 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8463,13 +8511,13 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8477,130 +8525,138 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D81" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I81" s="53" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D83" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I83" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D85" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="I85" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="I87" s="53" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I89" s="53" t="s">
-        <v>628</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="D90" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D91" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D92" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -8636,23 +8692,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8677,17 +8733,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="722">
   <si>
     <t>備註說明</t>
   </si>
@@ -905,11 +905,6 @@
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">L8110
-AML有效戶 </t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1718,10 +1713,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>IntEndDate DESC ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, AcSeq asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaHCode=0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2935,6 +2926,10 @@
   <si>
     <t>溢收金額(暫收貸)</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntEndDate asc ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, AcSeq asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3763,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -3844,7 +3839,7 @@
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -4075,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -4088,7 +4083,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4098,10 +4093,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4140,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4153,7 +4148,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4163,10 +4158,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>84</v>
@@ -4176,7 +4171,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4228,10 +4223,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>80</v>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4251,10 +4246,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>84</v>
@@ -4272,10 +4267,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>108</v>
@@ -4293,7 +4288,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>203</v>
@@ -4402,10 +4397,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -4437,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4512,10 +4507,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>80</v>
@@ -4556,10 +4551,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>80</v>
@@ -4571,7 +4566,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4581,10 +4576,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>80</v>
@@ -4596,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4606,7 +4601,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>165</v>
@@ -4656,10 +4651,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>80</v>
@@ -4681,10 +4676,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>80</v>
@@ -4696,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4706,10 +4701,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>80</v>
@@ -4721,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4731,7 +4726,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>150</v>
@@ -4746,7 +4741,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4756,10 +4751,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>80</v>
@@ -4802,10 +4797,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>80</v>
@@ -4817,7 +4812,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4827,10 +4822,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>80</v>
@@ -4842,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4852,10 +4847,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -4875,10 +4870,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>80</v>
@@ -4888,7 +4883,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4901,7 +4896,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>84</v>
@@ -4911,7 +4906,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -5015,9 +5010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5044,10 +5039,10 @@
         <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5069,18 +5064,18 @@
         <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5091,12 +5086,12 @@
         <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>132</v>
@@ -5107,7 +5102,7 @@
         <v>147</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>146</v>
@@ -5148,21 +5143,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>106</v>
@@ -5170,24 +5165,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>414</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -5201,8 +5196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5218,26 +5213,24 @@
     <col min="9" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>218</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" s="36" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>284</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5246,7 +5239,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5276,10 +5269,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>80</v>
@@ -5291,7 +5284,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5305,7 +5298,7 @@
         <v>141</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5314,7 +5307,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5338,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5361,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5385,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5397,7 +5390,7 @@
         <v>139</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>80</v>
@@ -5419,7 +5412,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>80</v>
@@ -5438,10 +5431,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>80</v>
@@ -5460,7 +5453,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -5485,7 +5478,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5502,20 +5495,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>332</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>333</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5524,10 +5517,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>84</v>
@@ -5537,7 +5530,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5546,10 +5539,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>84</v>
@@ -5559,7 +5552,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5568,10 +5561,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>84</v>
@@ -5581,7 +5574,7 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5590,10 +5583,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>299</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>300</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>98</v>
@@ -5635,7 +5628,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>95</v>
@@ -5645,7 +5638,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
@@ -5679,7 +5672,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>80</v>
@@ -5691,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5700,7 +5693,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>34</v>
@@ -5720,7 +5713,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -5746,7 +5739,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5768,7 +5761,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5788,7 +5781,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5814,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5835,10 +5828,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
@@ -5880,7 +5873,7 @@
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5889,20 +5882,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C32" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>418</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>420</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
@@ -5911,10 +5904,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>221</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>222</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>192</v>
@@ -5924,10 +5917,10 @@
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5936,13 +5929,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>248</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="E34" s="31">
         <v>60</v>
@@ -5956,13 +5949,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E35" s="31">
         <v>16</v>
@@ -5978,13 +5971,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>272</v>
       </c>
       <c r="E36" s="31">
         <v>30</v>
@@ -5998,10 +5991,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>192</v>
@@ -6018,20 +6011,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E38" s="31">
         <v>7</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="27" customFormat="1">
@@ -6040,10 +6033,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>192</v>
@@ -6053,7 +6046,7 @@
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6077,7 +6070,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6099,7 +6092,7 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6114,14 +6107,14 @@
         <v>31</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6143,7 +6136,7 @@
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6152,7 +6145,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>33</v>
@@ -6165,7 +6158,7 @@
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -6174,7 +6167,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>22</v>
@@ -6189,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6211,7 +6204,7 @@
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6219,10 +6212,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>708</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>710</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6232,7 +6225,7 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6240,10 +6233,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>709</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>711</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>84</v>
@@ -6253,7 +6246,7 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="31.2" customHeight="1">
@@ -6538,7 +6531,7 @@
     <row r="64" spans="1:7" ht="31.2" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="30"/>
@@ -6561,7 +6554,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
@@ -6570,10 +6563,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>80</v>
@@ -6583,7 +6576,7 @@
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="58" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -6592,13 +6585,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="D67" s="57" t="s">
         <v>674</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>675</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>676</v>
       </c>
       <c r="E67" s="57">
         <v>8</v>
@@ -6612,10 +6605,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6634,10 +6627,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6656,10 +6649,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6671,7 +6664,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -6680,10 +6673,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6702,10 +6695,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6724,10 +6717,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6746,10 +6739,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6761,7 +6754,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -6770,10 +6763,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>80</v>
@@ -6824,27 +6817,27 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
       <c r="M1" s="68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N1" s="68"/>
       <c r="O1" s="68"/>
@@ -6858,48 +6851,48 @@
         <v>161</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>473</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>474</v>
-      </c>
       <c r="O2" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>570</v>
-      </c>
       <c r="I3" s="47" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6909,19 +6902,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
+        <v>567</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>571</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6929,18 +6922,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -6952,25 +6945,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -6978,30 +6971,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7009,46 +7002,46 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7056,34 +7049,34 @@
         <v>164</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H9" t="s">
         <v>164</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>483</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7091,17 +7084,17 @@
         <v>163</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" t="s">
         <v>452</v>
-      </c>
-      <c r="H10" t="s">
-        <v>454</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7109,171 +7102,171 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>487</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>490</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="M13" s="41" t="s">
         <v>491</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>493</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="32.4">
       <c r="C14" s="39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7281,36 +7274,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7320,17 +7313,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7342,26 +7335,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7373,7 +7366,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7383,30 +7376,30 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E20" s="51"/>
       <c r="G20" s="39" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -7414,17 +7407,17 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7434,21 +7427,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7458,21 +7451,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7482,21 +7475,21 @@
     </row>
     <row r="24" spans="1:16">
       <c r="C24" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E24" s="51"/>
       <c r="G24" s="39" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7506,10 +7499,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>403</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>404</v>
       </c>
       <c r="E25" s="51"/>
       <c r="I25" s="48"/>
@@ -7517,7 +7510,7 @@
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7527,23 +7520,23 @@
     </row>
     <row r="26" spans="1:16">
       <c r="C26" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7553,29 +7546,29 @@
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7583,23 +7576,23 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7609,23 +7602,23 @@
     </row>
     <row r="29" spans="1:16">
       <c r="C29" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7635,13 +7628,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7651,7 +7644,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7662,25 +7655,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7691,24 +7684,24 @@
     <row r="32" spans="1:16">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7719,30 +7712,30 @@
     <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7751,30 +7744,30 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M34" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7783,30 +7776,30 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="51" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7814,27 +7807,27 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -7843,24 +7836,24 @@
     <row r="37" spans="1:16">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D37" s="39"/>
       <c r="G37" s="51" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7869,24 +7862,24 @@
     <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D38" s="39"/>
       <c r="G38" s="51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7900,13 +7893,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7914,14 +7907,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7934,14 +7927,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -7954,14 +7947,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -7974,24 +7967,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L43" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>526</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>528</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -8000,31 +7993,31 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -8033,29 +8026,29 @@
     <row r="45" spans="1:16">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8065,19 +8058,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8088,23 +8081,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>258</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>259</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8118,16 +8111,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8136,13 +8129,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8152,13 +8145,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8168,13 +8161,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8184,13 +8177,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8200,13 +8193,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8216,13 +8209,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8232,13 +8225,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8248,13 +8241,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8263,13 +8256,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8278,13 +8271,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8293,13 +8286,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8308,13 +8301,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8323,13 +8316,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>255</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8338,13 +8331,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E62" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>626</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8353,13 +8346,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8369,13 +8362,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8384,13 +8377,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E65" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>253</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8399,27 +8392,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I69" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8427,13 +8420,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8441,13 +8434,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8458,10 +8451,10 @@
         <v>154</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8472,10 +8465,10 @@
         <v>155</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8486,10 +8479,10 @@
         <v>156</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8500,10 +8493,10 @@
         <v>157</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8514,10 +8507,10 @@
         <v>158</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8528,135 +8521,135 @@
         <v>159</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D79" t="s">
         <v>160</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>618</v>
+      </c>
+      <c r="D81" t="s">
+        <v>619</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>620</v>
       </c>
-      <c r="D81" t="s">
+      <c r="I81" s="53" t="s">
         <v>621</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>622</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D83" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I83" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D85" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I85" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>655</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="G87" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="D87" s="50" t="s">
-        <v>658</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>659</v>
-      </c>
       <c r="I87" s="53" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
+        <v>658</v>
+      </c>
+      <c r="D89" s="50" t="s">
         <v>660</v>
       </c>
-      <c r="D89" s="50" t="s">
-        <v>662</v>
-      </c>
       <c r="G89" s="39" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I89" s="53" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D91" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D92" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8692,23 +8685,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>309</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8733,17 +8726,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2520,10 +2520,6 @@
     <t>3237</t>
   </si>
   <si>
-    <t>3225</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>應繳日變更</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2709,11 +2705,6 @@
   <si>
     <t>TX.TRXTRN='3036'
 AND TX.LMSRSN=3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX.TRXTRN='3036'
-AND TX.LMSRSN=0</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
@@ -2930,6 +2921,16 @@
   <si>
     <t>IntEndDate asc ,AcDate asc ,TitaKinBr asc ,TitaTlrNo asc ,TitaTxtNo asc, AcSeq asc</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3225</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3036' ??
+AND TX.LMSRSN=0
+ReconCode = 'A6','A7'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3244,7 +3245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3449,6 +3450,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4096,7 +4100,7 @@
         <v>427</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4847,10 +4851,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -5171,7 +5175,7 @@
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5196,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5478,7 +5482,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5739,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5761,7 +5765,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5781,7 +5785,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5949,13 +5953,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E35" s="31">
         <v>16</v>
@@ -5991,10 +5995,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>192</v>
@@ -6011,20 +6015,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E38" s="31">
         <v>7</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="27" customFormat="1">
@@ -6033,10 +6037,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>192</v>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="32" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6107,7 +6111,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
@@ -6212,10 +6216,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>706</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>708</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6225,7 +6229,7 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6233,10 +6237,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>707</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>709</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>84</v>
@@ -6246,7 +6250,7 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="31.2" customHeight="1">
@@ -6531,7 +6535,7 @@
     <row r="64" spans="1:7" ht="31.2" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="30"/>
@@ -6554,7 +6558,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
@@ -6563,10 +6567,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>80</v>
@@ -6576,7 +6580,7 @@
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="58" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -6585,13 +6589,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>671</v>
+      </c>
+      <c r="D67" s="57" t="s">
         <v>672</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>674</v>
       </c>
       <c r="E67" s="57">
         <v>8</v>
@@ -6605,10 +6609,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6627,10 +6631,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6649,10 +6653,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6664,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -6673,10 +6677,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6695,10 +6699,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6717,10 +6721,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6739,10 +6743,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6754,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -6763,10 +6767,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>80</v>
@@ -6790,8 +6794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7206,7 +7210,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="32.4">
+    <row r="14" spans="1:21" ht="48.6">
       <c r="C14" s="39" t="s">
         <v>381</v>
       </c>
@@ -7219,14 +7223,14 @@
       <c r="H14" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>667</v>
+      <c r="I14" s="54" t="s">
+        <v>721</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>492</v>
@@ -7260,7 +7264,7 @@
         <v>455</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
@@ -7297,7 +7301,7 @@
         <v>456</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
@@ -7323,7 +7327,7 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7529,9 +7533,9 @@
         <v>393</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>616</v>
-      </c>
-      <c r="I26" s="48"/>
+        <v>720</v>
+      </c>
+      <c r="I26" s="69"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
@@ -7658,7 +7662,7 @@
         <v>407</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
@@ -7779,7 +7783,7 @@
         <v>607</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E35" s="50" t="s">
         <v>460</v>
@@ -7907,14 +7911,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7927,14 +7931,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -7947,14 +7951,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -7967,11 +7971,11 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
@@ -8035,7 +8039,7 @@
         <v>551</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="41">
@@ -8148,7 +8152,7 @@
         <v>341</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>341</v>
@@ -8164,7 +8168,7 @@
         <v>342</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F51" s="39" t="s">
         <v>342</v>
@@ -8180,7 +8184,7 @@
         <v>343</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>343</v>
@@ -8196,7 +8200,7 @@
         <v>344</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F53" s="39" t="s">
         <v>344</v>
@@ -8212,7 +8216,7 @@
         <v>345</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>345</v>
@@ -8228,7 +8232,7 @@
         <v>346</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F55" s="39" t="s">
         <v>346</v>
@@ -8244,7 +8248,7 @@
         <v>347</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>347</v>
@@ -8259,7 +8263,7 @@
         <v>348</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F57" s="39" t="s">
         <v>348</v>
@@ -8274,7 +8278,7 @@
         <v>349</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>349</v>
@@ -8289,7 +8293,7 @@
         <v>350</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>350</v>
@@ -8304,7 +8308,7 @@
         <v>351</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>351</v>
@@ -8331,13 +8335,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>625</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>624</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8349,7 +8353,7 @@
         <v>353</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F63" s="39" t="s">
         <v>250</v>
@@ -8392,7 +8396,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>404</v>
@@ -8420,7 +8424,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>572</v>
@@ -8543,16 +8547,16 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>617</v>
+      </c>
+      <c r="D81" t="s">
         <v>618</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="I81" s="53" t="s">
         <v>620</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8571,10 +8575,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D85" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>562</v>
@@ -8585,38 +8589,38 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>654</v>
+      </c>
+      <c r="D87" s="50" t="s">
         <v>655</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="G87" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="G87" s="39" t="s">
-        <v>657</v>
-      </c>
       <c r="I87" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D89" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="G89" s="39" t="s">
         <v>660</v>
       </c>
-      <c r="G89" s="39" t="s">
-        <v>661</v>
-      </c>
       <c r="I89" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -8624,7 +8628,7 @@
         <v>531</v>
       </c>
       <c r="D91" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>563</v>
@@ -8643,13 +8647,13 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D93" s="50" t="s">
         <v>253</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC4680-031B-4AA4-A46C-BC266FB64E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,17 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ST1-ChihWei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="725">
   <si>
     <t>備註說明</t>
   </si>
@@ -2932,11 +2933,23 @@
 ReconCode = 'A6','A7'</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate = ,AND TitaKinBr = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo asc ,FacmNo asc ,BormNo asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>acDateTxtNoEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27">
     <font>
       <sz val="12"/>
@@ -3430,6 +3443,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3451,14 +3467,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3549,6 +3562,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3584,6 +3614,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3759,7 +3806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
@@ -3780,10 +3827,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="12" t="s">
         <v>91</v>
       </c>
@@ -3796,8 +3843,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3810,10 +3857,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3826,10 +3873,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3838,10 +3885,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="6" t="s">
         <v>320</v>
       </c>
@@ -3852,10 +3899,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3864,10 +3911,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -5011,12 +5058,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5189,6 +5236,17 @@
         <v>430</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5197,7 +5255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -6791,10 +6849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -6835,17 +6893,17 @@
       <c r="I1" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="69" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7535,7 +7593,7 @@
       <c r="G26" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
@@ -8669,7 +8727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -8716,7 +8774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EC4680-031B-4AA4-A46C-BC266FB64E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ST1-ChihWei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="724">
   <si>
     <t>備註說明</t>
   </si>
@@ -525,10 +524,6 @@
   <si>
     <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND EntryDate &gt;= ,AND EntryDate &lt;=,AND Displayflag  ^i</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>999;聯貸訂約案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AdvanceCloseCode</t>
@@ -2949,7 +2944,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="27">
     <font>
       <sz val="12"/>
@@ -3470,8 +3465,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3562,23 +3557,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3614,23 +3592,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3806,11 +3767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3890,7 +3851,7 @@
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -3984,9 +3945,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="19" t="s">
-        <v>120</v>
-      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
@@ -4058,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>86</v>
@@ -4079,10 +4038,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>85</v>
@@ -4100,7 +4059,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>79</v>
@@ -4121,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -4134,7 +4093,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4144,10 +4103,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4186,7 +4145,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4199,7 +4158,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4209,10 +4168,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>435</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>84</v>
@@ -4222,7 +4181,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4274,10 +4233,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>80</v>
@@ -4287,7 +4246,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4297,10 +4256,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>440</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>441</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>442</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>84</v>
@@ -4318,10 +4277,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>108</v>
@@ -4339,10 +4298,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>102</v>
@@ -4360,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>38</v>
@@ -4373,7 +4332,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -4383,7 +4342,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>115</v>
@@ -4396,7 +4355,7 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -4427,10 +4386,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>101</v>
@@ -4448,10 +4407,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>429</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -4483,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4558,10 +4517,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>80</v>
@@ -4602,10 +4561,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>80</v>
@@ -4617,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4627,10 +4586,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>80</v>
@@ -4642,7 +4601,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4652,10 +4611,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>80</v>
@@ -4667,7 +4626,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4680,7 +4639,7 @@
         <v>59</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>80</v>
@@ -4692,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -4702,10 +4661,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>80</v>
@@ -4717,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4727,10 +4686,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>80</v>
@@ -4742,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4752,10 +4711,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>80</v>
@@ -4767,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4777,10 +4736,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>80</v>
@@ -4792,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4802,10 +4761,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>316</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>80</v>
@@ -4828,7 +4787,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>80</v>
@@ -4848,10 +4807,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>80</v>
@@ -4863,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4873,10 +4832,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>80</v>
@@ -4888,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4898,10 +4857,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>717</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>718</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -4921,10 +4880,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>424</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>425</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>80</v>
@@ -4934,7 +4893,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4947,7 +4906,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>84</v>
@@ -4957,7 +4916,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -5058,10 +5017,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
@@ -5087,13 +5046,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5112,21 +5071,21 @@
         <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5137,78 +5096,78 @@
         <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>106</v>
@@ -5216,35 +5175,35 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -5255,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -5277,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1" s="30"/>
     </row>
@@ -5286,13 +5245,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>283</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5301,7 +5260,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5331,10 +5290,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>80</v>
@@ -5346,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5354,13 +5313,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5369,7 +5328,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5378,10 +5337,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>80</v>
@@ -5393,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5401,10 +5360,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>80</v>
@@ -5416,7 +5375,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5428,7 +5387,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>80</v>
@@ -5440,7 +5399,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5449,10 +5408,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>80</v>
@@ -5471,10 +5430,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>80</v>
@@ -5493,10 +5452,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>80</v>
@@ -5515,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -5540,7 +5499,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5557,20 +5516,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>331</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>332</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5579,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>84</v>
@@ -5592,7 +5551,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5601,10 +5560,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>84</v>
@@ -5614,7 +5573,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5623,10 +5582,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>84</v>
@@ -5636,7 +5595,7 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5645,10 +5604,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>299</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>98</v>
@@ -5687,10 +5646,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>95</v>
@@ -5700,7 +5659,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
@@ -5709,7 +5668,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>29</v>
@@ -5734,7 +5693,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>80</v>
@@ -5746,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5755,7 +5714,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>34</v>
@@ -5775,7 +5734,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -5801,7 +5760,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5823,7 +5782,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5843,7 +5802,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5857,19 +5816,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5878,22 +5837,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="29">
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="27" customFormat="1" ht="18" customHeight="1">
@@ -5905,10 +5864,10 @@
         <v>72</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E30" s="31">
         <v>6</v>
@@ -5922,20 +5881,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>212</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>213</v>
       </c>
       <c r="E31" s="31">
         <v>6</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5944,20 +5903,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>417</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>418</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
@@ -5966,23 +5925,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>221</v>
-      </c>
       <c r="D33" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33" s="31">
         <v>1</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="27" customFormat="1">
@@ -5991,13 +5950,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>247</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>248</v>
       </c>
       <c r="E34" s="31">
         <v>60</v>
@@ -6011,13 +5970,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E35" s="31">
         <v>16</v>
@@ -6033,13 +5992,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>271</v>
       </c>
       <c r="E36" s="31">
         <v>30</v>
@@ -6053,13 +6012,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>693</v>
-      </c>
       <c r="D37" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E37" s="31">
         <v>300</v>
@@ -6073,20 +6032,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E38" s="31">
         <v>7</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="27" customFormat="1">
@@ -6095,20 +6054,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39" s="31">
         <v>18</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6132,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6147,14 +6106,14 @@
         <v>30</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="31">
         <v>7</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6169,14 +6128,14 @@
         <v>31</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6198,7 +6157,7 @@
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6207,7 +6166,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>33</v>
@@ -6220,7 +6179,7 @@
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -6229,7 +6188,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>22</v>
@@ -6244,7 +6203,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6266,7 +6225,7 @@
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6274,10 +6233,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6287,7 +6246,7 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6295,10 +6254,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>84</v>
@@ -6308,13 +6267,13 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="31.2" customHeight="1">
       <c r="A49" s="31"/>
       <c r="B49" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="29"/>
       <c r="G49" s="30"/>
@@ -6325,13 +6284,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="D50" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E50" s="29">
         <v>16</v>
@@ -6347,13 +6306,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>187</v>
-      </c>
       <c r="D51" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E51" s="29">
         <v>6</v>
@@ -6369,13 +6328,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>170</v>
-      </c>
       <c r="D52" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E52" s="29">
         <v>16</v>
@@ -6391,13 +6350,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>172</v>
-      </c>
       <c r="D53" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="29">
         <v>3</v>
@@ -6410,13 +6369,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="D54" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E54" s="29">
         <v>3</v>
@@ -6429,13 +6388,13 @@
         <v>6</v>
       </c>
       <c r="B55" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="D55" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>177</v>
       </c>
       <c r="E55" s="29">
         <v>8</v>
@@ -6448,13 +6407,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>179</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E56" s="29">
         <v>8</v>
@@ -6467,13 +6426,13 @@
         <v>8</v>
       </c>
       <c r="B57" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>181</v>
-      </c>
       <c r="D57" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="29">
         <v>8</v>
@@ -6486,13 +6445,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="29">
         <v>8</v>
@@ -6505,13 +6464,13 @@
         <v>10</v>
       </c>
       <c r="B59" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>185</v>
-      </c>
       <c r="D59" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E59" s="29">
         <v>16</v>
@@ -6524,13 +6483,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E60" s="29">
         <v>8</v>
@@ -6542,13 +6501,13 @@
         <v>12</v>
       </c>
       <c r="B61" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="D61" s="29" t="s">
         <v>191</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="E61" s="29">
         <v>4</v>
@@ -6560,13 +6519,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="D62" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="29">
         <v>6</v>
@@ -6578,13 +6537,13 @@
         <v>14</v>
       </c>
       <c r="B63" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>196</v>
-      </c>
       <c r="D63" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" s="29">
         <v>8</v>
@@ -6593,7 +6552,7 @@
     <row r="64" spans="1:7" ht="31.2" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="30"/>
@@ -6604,19 +6563,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>198</v>
-      </c>
       <c r="D65" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="29">
         <v>3</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
@@ -6625,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>80</v>
@@ -6638,7 +6597,7 @@
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="58" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -6647,13 +6606,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>669</v>
+      </c>
+      <c r="C67" s="56" t="s">
         <v>670</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="D67" s="57" t="s">
         <v>671</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>672</v>
       </c>
       <c r="E67" s="57">
         <v>8</v>
@@ -6667,10 +6626,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="56" t="s">
+        <v>672</v>
+      </c>
+      <c r="C68" s="56" t="s">
         <v>673</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>674</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6689,10 +6648,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="C69" s="56" t="s">
         <v>675</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>676</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6711,10 +6670,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="56" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" s="56" t="s">
         <v>677</v>
-      </c>
-      <c r="C70" s="56" t="s">
-        <v>678</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6726,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -6735,10 +6694,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="56" t="s">
+        <v>679</v>
+      </c>
+      <c r="C71" s="56" t="s">
         <v>680</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>681</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6757,10 +6716,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="56" t="s">
+        <v>681</v>
+      </c>
+      <c r="C72" s="56" t="s">
         <v>682</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>683</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6779,10 +6738,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="C73" s="56" t="s">
         <v>684</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>685</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6801,10 +6760,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="C74" s="56" t="s">
         <v>686</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>687</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6816,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -6825,10 +6784,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="56" t="s">
+        <v>688</v>
+      </c>
+      <c r="C75" s="56" t="s">
         <v>689</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>690</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>80</v>
@@ -6849,7 +6808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
@@ -6879,27 +6838,27 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
       <c r="M1" s="69" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N1" s="69"/>
       <c r="O1" s="69"/>
@@ -6907,54 +6866,54 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>472</v>
-      </c>
       <c r="O2" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6964,19 +6923,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6984,18 +6943,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -7007,25 +6966,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -7033,30 +6992,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7064,99 +7023,99 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="41" t="s">
         <v>480</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>481</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7164,171 +7123,171 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="M11" s="41" t="s">
         <v>484</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>485</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="M12" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>488</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="M13" s="41" t="s">
         <v>490</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>491</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="48.6">
       <c r="C14" s="39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L14" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="M14" s="41" t="s">
         <v>492</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>493</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7336,36 +7295,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7375,17 +7334,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" t="s">
         <v>598</v>
       </c>
-      <c r="D17" t="s">
-        <v>599</v>
-      </c>
       <c r="G17" s="39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7397,26 +7356,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M18" s="41" t="s">
         <v>497</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>498</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7428,7 +7387,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7438,30 +7397,30 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E20" s="51"/>
       <c r="G20" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -7469,17 +7428,17 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7489,21 +7448,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7513,21 +7472,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7537,21 +7496,21 @@
     </row>
     <row r="24" spans="1:16">
       <c r="C24" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E24" s="51"/>
       <c r="G24" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7561,10 +7520,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>402</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>403</v>
       </c>
       <c r="E25" s="51"/>
       <c r="I25" s="48"/>
@@ -7572,7 +7531,7 @@
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7582,23 +7541,23 @@
     </row>
     <row r="26" spans="1:16">
       <c r="C26" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7608,29 +7567,29 @@
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L27" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>484</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>485</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7638,23 +7597,23 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7664,23 +7623,23 @@
     </row>
     <row r="29" spans="1:16">
       <c r="C29" s="39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>603</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>608</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>604</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7690,13 +7649,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7706,7 +7665,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7717,25 +7676,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7746,24 +7705,24 @@
     <row r="32" spans="1:16">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7774,30 +7733,30 @@
     <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7806,30 +7765,30 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M34" s="41" t="s">
         <v>515</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>516</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7838,30 +7797,30 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="M35" s="41" t="s">
         <v>517</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="M35" s="41" t="s">
-        <v>518</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7869,27 +7828,27 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -7898,24 +7857,24 @@
     <row r="37" spans="1:16">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D37" s="39"/>
       <c r="G37" s="51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7924,24 +7883,24 @@
     <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D38" s="39"/>
       <c r="G38" s="51" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="M38" s="41" t="s">
         <v>521</v>
-      </c>
-      <c r="L38" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>522</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7955,13 +7914,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="L39" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="L39" s="41" t="s">
-        <v>524</v>
-      </c>
       <c r="M39" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7969,14 +7928,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7989,14 +7948,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -8009,14 +7968,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -8029,24 +7988,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>525</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>526</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -8055,31 +8014,31 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -8088,29 +8047,29 @@
     <row r="45" spans="1:16">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>551</v>
-      </c>
       <c r="F45" s="39" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8120,19 +8079,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8143,23 +8102,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>257</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>258</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8173,16 +8132,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8191,13 +8150,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>465</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>466</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8207,13 +8166,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8223,13 +8182,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8239,13 +8198,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8255,13 +8214,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8271,13 +8230,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8287,13 +8246,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8303,13 +8262,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8318,13 +8277,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8333,13 +8292,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8348,13 +8307,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8363,13 +8322,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8378,13 +8337,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>254</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8393,13 +8352,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>622</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>624</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8408,13 +8367,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8424,13 +8383,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8439,13 +8398,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>252</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8454,27 +8413,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8482,13 +8441,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8496,13 +8455,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8510,13 +8469,13 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8524,13 +8483,13 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8538,13 +8497,13 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8552,13 +8511,13 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8566,13 +8525,13 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8580,138 +8539,138 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>616</v>
+      </c>
+      <c r="D81" t="s">
         <v>617</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="I81" s="53" t="s">
         <v>619</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
+        <v>457</v>
+      </c>
+      <c r="D83" t="s">
         <v>458</v>
       </c>
-      <c r="D83" t="s">
-        <v>459</v>
-      </c>
       <c r="G83" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I83" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D85" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>653</v>
+      </c>
+      <c r="D87" s="50" t="s">
         <v>654</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="G87" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="G87" s="39" t="s">
-        <v>656</v>
-      </c>
       <c r="I87" s="53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D89" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="G89" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="G89" s="39" t="s">
-        <v>660</v>
-      </c>
       <c r="I89" s="53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
+        <v>708</v>
+      </c>
+      <c r="G90" s="39" t="s">
         <v>709</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D91" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D92" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
+        <v>660</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="G93" s="39" t="s">
         <v>661</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -8727,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -8747,23 +8706,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>308</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8788,17 +8747,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187FB9E-2179-40AB-BFEF-A833615FB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ST1-ChihWei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="725">
   <si>
     <t>備註說明</t>
   </si>
@@ -1023,19 +1024,6 @@
     <t>(空白):無
 1:借
 2:貸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.RepayCode
-01:匯款轉帳
-02:銀行扣款
-03:員工扣薪
-04:支票
-05:特約金
-06:人事特約金
-07:定存特約
-08:劃撥存款
-09:其他</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1819,10 +1807,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>交易別</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2940,11 +2924,36 @@
     <t>acDateTxtNoEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>CdCode.BatchRepayCode
+01:匯款轉帳
+02:銀行扣款
+03:員工扣款
+04:支票兌現
+05:法院扣薪
+06:理賠金
+09:其他
+11:大額匯款手工增入入帳
+90:暫收抵繳
+91:借新還舊
+93:暫收支票
+95:展期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX.TRXTRN='3033'
+AND JL."AcctCode" = 'F08'</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27">
     <font>
       <sz val="12"/>
@@ -3465,8 +3474,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3557,6 +3566,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3592,6 +3618,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3767,11 +3810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3851,7 +3894,7 @@
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -4080,7 +4123,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -4093,7 +4136,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4103,10 +4146,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4145,7 +4188,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4168,10 +4211,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>84</v>
@@ -4181,7 +4224,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4227,7 +4270,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="162">
+    <row r="24" spans="1:8" ht="210.6">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4236,7 +4279,7 @@
         <v>236</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>80</v>
@@ -4245,8 +4288,8 @@
         <v>2</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="24" t="s">
-        <v>244</v>
+      <c r="G24" s="26" t="s">
+        <v>722</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4256,10 +4299,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>84</v>
@@ -4277,10 +4320,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>438</v>
+        <v>724</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>108</v>
@@ -4407,10 +4450,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>428</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -4442,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4517,7 +4560,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>228</v>
@@ -4561,7 +4604,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>241</v>
@@ -4576,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4586,10 +4629,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>80</v>
@@ -4601,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4611,7 +4654,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>164</v>
@@ -4661,10 +4704,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>80</v>
@@ -4686,10 +4729,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>80</v>
@@ -4701,7 +4744,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4711,10 +4754,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>80</v>
@@ -4726,7 +4769,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4761,10 +4804,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>80</v>
@@ -4807,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>226</v>
@@ -4822,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4832,10 +4875,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>80</v>
@@ -4847,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4857,10 +4900,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -4880,10 +4923,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>424</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>80</v>
@@ -4893,7 +4936,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4906,7 +4949,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>84</v>
@@ -4916,7 +4959,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -5017,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5052,7 +5095,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5079,13 +5122,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5096,12 +5139,12 @@
         <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>131</v>
@@ -5181,29 +5224,29 @@
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
@@ -5236,7 +5279,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1" s="30"/>
     </row>
@@ -5245,13 +5288,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>282</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5260,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5319,7 +5362,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5328,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5352,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5375,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5399,7 +5442,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5411,7 +5454,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>80</v>
@@ -5433,7 +5476,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>80</v>
@@ -5452,10 +5495,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>80</v>
@@ -5499,7 +5542,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5516,20 +5559,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>330</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>331</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5538,10 +5581,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>84</v>
@@ -5551,7 +5594,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5560,10 +5603,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>84</v>
@@ -5573,7 +5616,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5582,10 +5625,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>84</v>
@@ -5595,7 +5638,7 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5604,10 +5647,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>297</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>298</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>98</v>
@@ -5649,7 +5692,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>95</v>
@@ -5693,7 +5736,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>80</v>
@@ -5705,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5714,7 +5757,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>34</v>
@@ -5734,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -5760,7 +5803,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5782,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5802,7 +5845,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5828,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5849,7 +5892,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>217</v>
@@ -5894,7 +5937,7 @@
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5903,20 +5946,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>416</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>417</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
@@ -5950,13 +5993,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="E34" s="31">
         <v>60</v>
@@ -5970,13 +6013,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E35" s="31">
         <v>16</v>
@@ -5992,13 +6035,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>270</v>
       </c>
       <c r="E36" s="31">
         <v>30</v>
@@ -6012,10 +6055,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>191</v>
@@ -6032,20 +6075,20 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E38" s="31">
         <v>7</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="27" customFormat="1">
@@ -6054,10 +6097,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>191</v>
@@ -6067,7 +6110,7 @@
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6091,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6113,7 +6156,7 @@
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6128,14 +6171,14 @@
         <v>31</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E42" s="31">
         <v>14</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6157,7 +6200,7 @@
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6166,7 +6209,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>33</v>
@@ -6179,7 +6222,7 @@
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -6188,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>22</v>
@@ -6203,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6225,7 +6268,7 @@
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6233,10 +6276,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>703</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>705</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6246,7 +6289,7 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6254,10 +6297,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C48" s="28" t="s">
         <v>704</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>706</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>84</v>
@@ -6267,7 +6310,7 @@
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="30" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="31.2" customHeight="1">
@@ -6552,7 +6595,7 @@
     <row r="64" spans="1:7" ht="31.2" customHeight="1">
       <c r="A64" s="31"/>
       <c r="B64" s="28" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D64" s="29"/>
       <c r="G64" s="30"/>
@@ -6575,7 +6618,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
@@ -6584,10 +6627,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="56" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D66" s="57" t="s">
         <v>80</v>
@@ -6597,7 +6640,7 @@
       </c>
       <c r="F66" s="57"/>
       <c r="G66" s="58" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -6606,13 +6649,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>667</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>668</v>
+      </c>
+      <c r="D67" s="57" t="s">
         <v>669</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="D67" s="57" t="s">
-        <v>671</v>
       </c>
       <c r="E67" s="57">
         <v>8</v>
@@ -6626,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6648,10 +6691,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6670,10 +6713,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6685,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -6694,10 +6737,10 @@
         <v>7</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6716,10 +6759,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6738,10 +6781,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6760,10 +6803,10 @@
         <v>10</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6775,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="61" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -6784,10 +6827,10 @@
         <v>11</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D75" s="57" t="s">
         <v>80</v>
@@ -6808,11 +6851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6838,27 +6881,27 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
       <c r="M1" s="69" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N1" s="69"/>
       <c r="O1" s="69"/>
@@ -6872,48 +6915,48 @@
         <v>160</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="L2" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M2" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>470</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>468</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>471</v>
-      </c>
       <c r="O2" s="41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>567</v>
-      </c>
       <c r="I3" s="47" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6923,19 +6966,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
+        <v>564</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>568</v>
-      </c>
       <c r="I4" s="47" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6943,18 +6986,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -6966,25 +7009,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -6992,30 +7035,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7023,46 +7066,46 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="U8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7070,34 +7113,34 @@
         <v>163</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="M9" s="41" t="s">
         <v>478</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>480</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7105,17 +7148,17 @@
         <v>162</v>
       </c>
       <c r="G10" s="39" t="s">
+        <v>447</v>
+      </c>
+      <c r="H10" t="s">
         <v>449</v>
-      </c>
-      <c r="H10" t="s">
-        <v>451</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7123,171 +7166,171 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="M11" s="41" t="s">
         <v>482</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>484</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="M12" s="41" t="s">
         <v>485</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>487</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>487</v>
+      </c>
+      <c r="M13" s="41" t="s">
         <v>488</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>490</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="48.6">
       <c r="C14" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7295,36 +7338,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="U15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7334,17 +7377,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7356,26 +7399,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7387,7 +7430,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7397,30 +7440,30 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E20" s="51"/>
       <c r="G20" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -7428,17 +7471,17 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7448,21 +7491,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7472,21 +7515,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7496,21 +7539,21 @@
     </row>
     <row r="24" spans="1:16">
       <c r="C24" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E24" s="51"/>
       <c r="G24" s="39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7520,10 +7563,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>401</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>402</v>
       </c>
       <c r="E25" s="51"/>
       <c r="I25" s="48"/>
@@ -7531,7 +7574,7 @@
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7541,23 +7584,23 @@
     </row>
     <row r="26" spans="1:16">
       <c r="C26" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I26" s="62"/>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7567,29 +7610,29 @@
     </row>
     <row r="27" spans="1:16">
       <c r="C27" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7597,23 +7640,23 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7623,23 +7666,23 @@
     </row>
     <row r="29" spans="1:16">
       <c r="C29" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7649,13 +7692,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7665,7 +7708,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7676,25 +7719,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7705,24 +7748,24 @@
     <row r="32" spans="1:16">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7733,30 +7776,30 @@
     <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F33"/>
       <c r="G33" s="51" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7765,30 +7808,30 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M34" s="41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7797,30 +7840,30 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="51" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7828,27 +7871,27 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -7857,24 +7900,24 @@
     <row r="37" spans="1:16">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D37" s="39"/>
       <c r="G37" s="51" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7883,24 +7926,24 @@
     <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="39" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D38" s="39"/>
       <c r="G38" s="51" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7914,13 +7957,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7928,14 +7971,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7948,14 +7991,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -7968,14 +8011,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -7988,24 +8031,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L43" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>523</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>525</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -8014,62 +8057,64 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
       <c r="P44" s="41"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" ht="32.4">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>625</v>
-      </c>
-      <c r="I45" s="48"/>
+        <v>623</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>723</v>
+      </c>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8079,19 +8124,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8102,23 +8147,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I47" s="48"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8132,16 +8177,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8150,13 +8195,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8166,13 +8211,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8182,13 +8227,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8198,13 +8243,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8214,13 +8259,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8230,13 +8275,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8246,13 +8291,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8262,13 +8307,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8277,13 +8322,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8292,13 +8337,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8307,13 +8352,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8322,13 +8367,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8337,13 +8382,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>253</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8352,13 +8397,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E62" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>622</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8367,13 +8412,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8383,13 +8428,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8398,13 +8443,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E65" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8413,27 +8458,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I69" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8441,13 +8486,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8455,13 +8500,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8472,10 +8517,10 @@
         <v>153</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8486,10 +8531,10 @@
         <v>154</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8500,10 +8545,10 @@
         <v>155</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8514,10 +8559,10 @@
         <v>156</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8528,10 +8573,10 @@
         <v>157</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8542,135 +8587,135 @@
         <v>158</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>614</v>
+      </c>
+      <c r="D81" t="s">
+        <v>615</v>
+      </c>
+      <c r="G81" s="39" t="s">
         <v>616</v>
       </c>
-      <c r="D81" t="s">
+      <c r="I81" s="53" t="s">
         <v>617</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I83" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D85" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I85" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="G87" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="D87" s="50" t="s">
-        <v>654</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>655</v>
-      </c>
       <c r="I87" s="53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
+        <v>654</v>
+      </c>
+      <c r="D89" s="50" t="s">
         <v>656</v>
       </c>
-      <c r="D89" s="50" t="s">
-        <v>658</v>
-      </c>
       <c r="G89" s="39" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I89" s="53" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D91" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D92" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -8686,7 +8731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -8706,23 +8751,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>307</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +8778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8747,17 +8792,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187FB9E-2179-40AB-BFEF-A833615FB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9C05C-A1C5-4BAB-B960-690893DFF4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="726">
   <si>
     <t>備註說明</t>
   </si>
@@ -2948,6 +2948,24 @@
   <si>
     <t>Desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TX.TRXTRN='3037'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND JL."AcctCode" IN ('T10','T11','T12','T13')</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3262,7 +3280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3446,9 +3464,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3813,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -3831,10 +3846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="12" t="s">
         <v>91</v>
       </c>
@@ -3847,8 +3862,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3861,10 +3876,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3877,10 +3892,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3889,10 +3904,10 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="6" t="s">
         <v>318</v>
       </c>
@@ -3903,10 +3918,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3915,10 +3930,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -6854,8 +6869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6895,17 +6910,17 @@
       <c r="I1" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>464</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69" t="s">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68" t="s">
         <v>465</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7582,7 +7597,7 @@
       <c r="O25" s="41"/>
       <c r="P25" s="41"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="48.6">
       <c r="C26" s="39" t="s">
         <v>397</v>
       </c>
@@ -7595,7 +7610,9 @@
       <c r="G26" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="55" t="s">
+        <v>725</v>
+      </c>
       <c r="J26" s="41">
         <v>3065</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D9C05C-A1C5-4BAB-B960-690893DFF4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,17 +22,17 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ST1-ChihWei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="724">
   <si>
     <t>備註說明</t>
   </si>
@@ -920,25 +919,6 @@
 7:轉列呆帳
 8:催收部分轉呆
 9:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RenewCode</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期記號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>展期協議：新額度商品代碼:60,61,62,63)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>代碼檔: 02-業務作業
-RenewCode展期記號
-1.一般
-2.協議</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1604,12 +1584,6 @@
     <t>服務中心代收抽票</t>
   </si>
   <si>
-    <t>債協退還款</t>
-  </si>
-  <si>
-    <t>AML暫收款</t>
-  </si>
-  <si>
     <t>暫收款登錄</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1618,9 +1592,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>退還</t>
-  </si>
-  <si>
     <t>CdCode:TempItemCode</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1633,40 +1604,21 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>CdCode:Temp2ReasonCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Temp2ReasonCode</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3230轉帳</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1882,19 +1834,7 @@
     <t>放款內容變更</t>
   </si>
   <si>
-    <t>轉出</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>轉入放款暫收款</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉入債協暫收款</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>轉入債協退還款</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2298,10 +2238,6 @@
   </si>
   <si>
     <t>3102</t>
-  </si>
-  <si>
-    <t>3211</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3222</t>
@@ -2465,14 +2401,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯貸費攤提暫收款</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>L3220退還</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2493,10 +2421,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>暫收款退還</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>3237</t>
   </si>
   <si>
@@ -2517,10 +2441,6 @@
   </si>
   <si>
     <t>??????????</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯貸費攤提暫收款</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -2967,12 +2887,86 @@
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>3211</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>債協暫收款退還</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML暫收款退還</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3230銷帳</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉入債協退還款</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>債協退還款轉出</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML暫收款轉出</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸費攤提暫收款轉出</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收款退還</t>
+  </si>
+  <si>
+    <t>一般債權暫收款登錄
+(AcctCode=TAV)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉入債協暫收款</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉入一般債權暫收款
+(AcctCode=TAV)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>債協暫收款轉出</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般債權暫收款轉出
+(AcctCode=TAV)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3167,6 +3161,24 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3280,7 +3292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3465,6 +3477,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3489,8 +3531,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3581,23 +3623,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3633,23 +3658,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3825,11 +3833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -3846,10 +3854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="73"/>
       <c r="C1" s="12" t="s">
         <v>91</v>
       </c>
@@ -3862,8 +3870,8 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
@@ -3876,10 +3884,10 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="32.4">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
@@ -3892,10 +3900,10 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="21"/>
@@ -3904,12 +3912,12 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -3918,10 +3926,10 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="6"/>
       <c r="D6" s="22"/>
       <c r="E6" s="21"/>
@@ -3930,10 +3938,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="6"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
@@ -4138,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -4151,7 +4159,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4161,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4203,7 +4211,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4216,7 +4224,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4226,10 +4234,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>84</v>
@@ -4239,7 +4247,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4291,10 +4299,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>80</v>
@@ -4304,7 +4312,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="26" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4314,10 +4322,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>84</v>
@@ -4335,10 +4343,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>108</v>
@@ -4356,7 +4364,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>202</v>
@@ -4465,10 +4473,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -4500,7 +4508,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4575,10 +4583,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>80</v>
@@ -4619,10 +4627,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>80</v>
@@ -4634,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4644,10 +4652,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>80</v>
@@ -4659,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4669,7 +4677,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>164</v>
@@ -4719,10 +4727,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>80</v>
@@ -4744,10 +4752,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>80</v>
@@ -4759,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4769,10 +4777,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>80</v>
@@ -4784,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4794,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>149</v>
@@ -4809,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4819,10 +4827,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>80</v>
@@ -4865,10 +4873,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>80</v>
@@ -4880,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4890,10 +4898,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>80</v>
@@ -4905,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4915,10 +4923,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -4938,10 +4946,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>80</v>
@@ -4951,7 +4959,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4964,7 +4972,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>84</v>
@@ -4974,7 +4982,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -5075,7 +5083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5107,10 +5115,10 @@
         <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5132,18 +5140,18 @@
         <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5154,12 +5162,12 @@
         <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>131</v>
@@ -5170,7 +5178,7 @@
         <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>145</v>
@@ -5211,21 +5219,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>106</v>
@@ -5233,35 +5241,35 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5272,11 +5280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5294,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H1" s="30"/>
     </row>
@@ -5303,13 +5311,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5318,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5344,14 +5352,14 @@
     </row>
     <row r="4" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A4" s="31">
-        <f t="shared" ref="A4:A46" si="0">A3+1</f>
+        <f t="shared" ref="A4:A47" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>80</v>
@@ -5363,7 +5371,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5377,7 +5385,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5386,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5410,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5433,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5457,7 +5465,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5469,7 +5477,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>80</v>
@@ -5491,7 +5499,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>80</v>
@@ -5510,10 +5518,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>80</v>
@@ -5532,7 +5540,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -5557,7 +5565,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5574,20 +5582,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5596,10 +5604,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>84</v>
@@ -5609,7 +5617,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5618,10 +5626,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>84</v>
@@ -5631,7 +5639,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5640,10 +5648,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>84</v>
@@ -5653,7 +5661,7 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5662,10 +5670,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>98</v>
@@ -5707,7 +5715,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>95</v>
@@ -5751,7 +5759,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>80</v>
@@ -5763,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5772,7 +5780,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>34</v>
@@ -5792,7 +5800,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -5818,7 +5826,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5840,7 +5848,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5860,7 +5868,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5886,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5907,7 +5915,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>217</v>
@@ -5952,7 +5960,7 @@
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5961,340 +5969,338 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="27" customFormat="1" ht="64.8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="27" customFormat="1">
       <c r="A33" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>191</v>
+        <v>241</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>242</v>
       </c>
       <c r="E33" s="31">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F33" s="31"/>
-      <c r="G33" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="27" customFormat="1">
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" s="27" customFormat="1">
       <c r="A34" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>247</v>
+        <v>693</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>245</v>
+        <v>688</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>246</v>
+        <v>692</v>
       </c>
       <c r="E34" s="31">
-        <v>60</v>
-      </c>
-      <c r="F34" s="31"/>
+        <v>16</v>
+      </c>
+      <c r="F34" s="31">
+        <v>2</v>
+      </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:8" s="27" customFormat="1">
+    <row r="35" spans="1:7" s="27" customFormat="1">
       <c r="A35" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>713</v>
+        <v>263</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>708</v>
+        <v>264</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>712</v>
+        <v>265</v>
       </c>
       <c r="E35" s="31">
-        <v>16</v>
-      </c>
-      <c r="F35" s="31">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F35" s="31"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:8" s="27" customFormat="1">
+    <row r="36" spans="1:7" s="27" customFormat="1">
       <c r="A36" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>267</v>
+        <v>669</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="E36" s="31">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="1:8" s="27" customFormat="1">
+    <row r="37" spans="1:7" s="27" customFormat="1">
       <c r="A37" s="31">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>191</v>
+        <v>674</v>
       </c>
       <c r="E37" s="31">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:8" s="27" customFormat="1">
+      <c r="G37" s="32" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="27" customFormat="1">
       <c r="A38" s="31">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>694</v>
+        <v>191</v>
       </c>
       <c r="E38" s="31">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="27" customFormat="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A39" s="31">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>692</v>
+        <v>57</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>191</v>
+        <v>21</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="E39" s="31">
-        <v>18</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F39" s="31">
+        <v>2</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A40" s="31">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E40" s="31">
-        <v>16</v>
-      </c>
-      <c r="F40" s="31">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F40" s="31"/>
       <c r="G40" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A41" s="31">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>200</v>
+        <v>673</v>
       </c>
       <c r="E41" s="31">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A42" s="31">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>693</v>
+        <v>80</v>
       </c>
       <c r="E42" s="31">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
       <c r="A43" s="31">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E43" s="31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="31">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" s="31">
-        <v>3</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="27" customFormat="1" ht="16.5" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F44" s="31">
+        <v>2</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
       <c r="A45" s="31">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E45" s="31">
-        <v>16</v>
-      </c>
-      <c r="F45" s="31">
-        <v>2</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
       <c r="A46" s="31">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>66</v>
+        <v>681</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>65</v>
+        <v>683</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
       <c r="A47" s="31">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6304,114 +6310,112 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="27" customFormat="1" ht="96" customHeight="1">
-      <c r="A48" s="31">
-        <v>47</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>704</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="31">
-        <v>20</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A49" s="31"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="31">
+        <f t="shared" ref="A49:A62" si="1">A48+1</f>
+        <v>1</v>
+      </c>
       <c r="B49" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="29">
+        <v>16</v>
+      </c>
+      <c r="F49" s="28">
+        <v>2</v>
+      </c>
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="31">
-        <f t="shared" ref="A50:A63" si="1">A49+1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="29">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F50" s="28">
-        <v>2</v>
-      </c>
-      <c r="G50" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E51" s="29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F51" s="28">
-        <v>4</v>
-      </c>
-      <c r="G51" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E52" s="29">
-        <v>16</v>
-      </c>
-      <c r="F52" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>124</v>
@@ -6424,32 +6428,32 @@
     <row r="54" spans="1:7">
       <c r="A54" s="31">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E54" s="29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="31">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>176</v>
@@ -6462,13 +6466,13 @@
     <row r="56" spans="1:7">
       <c r="A56" s="31">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>176</v>
@@ -6481,13 +6485,13 @@
     <row r="57" spans="1:7">
       <c r="A57" s="31">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>176</v>
@@ -6500,194 +6504,197 @@
     <row r="58" spans="1:7">
       <c r="A58" s="31">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="E58" s="29">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="31">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="E59" s="29">
-        <v>16</v>
-      </c>
-      <c r="G59" s="30"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="31">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E60" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>191</v>
       </c>
       <c r="E61" s="29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="31">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>191</v>
       </c>
       <c r="E62" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="31">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A63" s="31"/>
       <c r="B63" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="29">
+        <v>644</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="G63" s="30"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="31">
+        <f>A63+1</f>
+        <v>1</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="29">
+        <v>3</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A65" s="1">
+        <f t="shared" ref="A65:A74" si="2">A64+1</f>
+        <v>2</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>668</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>645</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="57">
+        <v>1</v>
+      </c>
+      <c r="F65" s="57"/>
+      <c r="G65" s="58" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A66" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>647</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>649</v>
+      </c>
+      <c r="E66" s="57">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="G64" s="30"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="31">
-        <f>A64+1</f>
-        <v>1</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="29">
-        <v>3</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
-      <c r="A66" s="1">
-        <f t="shared" ref="A66:A75" si="2">A65+1</f>
-        <v>2</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>688</v>
-      </c>
-      <c r="C66" s="56" t="s">
-        <v>665</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="57">
-        <v>1</v>
-      </c>
       <c r="F66" s="57"/>
-      <c r="G66" s="58" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
+      <c r="G66" s="59"/>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A67" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="E67" s="57">
-        <v>8</v>
-      </c>
-      <c r="F67" s="57"/>
-      <c r="G67" s="59"/>
-    </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F67" s="57">
+        <v>2</v>
+      </c>
+      <c r="G67" s="60"/>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6698,18 +6705,18 @@
       <c r="F68" s="57">
         <v>2</v>
       </c>
-      <c r="G68" s="60"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" s="56" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6720,18 +6727,20 @@
       <c r="F69" s="57">
         <v>2</v>
       </c>
-      <c r="G69" s="61"/>
-    </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="G69" s="61" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A70" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6742,20 +6751,18 @@
       <c r="F70" s="57">
         <v>2</v>
       </c>
-      <c r="G70" s="61" t="s">
-        <v>676</v>
-      </c>
+      <c r="G70" s="60"/>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A71" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" s="56" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6768,16 +6775,16 @@
       </c>
       <c r="G71" s="60"/>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6788,18 +6795,18 @@
       <c r="F72" s="57">
         <v>2</v>
       </c>
-      <c r="G72" s="60"/>
+      <c r="G72" s="61"/>
     </row>
     <row r="73" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6810,18 +6817,20 @@
       <c r="F73" s="57">
         <v>2</v>
       </c>
-      <c r="G73" s="61"/>
-    </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="G73" s="61" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A74" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6832,31 +6841,7 @@
       <c r="F74" s="57">
         <v>2</v>
       </c>
-      <c r="G74" s="61" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A75" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B75" s="56" t="s">
-        <v>686</v>
-      </c>
-      <c r="C75" s="56" t="s">
-        <v>687</v>
-      </c>
-      <c r="D75" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="57">
-        <v>16</v>
-      </c>
-      <c r="F75" s="57">
-        <v>2</v>
-      </c>
-      <c r="G75" s="61"/>
+      <c r="G74" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -6866,11 +6851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6879,7 +6864,7 @@
     <col min="2" max="2" width="4.88671875" style="40" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="39" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="39" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="39" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="39" customWidth="1"/>
     <col min="8" max="8" width="28.5546875" customWidth="1"/>
@@ -6896,31 +6881,31 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>464</v>
-      </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68" t="s">
-        <v>465</v>
-      </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+        <v>554</v>
+      </c>
+      <c r="J1" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -6930,48 +6915,48 @@
         <v>160</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6981,19 +6966,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -7001,18 +6986,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -7024,25 +7009,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="H6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -7050,30 +7035,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7081,46 +7066,46 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="U7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="U8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7128,34 +7113,34 @@
         <v>163</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M9" s="41" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="U9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7163,17 +7148,17 @@
         <v>162</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H10" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7181,171 +7166,174 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="U10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="M11" s="41" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="U12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="48.6">
       <c r="C14" s="39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>589</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>719</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>567</v>
+        <v>706</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7353,36 +7341,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="U15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D16" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7392,17 +7380,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D17" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7414,26 +7402,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="L18" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M18" s="41" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7445,7 +7433,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7455,48 +7443,46 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>611</v>
+        <v>386</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>385</v>
       </c>
       <c r="E20" s="51"/>
-      <c r="G20" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>602</v>
-      </c>
+      <c r="I20" s="48"/>
       <c r="J20" s="41">
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" s="40" t="s">
-        <v>396</v>
-      </c>
       <c r="C21" s="39" t="s">
-        <v>392</v>
+        <v>709</v>
+      </c>
+      <c r="D21" t="s">
+        <v>380</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>552</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7506,21 +7492,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>568</v>
+        <v>520</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7530,21 +7516,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7553,22 +7539,19 @@
       <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16">
+      <c r="B24" s="40" t="s">
+        <v>716</v>
+      </c>
       <c r="C24" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="D24" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E24" s="51"/>
-      <c r="G24" s="39" t="s">
-        <v>536</v>
-      </c>
       <c r="I24" s="48"/>
       <c r="J24" s="41">
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7577,19 +7560,24 @@
       <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="B25" s="40" t="s">
-        <v>400</v>
-      </c>
       <c r="C25" s="39" t="s">
-        <v>401</v>
+        <v>717</v>
+      </c>
+      <c r="D25" t="s">
+        <v>718</v>
       </c>
       <c r="E25" s="51"/>
-      <c r="I25" s="48"/>
+      <c r="G25" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>586</v>
+      </c>
       <c r="J25" s="41">
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7599,25 +7587,23 @@
     </row>
     <row r="26" spans="1:16" ht="48.6">
       <c r="C26" s="39" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>391</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="E26" s="51"/>
       <c r="G26" s="39" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7626,30 +7612,22 @@
       <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="C27" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>391</v>
-      </c>
+      <c r="E27" s="51"/>
       <c r="G27" s="39" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="L27" s="41" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="M27" s="41" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7657,23 +7635,21 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D28" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>391</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="E28" s="51"/>
       <c r="G28" s="39" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7682,24 +7658,17 @@
       <c r="P28" s="41"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="C29" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" s="51" t="s">
-        <v>391</v>
-      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
       <c r="G29" s="39" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7709,13 +7678,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>404</v>
+        <v>710</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7725,7 +7694,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7736,25 +7705,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7762,27 +7731,27 @@
       <c r="O31" s="41"/>
       <c r="P31" s="41"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" ht="32.4">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>457</v>
+        <v>722</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>723</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7792,31 +7761,29 @@
     </row>
     <row r="33" spans="1:16">
       <c r="B33"/>
-      <c r="C33" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33" s="51" t="s">
-        <v>540</v>
+      <c r="C33" s="63" t="s">
+        <v>712</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>713</v>
+      </c>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="64" t="s">
+        <v>525</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7825,30 +7792,28 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>457</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E34" s="50"/>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="L34" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M34" s="41" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7857,30 +7822,28 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>604</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="51" t="s">
-        <v>542</v>
+        <v>584</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>715</v>
+      </c>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="62" t="s">
+        <v>527</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="L35" s="41" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M35" s="41" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7888,53 +7851,56 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
       <c r="P36" s="41"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="32.4">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>459</v>
+        <v>720</v>
       </c>
       <c r="D37" s="39"/>
+      <c r="E37" s="67" t="s">
+        <v>721</v>
+      </c>
       <c r="G37" s="51" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7942,25 +7908,27 @@
     </row>
     <row r="38" spans="1:16">
       <c r="B38"/>
-      <c r="C38" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="G38" s="51" t="s">
-        <v>612</v>
+      <c r="C38" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64" t="s">
+        <v>593</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="L38" s="41" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="M38" s="41" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7974,13 +7942,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="L39" s="41" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M39" s="41" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7988,14 +7956,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -8008,14 +7976,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -8028,14 +7996,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -8048,24 +8016,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="L43" s="41" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -8074,31 +8042,31 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -8107,31 +8075,31 @@
     <row r="45" spans="1:16" ht="32.4">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="I45" s="54" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8141,19 +8109,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8164,23 +8132,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8194,16 +8162,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8212,13 +8180,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8228,13 +8196,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8244,13 +8212,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8260,13 +8228,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8276,13 +8244,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8292,13 +8260,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8308,13 +8276,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8324,13 +8292,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8339,13 +8307,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8354,13 +8322,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8369,13 +8337,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8384,13 +8352,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8399,13 +8367,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F61" s="39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8414,13 +8382,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8429,13 +8397,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8445,13 +8413,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8460,13 +8428,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8475,27 +8443,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="I69" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8503,13 +8471,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8517,13 +8485,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8534,10 +8502,10 @@
         <v>153</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8548,10 +8516,10 @@
         <v>154</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8562,10 +8530,10 @@
         <v>155</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8576,10 +8544,10 @@
         <v>156</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8590,10 +8558,10 @@
         <v>157</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8604,135 +8572,135 @@
         <v>158</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="D81" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="I81" s="53" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D83" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="I83" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D85" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="I85" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="G87" s="39" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="I87" s="53" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="I89" s="53" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D91" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="D92" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8748,11 +8716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
@@ -8768,23 +8736,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8795,7 +8763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8809,17 +8777,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="725">
   <si>
     <t>備註說明</t>
   </si>
@@ -2960,6 +2960,10 @@
     <t>一般債權暫收款轉出
 (AcctCode=TAV)</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>計息起日利率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3836,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -4618,7 +4622,9 @@
       <c r="F38" s="13">
         <v>4</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19" t="s">
+        <v>724</v>
+      </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="39" customHeight="1">
@@ -5283,7 +5289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D21E14-A077-4D0E-B14C-EB821C9D6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,17 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="3">交易別!$F$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ST1-ChihWei</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -908,20 +909,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-0:正常
-1:展期(新額度) 
-2:借新還舊(同額度)
-3:轉催收
-4:催收戶本人清償
-5:催收戶保證人代償
-6:催收戶強制執行
-7:轉列呆帳
-8:催收部分轉呆
-9:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>減免違約金</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2965,11 +2952,25 @@
     <t>計息起日利率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>共用代碼檔
+0:正常
+1:展期 
+2:借新還舊(新系統結案時寫入)
+3:轉催收
+4:催收戶本人清償
+5:催收戶保證人代償
+6:催收戶強制執行
+7:轉列呆帳
+8:催收部分轉呆
+9:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29">
     <font>
       <sz val="12"/>
@@ -3535,8 +3536,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3552,9 +3553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3592,9 +3593,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3629,7 +3630,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3664,7 +3665,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3837,10 +3838,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -3921,7 +3922,7 @@
       </c>
       <c r="B5" s="77"/>
       <c r="C5" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="21"/>
@@ -4150,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
@@ -4163,7 +4164,7 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H17" s="30"/>
     </row>
@@ -4173,10 +4174,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>81</v>
@@ -4215,7 +4216,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>17</v>
@@ -4228,7 +4229,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4238,10 +4239,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>421</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>84</v>
@@ -4251,7 +4252,7 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4303,10 +4304,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>80</v>
@@ -4316,7 +4317,7 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4326,10 +4327,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>426</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>427</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>84</v>
@@ -4347,10 +4348,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>108</v>
@@ -4368,7 +4369,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>202</v>
@@ -4477,10 +4478,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>414</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>415</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>84</v>
@@ -4512,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4587,10 +4588,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>80</v>
@@ -4623,7 +4624,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -4633,10 +4634,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>80</v>
@@ -4648,7 +4649,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4658,10 +4659,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>80</v>
@@ -4673,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4683,7 +4684,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>164</v>
@@ -4733,10 +4734,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>80</v>
@@ -4758,10 +4759,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>80</v>
@@ -4773,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4783,10 +4784,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>80</v>
@@ -4798,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4808,7 +4809,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>149</v>
@@ -4823,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4833,10 +4834,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>80</v>
@@ -4879,10 +4880,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>80</v>
@@ -4894,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4904,10 +4905,10 @@
         <v>42</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>80</v>
@@ -4919,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4929,10 +4930,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>694</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>80</v>
@@ -4952,10 +4953,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>410</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>411</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>80</v>
@@ -4965,7 +4966,7 @@
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H52" s="2"/>
     </row>
@@ -4978,7 +4979,7 @@
         <v>113</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>84</v>
@@ -4988,7 +4989,7 @@
       </c>
       <c r="F53" s="13"/>
       <c r="G53" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -5089,7 +5090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5121,10 +5122,10 @@
         <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5146,18 +5147,18 @@
         <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5168,12 +5169,12 @@
         <v>119</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>131</v>
@@ -5184,7 +5185,7 @@
         <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>145</v>
@@ -5225,21 +5226,21 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>106</v>
@@ -5247,35 +5248,35 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5286,11 +5287,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -5308,7 +5309,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1" s="30"/>
     </row>
@@ -5317,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>277</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E2" s="33">
         <v>16</v>
@@ -5332,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5362,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>80</v>
@@ -5377,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5391,7 +5392,7 @@
         <v>140</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="31">
         <v>16</v>
@@ -5400,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5424,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5447,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5471,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" ht="27" customHeight="1">
@@ -5483,7 +5484,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>80</v>
@@ -5505,7 +5506,7 @@
         <v>139</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>80</v>
@@ -5524,10 +5525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>80</v>
@@ -5546,7 +5547,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>26</v>
@@ -5571,7 +5572,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>80</v>
@@ -5588,20 +5589,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5610,10 +5611,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>84</v>
@@ -5623,7 +5624,7 @@
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="27" customFormat="1" ht="172.2" customHeight="1">
@@ -5632,10 +5633,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>84</v>
@@ -5645,7 +5646,7 @@
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="27" customFormat="1" ht="97.95" customHeight="1">
@@ -5654,10 +5655,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>84</v>
@@ -5667,7 +5668,7 @@
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="27" customFormat="1" ht="61.5" customHeight="1">
@@ -5676,10 +5677,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>293</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>98</v>
@@ -5721,7 +5722,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>95</v>
@@ -5731,7 +5732,7 @@
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="30" t="s">
-        <v>218</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="27" customFormat="1" ht="200.7" customHeight="1">
@@ -5765,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>80</v>
@@ -5777,7 +5778,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -5786,7 +5787,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>34</v>
@@ -5806,7 +5807,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="30" t="s">
         <v>35</v>
@@ -5832,7 +5833,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E25" s="31">
         <v>16</v>
@@ -5854,7 +5855,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E26" s="31">
         <v>2</v>
@@ -5874,7 +5875,7 @@
         <v>37</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E27" s="31">
         <v>2</v>
@@ -5900,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32.4">
@@ -5921,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H29" s="28" t="s">
         <v>217</v>
@@ -5966,7 +5967,7 @@
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="27" customFormat="1" ht="37.200000000000003" customHeight="1">
@@ -5975,20 +5976,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="31" t="s">
         <v>403</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>404</v>
       </c>
       <c r="E32" s="31">
         <v>3</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="27" customFormat="1">
@@ -5997,13 +5998,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>241</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>242</v>
       </c>
       <c r="E33" s="31">
         <v>60</v>
@@ -6017,13 +6018,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E34" s="31">
         <v>16</v>
@@ -6039,13 +6040,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>264</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>265</v>
       </c>
       <c r="E35" s="31">
         <v>30</v>
@@ -6059,10 +6060,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>191</v>
@@ -6079,20 +6080,20 @@
         <v>36</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E37" s="31">
         <v>7</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="27" customFormat="1">
@@ -6101,10 +6102,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>191</v>
@@ -6114,7 +6115,7 @@
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6138,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6160,7 +6161,7 @@
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6175,14 +6176,14 @@
         <v>31</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E41" s="31">
         <v>14</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6204,7 +6205,7 @@
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="27" customFormat="1" ht="20.7" customHeight="1">
@@ -6213,7 +6214,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>33</v>
@@ -6226,7 +6227,7 @@
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="27" customFormat="1" ht="16.5" customHeight="1">
@@ -6235,7 +6236,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>22</v>
@@ -6250,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6272,7 +6273,7 @@
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6281,10 +6282,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>84</v>
@@ -6294,7 +6295,7 @@
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="27" customFormat="1" ht="96" customHeight="1">
@@ -6303,10 +6304,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>84</v>
@@ -6316,7 +6317,7 @@
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="31.2" customHeight="1">
@@ -6601,7 +6602,7 @@
     <row r="63" spans="1:7" ht="31.2" customHeight="1">
       <c r="A63" s="31"/>
       <c r="B63" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D63" s="29"/>
       <c r="G63" s="30"/>
@@ -6624,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="2" customFormat="1" ht="97.5" customHeight="1">
@@ -6633,10 +6634,10 @@
         <v>2</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D65" s="57" t="s">
         <v>80</v>
@@ -6646,7 +6647,7 @@
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="58" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1">
@@ -6655,13 +6656,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="56" t="s">
+        <v>646</v>
+      </c>
+      <c r="C66" s="56" t="s">
         <v>647</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="D66" s="57" t="s">
         <v>648</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>649</v>
       </c>
       <c r="E66" s="57">
         <v>8</v>
@@ -6675,10 +6676,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="C67" s="56" t="s">
         <v>650</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>651</v>
       </c>
       <c r="D67" s="57" t="s">
         <v>80</v>
@@ -6697,10 +6698,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="56" t="s">
+        <v>651</v>
+      </c>
+      <c r="C68" s="56" t="s">
         <v>652</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>653</v>
       </c>
       <c r="D68" s="57" t="s">
         <v>80</v>
@@ -6719,10 +6720,10 @@
         <v>6</v>
       </c>
       <c r="B69" s="56" t="s">
+        <v>653</v>
+      </c>
+      <c r="C69" s="56" t="s">
         <v>654</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>655</v>
       </c>
       <c r="D69" s="57" t="s">
         <v>80</v>
@@ -6734,7 +6735,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="2" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -6743,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="56" t="s">
+        <v>656</v>
+      </c>
+      <c r="C70" s="56" t="s">
         <v>657</v>
-      </c>
-      <c r="C70" s="56" t="s">
-        <v>658</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>80</v>
@@ -6765,10 +6766,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="56" t="s">
+        <v>658</v>
+      </c>
+      <c r="C71" s="56" t="s">
         <v>659</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>660</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>80</v>
@@ -6787,10 +6788,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="C72" s="56" t="s">
         <v>661</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>662</v>
       </c>
       <c r="D72" s="57" t="s">
         <v>80</v>
@@ -6809,10 +6810,10 @@
         <v>10</v>
       </c>
       <c r="B73" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="C73" s="56" t="s">
         <v>663</v>
-      </c>
-      <c r="C73" s="56" t="s">
-        <v>664</v>
       </c>
       <c r="D73" s="57" t="s">
         <v>80</v>
@@ -6824,7 +6825,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1">
@@ -6833,10 +6834,10 @@
         <v>11</v>
       </c>
       <c r="B74" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="C74" s="56" t="s">
         <v>666</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>667</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>80</v>
@@ -6857,7 +6858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
@@ -6887,27 +6888,27 @@
   <sheetData>
     <row r="1" spans="1:21" ht="97.2">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
       <c r="M1" s="78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N1" s="78"/>
       <c r="O1" s="78"/>
@@ -6921,48 +6922,48 @@
         <v>160</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J2" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="M2" s="41" t="s">
-        <v>451</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>454</v>
-      </c>
       <c r="O2" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="32.4">
       <c r="D3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J3" s="41">
         <v>3005</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L3" s="41"/>
       <c r="M3" s="41"/>
@@ -6972,19 +6973,19 @@
     </row>
     <row r="4" spans="1:21" ht="32.4">
       <c r="D4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I4" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J4" s="41">
         <v>3010</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
@@ -6992,18 +6993,18 @@
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="S4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="I5" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -7015,25 +7016,25 @@
     </row>
     <row r="6" spans="1:21" ht="32.4">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J6" s="41">
         <v>3015</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="41"/>
@@ -7041,30 +7042,30 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
       <c r="T6" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="D7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" s="48" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J7" s="41">
         <v>3020</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
@@ -7072,46 +7073,46 @@
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="T7" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="D8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J8" s="41">
         <v>3021</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L8" s="41"/>
       <c r="M8" s="41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="41"/>
       <c r="S8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T8" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7119,34 +7120,34 @@
         <v>163</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H9" t="s">
         <v>163</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J9" s="41">
         <v>3025</v>
       </c>
       <c r="K9" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="41" t="s">
         <v>462</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>463</v>
       </c>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="41"/>
       <c r="T9" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7154,17 +7155,17 @@
         <v>162</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="41">
         <v>3030</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -7172,174 +7173,174 @@
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="T10" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="32.4">
       <c r="I11" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J11" s="41">
         <v>3031</v>
       </c>
       <c r="K11" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="M11" s="41" t="s">
         <v>466</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>467</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="41"/>
       <c r="S11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="41">
         <v>3033</v>
       </c>
       <c r="K12" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="M12" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="41"/>
       <c r="T12" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I13" s="55"/>
       <c r="J13" s="41">
         <v>3036</v>
       </c>
       <c r="K13" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="M13" s="41" t="s">
         <v>472</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>473</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="T13" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="48.6">
       <c r="C14" s="39" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J14" s="41">
         <v>3037</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L14" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="M14" s="41" t="s">
         <v>474</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>475</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P14" s="41"/>
       <c r="T14" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="32.4">
       <c r="C15" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J15" s="41">
         <v>3038</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="41"/>
@@ -7347,36 +7348,36 @@
       <c r="O15" s="41"/>
       <c r="P15" s="41"/>
       <c r="S15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="U15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="32.4">
       <c r="C16" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J16" s="41">
         <v>3040</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="41"/>
@@ -7386,17 +7387,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="C17" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="D17" t="s">
         <v>579</v>
       </c>
-      <c r="D17" t="s">
-        <v>580</v>
-      </c>
       <c r="G17" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
@@ -7408,26 +7409,26 @@
     </row>
     <row r="18" spans="1:16">
       <c r="C18" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="41">
         <v>3041</v>
       </c>
       <c r="K18" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="L18" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="M18" s="41" t="s">
         <v>479</v>
-      </c>
-      <c r="L18" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>480</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -7439,7 +7440,7 @@
         <v>3045</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="41"/>
@@ -7449,13 +7450,13 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E20" s="51"/>
       <c r="I20" s="48"/>
@@ -7463,11 +7464,11 @@
         <v>3046</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -7475,20 +7476,20 @@
     </row>
     <row r="21" spans="1:16">
       <c r="C21" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="41">
         <v>3050</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
@@ -7498,21 +7499,21 @@
     </row>
     <row r="22" spans="1:16">
       <c r="C22" s="39" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E22" s="51"/>
       <c r="G22" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="41">
         <v>3051</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="41"/>
@@ -7522,21 +7523,21 @@
     </row>
     <row r="23" spans="1:16">
       <c r="C23" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="51"/>
       <c r="G23" s="39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="41">
         <v>3055</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="41"/>
@@ -7546,10 +7547,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E24" s="51"/>
       <c r="I24" s="48"/>
@@ -7557,7 +7558,7 @@
         <v>3060</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
@@ -7567,23 +7568,23 @@
     </row>
     <row r="25" spans="1:16">
       <c r="C25" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="D25" t="s">
         <v>717</v>
-      </c>
-      <c r="D25" t="s">
-        <v>718</v>
       </c>
       <c r="E25" s="51"/>
       <c r="G25" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J25" s="41">
         <v>3063</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="41"/>
@@ -7593,23 +7594,23 @@
     </row>
     <row r="26" spans="1:16" ht="48.6">
       <c r="C26" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E26" s="51"/>
       <c r="G26" s="39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I26" s="55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J26" s="41">
         <v>3065</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="41"/>
@@ -7620,20 +7621,20 @@
     <row r="27" spans="1:16">
       <c r="E27" s="51"/>
       <c r="G27" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="41">
         <v>3066</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L27" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>466</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>467</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
@@ -7641,21 +7642,21 @@
     </row>
     <row r="28" spans="1:16">
       <c r="C28" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E28" s="51"/>
       <c r="G28" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="41">
         <v>3070</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
@@ -7667,14 +7668,14 @@
       <c r="D29" s="50"/>
       <c r="E29" s="51"/>
       <c r="G29" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="41">
         <v>3075</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
@@ -7684,13 +7685,13 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30"/>
@@ -7700,7 +7701,7 @@
         <v>3076</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L30" s="41"/>
       <c r="M30" s="41"/>
@@ -7711,25 +7712,25 @@
     <row r="31" spans="1:16">
       <c r="B31"/>
       <c r="C31" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31"/>
       <c r="G31" s="51" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="52" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J31" s="41">
         <v>3077</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L31" s="41"/>
       <c r="M31" s="41"/>
@@ -7740,24 +7741,24 @@
     <row r="32" spans="1:16" ht="32.4">
       <c r="B32"/>
       <c r="C32" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D32" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="E32" s="71" t="s">
         <v>722</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>723</v>
       </c>
       <c r="F32"/>
       <c r="G32" s="51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I32" s="52"/>
       <c r="J32" s="41">
         <v>3079</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="41"/>
@@ -7768,28 +7769,28 @@
     <row r="33" spans="1:16">
       <c r="B33"/>
       <c r="C33" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" s="68" t="s">
         <v>712</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>713</v>
       </c>
       <c r="E33" s="65"/>
       <c r="F33" s="66"/>
       <c r="G33" s="64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="41">
         <v>3080</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L33" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41"/>
@@ -7798,28 +7799,28 @@
     <row r="34" spans="1:16">
       <c r="B34"/>
       <c r="C34" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34"/>
       <c r="G34" s="51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="41">
         <v>3081</v>
       </c>
       <c r="K34" s="41" t="s">
+        <v>496</v>
+      </c>
+      <c r="L34" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="M34" s="41" t="s">
         <v>497</v>
-      </c>
-      <c r="L34" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="M34" s="41" t="s">
-        <v>498</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41"/>
@@ -7828,28 +7829,28 @@
     <row r="35" spans="1:16">
       <c r="B35"/>
       <c r="C35" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E35" s="69"/>
       <c r="F35" s="70"/>
       <c r="G35" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="41">
         <v>3082</v>
       </c>
       <c r="K35" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="M35" s="41" t="s">
         <v>499</v>
-      </c>
-      <c r="L35" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="M35" s="41" t="s">
-        <v>500</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
@@ -7857,27 +7858,27 @@
     </row>
     <row r="36" spans="1:16">
       <c r="B36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D36" s="39"/>
       <c r="G36" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="41">
         <v>3083</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L36" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M36" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N36" s="41"/>
       <c r="O36" s="41"/>
@@ -7886,27 +7887,27 @@
     <row r="37" spans="1:16" ht="32.4">
       <c r="B37"/>
       <c r="C37" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="67" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G37" s="51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="41">
         <v>3084</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M37" s="41" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41"/>
@@ -7915,26 +7916,26 @@
     <row r="38" spans="1:16">
       <c r="B38"/>
       <c r="C38" s="68" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
       <c r="G38" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="41">
         <v>3085</v>
       </c>
       <c r="K38" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="L38" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="M38" s="41" t="s">
         <v>503</v>
-      </c>
-      <c r="L38" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="M38" s="41" t="s">
-        <v>504</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
@@ -7948,13 +7949,13 @@
         <v>3086</v>
       </c>
       <c r="K39" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="L39" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="L39" s="41" t="s">
-        <v>506</v>
-      </c>
       <c r="M39" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
@@ -7962,14 +7963,14 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B40"/>
       <c r="D40" s="39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="41"/>
@@ -7982,14 +7983,14 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B41"/>
       <c r="C41" s="39" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I41" s="48"/>
       <c r="J41" s="41"/>
@@ -8002,14 +8003,14 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B42"/>
       <c r="C42" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I42" s="48"/>
       <c r="J42" s="41"/>
@@ -8022,24 +8023,24 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B43"/>
       <c r="D43" s="39" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I43" s="48"/>
       <c r="J43" s="41">
         <v>3087</v>
       </c>
       <c r="K43" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="M43" s="41" t="s">
         <v>507</v>
-      </c>
-      <c r="L43" s="41" t="s">
-        <v>506</v>
-      </c>
-      <c r="M43" s="41" t="s">
-        <v>508</v>
       </c>
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
@@ -8048,31 +8049,31 @@
     <row r="44" spans="1:16" ht="32.4">
       <c r="B44"/>
       <c r="C44" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I44" s="54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J44" s="41">
         <v>3088</v>
       </c>
       <c r="K44" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L44" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N44" s="41"/>
       <c r="O44" s="41"/>
@@ -8081,31 +8082,31 @@
     <row r="45" spans="1:16" ht="32.4">
       <c r="B45"/>
       <c r="C45" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>533</v>
-      </c>
       <c r="F45" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I45" s="54" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J45" s="41">
         <v>3089</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L45" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="41"/>
@@ -8115,19 +8116,19 @@
       <c r="B46"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I46" s="54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J46" s="41">
         <v>3090</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="41"/>
@@ -8138,23 +8139,23 @@
     <row r="47" spans="1:16">
       <c r="B47"/>
       <c r="C47" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E47" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>251</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>252</v>
       </c>
       <c r="I47" s="54"/>
       <c r="J47" s="41">
         <v>3092</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L47" s="41"/>
       <c r="M47" s="41"/>
@@ -8168,16 +8169,16 @@
         <v>10</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -8186,13 +8187,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="39" t="s">
         <v>447</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>448</v>
       </c>
       <c r="I49" s="48"/>
     </row>
@@ -8202,13 +8203,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F50" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I50" s="48"/>
     </row>
@@ -8218,13 +8219,13 @@
         <v>14</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I51" s="48"/>
     </row>
@@ -8234,13 +8235,13 @@
         <v>15</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I52" s="48"/>
     </row>
@@ -8250,13 +8251,13 @@
         <v>16</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I53" s="48"/>
     </row>
@@ -8266,13 +8267,13 @@
         <v>17</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I54" s="48"/>
     </row>
@@ -8282,13 +8283,13 @@
         <v>18</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I55" s="48"/>
     </row>
@@ -8298,13 +8299,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="2:9">
@@ -8313,13 +8314,13 @@
         <v>20</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -8328,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -8343,13 +8344,13 @@
         <v>22</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="2:9">
@@ -8358,13 +8359,13 @@
         <v>23</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F60" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -8373,13 +8374,13 @@
         <v>24</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E61" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="39" t="s">
         <v>248</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="62" spans="2:9">
@@ -8388,13 +8389,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="F62" s="39" t="s">
         <v>601</v>
-      </c>
-      <c r="E62" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -8403,13 +8404,13 @@
         <v>27</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="32.4">
@@ -8419,13 +8420,13 @@
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8434,13 +8435,13 @@
         <v>30</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="39" t="s">
         <v>246</v>
-      </c>
-      <c r="F65" s="39" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8449,27 +8450,27 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="B70" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="32.4">
@@ -8477,13 +8478,13 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I71" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="48.6">
@@ -8491,13 +8492,13 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I72" s="49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="32.4">
@@ -8508,10 +8509,10 @@
         <v>153</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I73" s="49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="32.4">
@@ -8522,10 +8523,10 @@
         <v>154</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I74" s="49" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="32.4">
@@ -8536,10 +8537,10 @@
         <v>155</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I75" s="49" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="32.4">
@@ -8550,10 +8551,10 @@
         <v>156</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I76" s="49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="48.6">
@@ -8564,10 +8565,10 @@
         <v>157</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I77" s="49" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8578,135 +8579,135 @@
         <v>158</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I78" s="49" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="B79" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D79" t="s">
         <v>159</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
+        <v>594</v>
+      </c>
+      <c r="D81" t="s">
         <v>595</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="G81" s="39" t="s">
+      <c r="I81" s="53" t="s">
         <v>597</v>
-      </c>
-      <c r="I81" s="53" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
+        <v>442</v>
+      </c>
+      <c r="D83" t="s">
         <v>443</v>
       </c>
-      <c r="D83" t="s">
-        <v>444</v>
-      </c>
       <c r="G83" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G85" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
+        <v>630</v>
+      </c>
+      <c r="D87" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="G87" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="G87" s="39" t="s">
-        <v>633</v>
-      </c>
       <c r="I87" s="53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D89" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="G89" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="G89" s="39" t="s">
-        <v>637</v>
-      </c>
       <c r="I89" s="53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="D90" s="50" t="s">
+        <v>685</v>
+      </c>
+      <c r="G90" s="39" t="s">
         <v>686</v>
-      </c>
-      <c r="G90" s="39" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D92" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
+        <v>637</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" s="39" t="s">
         <v>638</v>
-      </c>
-      <c r="D93" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8722,7 +8723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -8742,23 +8743,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8783,17 +8784,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorTx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D21E14-A077-4D0E-B14C-EB821C9D6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1B5337-7516-4EE8-87A6-0BDCE85508D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="726">
   <si>
     <t>備註說明</t>
   </si>
@@ -170,16 +170,7 @@
     <t>提前清償原因</t>
   </si>
   <si>
-    <t>匯款分行</t>
-  </si>
-  <si>
     <t>匯款帳號</t>
-  </si>
-  <si>
-    <t>匯款序號</t>
-  </si>
-  <si>
-    <t>扣款銀行</t>
   </si>
   <si>
     <t>支票帳號</t>
@@ -318,10 +309,6 @@
   </si>
   <si>
     <t>RemitAcctNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemitSeq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1087,10 +1074,6 @@
   </si>
   <si>
     <t>其他欄位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayBank</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1685,10 +1668,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>彙總傳票批號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>00：單筆傳票
 01~99：彙總傳票批號</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2965,6 +2944,34 @@
 8:催收部分轉呆
 9:</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>彙總傳票批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemitCustName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款戶名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemitRemark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款備註</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯款銀行</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3841,33 +3848,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="75.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="75.08984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="41" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="2"/>
+    <col min="9" max="16384" width="21.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
@@ -3881,23 +3888,23 @@
         <v>7</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="32.4">
+    <row r="3" spans="1:8" ht="34">
       <c r="A3" s="77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
@@ -3906,7 +3913,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="7"/>
@@ -3918,11 +3925,11 @@
     </row>
     <row r="5" spans